--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>2023-01-24</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -460,7 +465,10 @@
         <v>517771</v>
       </c>
       <c r="C2" t="n">
-        <v>522245</v>
+        <v>525191</v>
+      </c>
+      <c r="D2" t="n">
+        <v>528738</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +481,10 @@
         <v>583662</v>
       </c>
       <c r="C3" t="n">
-        <v>574033</v>
+        <v>574485</v>
+      </c>
+      <c r="D3" t="n">
+        <v>576005</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +497,10 @@
         <v>1154476</v>
       </c>
       <c r="C4" t="n">
-        <v>1164242</v>
+        <v>1171498</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1177577</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +513,10 @@
         <v>214521</v>
       </c>
       <c r="C5" t="n">
-        <v>224343</v>
+        <v>231003</v>
+      </c>
+      <c r="D5" t="n">
+        <v>236469</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +529,10 @@
         <v>3565299</v>
       </c>
       <c r="C6" t="n">
-        <v>3581488</v>
+        <v>3596131</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3609772</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +545,10 @@
         <v>953586</v>
       </c>
       <c r="C7" t="n">
-        <v>975676</v>
+        <v>991588</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1017062</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +561,10 @@
         <v>10191505</v>
       </c>
       <c r="C8" t="n">
-        <v>10219071</v>
+        <v>10232234</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10247431</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +577,10 @@
         <v>1232390</v>
       </c>
       <c r="C9" t="n">
-        <v>1269952</v>
+        <v>1291677</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1316218</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +593,10 @@
         <v>198552</v>
       </c>
       <c r="C10" t="n">
-        <v>203769</v>
+        <v>206493</v>
+      </c>
+      <c r="D10" t="n">
+        <v>209570</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +609,10 @@
         <v>309931</v>
       </c>
       <c r="C11" t="n">
-        <v>313422</v>
+        <v>315388</v>
+      </c>
+      <c r="D11" t="n">
+        <v>317308</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +625,10 @@
         <v>407478</v>
       </c>
       <c r="C12" t="n">
-        <v>425341</v>
+        <v>436671</v>
+      </c>
+      <c r="D12" t="n">
+        <v>448175</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +641,10 @@
         <v>166064</v>
       </c>
       <c r="C13" t="n">
-        <v>175962</v>
+        <v>181527</v>
+      </c>
+      <c r="D13" t="n">
+        <v>186740</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +657,10 @@
         <v>511058</v>
       </c>
       <c r="C14" t="n">
-        <v>521969</v>
+        <v>528127</v>
+      </c>
+      <c r="D14" t="n">
+        <v>544503</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +673,10 @@
         <v>7656395</v>
       </c>
       <c r="C15" t="n">
-        <v>7684120</v>
+        <v>7696363</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7719232</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +689,10 @@
         <v>1053148</v>
       </c>
       <c r="C16" t="n">
-        <v>1068651</v>
+        <v>1074407</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1089861</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +705,10 @@
         <v>92682</v>
       </c>
       <c r="C17" t="n">
-        <v>96052</v>
+        <v>98043</v>
+      </c>
+      <c r="D17" t="n">
+        <v>100840</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +721,10 @@
         <v>870969</v>
       </c>
       <c r="C18" t="n">
-        <v>891273</v>
+        <v>905118</v>
+      </c>
+      <c r="D18" t="n">
+        <v>915868</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +737,10 @@
         <v>163201</v>
       </c>
       <c r="C19" t="n">
-        <v>171877</v>
+        <v>177683</v>
+      </c>
+      <c r="D19" t="n">
+        <v>184119</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +753,10 @@
         <v>2833398</v>
       </c>
       <c r="C20" t="n">
-        <v>2844758</v>
+        <v>2852688</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2861236</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +769,10 @@
         <v>225509</v>
       </c>
       <c r="C21" t="n">
-        <v>233844</v>
+        <v>249003</v>
+      </c>
+      <c r="D21" t="n">
+        <v>261948</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +785,10 @@
         <v>148249</v>
       </c>
       <c r="C22" t="n">
-        <v>150170</v>
+        <v>151241</v>
+      </c>
+      <c r="D22" t="n">
+        <v>152917</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +801,10 @@
         <v>8591948</v>
       </c>
       <c r="C23" t="n">
-        <v>8598075</v>
+        <v>8602569</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8606705</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>2023-01-23</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>2023-01-24</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>2023-01-25</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
         </is>
       </c>
     </row>
@@ -462,13 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>129000</v>
+      </c>
+      <c r="C2" t="n">
         <v>517771</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>525191</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>528738</v>
+      </c>
+      <c r="F2" t="n">
+        <v>534073</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>61600</v>
+      </c>
+      <c r="C3" t="n">
         <v>583662</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>574485</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>576005</v>
+      </c>
+      <c r="F3" t="n">
+        <v>578455</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>853000</v>
+      </c>
+      <c r="C4" t="n">
         <v>1154476</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1171498</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>1177577</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1187481</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>10400</v>
+      </c>
+      <c r="C5" t="n">
         <v>214521</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>231003</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>236469</v>
+      </c>
+      <c r="F5" t="n">
+        <v>242114</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="C6" t="n">
         <v>3565299</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3596131</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>3609772</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3629895</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>252000</v>
+      </c>
+      <c r="C7" t="n">
         <v>953586</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>991588</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1017062</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1047848</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>9300000</v>
+      </c>
+      <c r="C8" t="n">
         <v>10191505</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>10232234</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>10247431</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10278614</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>113000</v>
+      </c>
+      <c r="C9" t="n">
         <v>1232390</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1291677</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1316218</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1377855</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>2541</v>
+      </c>
+      <c r="C10" t="n">
         <v>198552</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>206493</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>209570</v>
+      </c>
+      <c r="F10" t="n">
+        <v>214887</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +670,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>214000</v>
+      </c>
+      <c r="C11" t="n">
         <v>309931</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>315388</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>317308</v>
+      </c>
+      <c r="F11" t="n">
+        <v>319741</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +692,19 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>167000</v>
+      </c>
+      <c r="C12" t="n">
         <v>407478</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>436671</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>448175</v>
+      </c>
+      <c r="F12" t="n">
+        <v>466757</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +714,19 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>10700</v>
+      </c>
+      <c r="C13" t="n">
         <v>166064</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>181527</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>186740</v>
+      </c>
+      <c r="F13" t="n">
+        <v>194312</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +736,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>342000</v>
+      </c>
+      <c r="C14" t="n">
         <v>511058</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>528127</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>544503</v>
+      </c>
+      <c r="F14" t="n">
+        <v>554848</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +758,19 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="C15" t="n">
         <v>7656395</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>7696363</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>7719232</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7739270</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +780,19 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>797000</v>
+      </c>
+      <c r="C16" t="n">
         <v>1053148</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>1074407</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>1089861</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1105375</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +802,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>6855</v>
+      </c>
+      <c r="C17" t="n">
         <v>92682</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>98043</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>100840</v>
+      </c>
+      <c r="F17" t="n">
+        <v>112523</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +824,19 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>654000</v>
+      </c>
+      <c r="C18" t="n">
         <v>870969</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>905118</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>915868</v>
+      </c>
+      <c r="F18" t="n">
+        <v>934313</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +846,19 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>7376</v>
+      </c>
+      <c r="C19" t="n">
         <v>163201</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>177683</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>184119</v>
+      </c>
+      <c r="F19" t="n">
+        <v>195192</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +868,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="C20" t="n">
         <v>2833398</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2852688</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>2861236</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2874061</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +890,19 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>13800</v>
+      </c>
+      <c r="C21" t="n">
         <v>225509</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>249003</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>261948</v>
+      </c>
+      <c r="F21" t="n">
+        <v>287020</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +912,19 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C22" t="n">
         <v>148249</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>151241</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>152917</v>
+      </c>
+      <c r="F22" t="n">
+        <v>156285</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +934,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>8200000</v>
+      </c>
+      <c r="C23" t="n">
         <v>8591948</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>8602569</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>8606705</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8611439</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>2023-01-26</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,9 @@
       <c r="F2" t="n">
         <v>534073</v>
       </c>
+      <c r="G2" t="n">
+        <v>537056</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +516,9 @@
       <c r="F3" t="n">
         <v>578455</v>
       </c>
+      <c r="G3" t="n">
+        <v>581277</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +541,9 @@
       <c r="F4" t="n">
         <v>1187481</v>
       </c>
+      <c r="G4" t="n">
+        <v>1196889</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,6 +566,9 @@
       <c r="F5" t="n">
         <v>242114</v>
       </c>
+      <c r="G5" t="n">
+        <v>246366</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +591,9 @@
       <c r="F6" t="n">
         <v>3629895</v>
       </c>
+      <c r="G6" t="n">
+        <v>3650419</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,6 +616,9 @@
       <c r="F7" t="n">
         <v>1047848</v>
       </c>
+      <c r="G7" t="n">
+        <v>1071210</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,6 +641,9 @@
       <c r="F8" t="n">
         <v>10278614</v>
       </c>
+      <c r="G8" t="n">
+        <v>10309471</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,6 +666,9 @@
       <c r="F9" t="n">
         <v>1377855</v>
       </c>
+      <c r="G9" t="n">
+        <v>1428076</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,6 +691,9 @@
       <c r="F10" t="n">
         <v>214887</v>
       </c>
+      <c r="G10" t="n">
+        <v>220371</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,6 +716,9 @@
       <c r="F11" t="n">
         <v>319741</v>
       </c>
+      <c r="G11" t="n">
+        <v>322945</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +741,9 @@
       <c r="F12" t="n">
         <v>466757</v>
       </c>
+      <c r="G12" t="n">
+        <v>491573</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -728,6 +766,9 @@
       <c r="F13" t="n">
         <v>194312</v>
       </c>
+      <c r="G13" t="n">
+        <v>206436</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -750,6 +791,9 @@
       <c r="F14" t="n">
         <v>554848</v>
       </c>
+      <c r="G14" t="n">
+        <v>571521</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -772,6 +816,9 @@
       <c r="F15" t="n">
         <v>7739270</v>
       </c>
+      <c r="G15" t="n">
+        <v>7753221</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,6 +841,9 @@
       <c r="F16" t="n">
         <v>1105375</v>
       </c>
+      <c r="G16" t="n">
+        <v>1137312</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -816,6 +866,9 @@
       <c r="F17" t="n">
         <v>112523</v>
       </c>
+      <c r="G17" t="n">
+        <v>117808</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -838,6 +891,9 @@
       <c r="F18" t="n">
         <v>934313</v>
       </c>
+      <c r="G18" t="n">
+        <v>955542</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -860,6 +916,9 @@
       <c r="F19" t="n">
         <v>195192</v>
       </c>
+      <c r="G19" t="n">
+        <v>212577</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,6 +941,9 @@
       <c r="F20" t="n">
         <v>2874061</v>
       </c>
+      <c r="G20" t="n">
+        <v>2884001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -904,6 +966,9 @@
       <c r="F21" t="n">
         <v>287020</v>
       </c>
+      <c r="G21" t="n">
+        <v>321130</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -926,6 +991,9 @@
       <c r="F22" t="n">
         <v>156285</v>
       </c>
+      <c r="G22" t="n">
+        <v>158796</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -947,6 +1015,9 @@
       </c>
       <c r="F23" t="n">
         <v>8611439</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8616220</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -516,7 +516,7 @@
         <v>544192</v>
       </c>
       <c r="J2" t="n">
-        <v>550329</v>
+        <v>551325</v>
       </c>
     </row>
     <row r="3">
@@ -550,7 +550,7 @@
         <v>580215</v>
       </c>
       <c r="J3" t="n">
-        <v>581129</v>
+        <v>580975</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         <v>1214407</v>
       </c>
       <c r="J4" t="n">
-        <v>1219118</v>
+        <v>1220327</v>
       </c>
     </row>
     <row r="5">
@@ -618,7 +618,7 @@
         <v>256077</v>
       </c>
       <c r="J5" t="n">
-        <v>260217</v>
+        <v>260895</v>
       </c>
     </row>
     <row r="6">
@@ -652,7 +652,7 @@
         <v>3686190</v>
       </c>
       <c r="J6" t="n">
-        <v>3696806</v>
+        <v>3699286</v>
       </c>
     </row>
     <row r="7">
@@ -686,7 +686,7 @@
         <v>1120515</v>
       </c>
       <c r="J7" t="n">
-        <v>1143591</v>
+        <v>1148099</v>
       </c>
     </row>
     <row r="8">
@@ -720,7 +720,7 @@
         <v>10406596</v>
       </c>
       <c r="J8" t="n">
-        <v>10430404</v>
+        <v>10440067</v>
       </c>
     </row>
     <row r="9">
@@ -754,7 +754,7 @@
         <v>1554173</v>
       </c>
       <c r="J9" t="n">
-        <v>1582435</v>
+        <v>1589294</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>228821</v>
       </c>
       <c r="J10" t="n">
-        <v>232308</v>
+        <v>232725</v>
       </c>
     </row>
     <row r="11">
@@ -822,7 +822,7 @@
         <v>327376</v>
       </c>
       <c r="J11" t="n">
-        <v>334394</v>
+        <v>447125</v>
       </c>
     </row>
     <row r="12">
@@ -856,7 +856,7 @@
         <v>534738</v>
       </c>
       <c r="J12" t="n">
-        <v>548614</v>
+        <v>550781</v>
       </c>
     </row>
     <row r="13">
@@ -890,7 +890,7 @@
         <v>225062</v>
       </c>
       <c r="J13" t="n">
-        <v>230786</v>
+        <v>231811</v>
       </c>
     </row>
     <row r="14">
@@ -924,7 +924,7 @@
         <v>586142</v>
       </c>
       <c r="J14" t="n">
-        <v>589477</v>
+        <v>590058</v>
       </c>
     </row>
     <row r="15">
@@ -958,7 +958,7 @@
         <v>7705006</v>
       </c>
       <c r="J15" t="n">
-        <v>7722138</v>
+        <v>7727024</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +992,7 @@
         <v>1199787</v>
       </c>
       <c r="J16" t="n">
-        <v>1203038</v>
+        <v>1203668</v>
       </c>
     </row>
     <row r="17">
@@ -1026,7 +1026,7 @@
         <v>128001</v>
       </c>
       <c r="J17" t="n">
-        <v>134571</v>
+        <v>135488</v>
       </c>
     </row>
     <row r="18">
@@ -1060,7 +1060,7 @@
         <v>998288</v>
       </c>
       <c r="J18" t="n">
-        <v>1014899</v>
+        <v>1021044</v>
       </c>
     </row>
     <row r="19">
@@ -1094,7 +1094,7 @@
         <v>243619</v>
       </c>
       <c r="J19" t="n">
-        <v>249142</v>
+        <v>250150</v>
       </c>
     </row>
     <row r="20">
@@ -1128,7 +1128,7 @@
         <v>2903908</v>
       </c>
       <c r="J20" t="n">
-        <v>2910122</v>
+        <v>2911457</v>
       </c>
     </row>
     <row r="21">
@@ -1162,7 +1162,7 @@
         <v>375905</v>
       </c>
       <c r="J21" t="n">
-        <v>400513</v>
+        <v>403912</v>
       </c>
     </row>
     <row r="22">
@@ -1196,7 +1196,7 @@
         <v>163379</v>
       </c>
       <c r="J22" t="n">
-        <v>166160</v>
+        <v>166426</v>
       </c>
     </row>
     <row r="23">
@@ -1230,7 +1230,7 @@
         <v>8625669</v>
       </c>
       <c r="J23" t="n">
-        <v>8629920</v>
+        <v>8630809</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>2023-01-30</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,6 +523,9 @@
       <c r="J2" t="n">
         <v>551325</v>
       </c>
+      <c r="K2" t="n">
+        <v>581325</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -552,6 +560,9 @@
       <c r="J3" t="n">
         <v>580975</v>
       </c>
+      <c r="K3" t="n">
+        <v>581307</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -586,6 +597,9 @@
       <c r="J4" t="n">
         <v>1220327</v>
       </c>
+      <c r="K4" t="n">
+        <v>1223231</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -620,6 +634,9 @@
       <c r="J5" t="n">
         <v>260895</v>
       </c>
+      <c r="K5" t="n">
+        <v>262384</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -654,6 +671,9 @@
       <c r="J6" t="n">
         <v>3699286</v>
       </c>
+      <c r="K6" t="n">
+        <v>3705772</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -688,6 +708,9 @@
       <c r="J7" t="n">
         <v>1148099</v>
       </c>
+      <c r="K7" t="n">
+        <v>1156360</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -722,6 +745,9 @@
       <c r="J8" t="n">
         <v>10440067</v>
       </c>
+      <c r="K8" t="n">
+        <v>10458960</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -756,6 +782,9 @@
       <c r="J9" t="n">
         <v>1589294</v>
       </c>
+      <c r="K9" t="n">
+        <v>1607498</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -790,6 +819,9 @@
       <c r="J10" t="n">
         <v>232725</v>
       </c>
+      <c r="K10" t="n">
+        <v>233834</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -824,6 +856,9 @@
       <c r="J11" t="n">
         <v>447125</v>
       </c>
+      <c r="K11" t="n">
+        <v>389965</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -858,6 +893,9 @@
       <c r="J12" t="n">
         <v>550781</v>
       </c>
+      <c r="K12" t="n">
+        <v>558610</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -892,6 +930,9 @@
       <c r="J13" t="n">
         <v>231811</v>
       </c>
+      <c r="K13" t="n">
+        <v>235071</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -926,6 +967,9 @@
       <c r="J14" t="n">
         <v>590058</v>
       </c>
+      <c r="K14" t="n">
+        <v>592582</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -960,6 +1004,9 @@
       <c r="J15" t="n">
         <v>7727024</v>
       </c>
+      <c r="K15" t="n">
+        <v>7726503</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -994,6 +1041,9 @@
       <c r="J16" t="n">
         <v>1203668</v>
       </c>
+      <c r="K16" t="n">
+        <v>1205553</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1028,6 +1078,9 @@
       <c r="J17" t="n">
         <v>135488</v>
       </c>
+      <c r="K17" t="n">
+        <v>137194</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1062,6 +1115,9 @@
       <c r="J18" t="n">
         <v>1021044</v>
       </c>
+      <c r="K18" t="n">
+        <v>1037657</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1096,6 +1152,9 @@
       <c r="J19" t="n">
         <v>250150</v>
       </c>
+      <c r="K19" t="n">
+        <v>252465</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1130,6 +1189,9 @@
       <c r="J20" t="n">
         <v>2911457</v>
       </c>
+      <c r="K20" t="n">
+        <v>2915003</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1164,6 +1226,9 @@
       <c r="J21" t="n">
         <v>403912</v>
       </c>
+      <c r="K21" t="n">
+        <v>412385</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1198,6 +1263,9 @@
       <c r="J22" t="n">
         <v>166426</v>
       </c>
+      <c r="K22" t="n">
+        <v>168122</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1231,6 +1299,9 @@
       </c>
       <c r="J23" t="n">
         <v>8630809</v>
+      </c>
+      <c r="K23" t="n">
+        <v>8632168</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -524,7 +524,7 @@
         <v>551325</v>
       </c>
       <c r="K2" t="n">
-        <v>581325</v>
+        <v>602904</v>
       </c>
     </row>
     <row r="3">
@@ -561,7 +561,7 @@
         <v>580975</v>
       </c>
       <c r="K3" t="n">
-        <v>581307</v>
+        <v>581447</v>
       </c>
     </row>
     <row r="4">
@@ -598,7 +598,7 @@
         <v>1220327</v>
       </c>
       <c r="K4" t="n">
-        <v>1223231</v>
+        <v>1225508</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +635,7 @@
         <v>260895</v>
       </c>
       <c r="K5" t="n">
-        <v>262384</v>
+        <v>263256</v>
       </c>
     </row>
     <row r="6">
@@ -672,7 +672,7 @@
         <v>3699286</v>
       </c>
       <c r="K6" t="n">
-        <v>3705772</v>
+        <v>3710134</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>1148099</v>
       </c>
       <c r="K7" t="n">
-        <v>1156360</v>
+        <v>1160677</v>
       </c>
     </row>
     <row r="8">
@@ -746,7 +746,7 @@
         <v>10440067</v>
       </c>
       <c r="K8" t="n">
-        <v>10458960</v>
+        <v>10468351</v>
       </c>
     </row>
     <row r="9">
@@ -783,7 +783,7 @@
         <v>1589294</v>
       </c>
       <c r="K9" t="n">
-        <v>1607498</v>
+        <v>1618003</v>
       </c>
     </row>
     <row r="10">
@@ -820,7 +820,7 @@
         <v>232725</v>
       </c>
       <c r="K10" t="n">
-        <v>233834</v>
+        <v>234343</v>
       </c>
     </row>
     <row r="11">
@@ -857,7 +857,7 @@
         <v>447125</v>
       </c>
       <c r="K11" t="n">
-        <v>389965</v>
+        <v>393556</v>
       </c>
     </row>
     <row r="12">
@@ -894,7 +894,7 @@
         <v>550781</v>
       </c>
       <c r="K12" t="n">
-        <v>558610</v>
+        <v>566122</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         <v>231811</v>
       </c>
       <c r="K13" t="n">
-        <v>235071</v>
+        <v>237066</v>
       </c>
     </row>
     <row r="14">
@@ -968,7 +968,7 @@
         <v>590058</v>
       </c>
       <c r="K14" t="n">
-        <v>592582</v>
+        <v>594857</v>
       </c>
     </row>
     <row r="15">
@@ -1005,7 +1005,7 @@
         <v>7727024</v>
       </c>
       <c r="K15" t="n">
-        <v>7726503</v>
+        <v>7741007</v>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
         <v>1203668</v>
       </c>
       <c r="K16" t="n">
-        <v>1205553</v>
+        <v>1206697</v>
       </c>
     </row>
     <row r="17">
@@ -1079,7 +1079,7 @@
         <v>135488</v>
       </c>
       <c r="K17" t="n">
-        <v>137194</v>
+        <v>138169</v>
       </c>
     </row>
     <row r="18">
@@ -1116,7 +1116,7 @@
         <v>1021044</v>
       </c>
       <c r="K18" t="n">
-        <v>1037657</v>
+        <v>1045084</v>
       </c>
     </row>
     <row r="19">
@@ -1153,7 +1153,7 @@
         <v>250150</v>
       </c>
       <c r="K19" t="n">
-        <v>252465</v>
+        <v>254622</v>
       </c>
     </row>
     <row r="20">
@@ -1190,7 +1190,7 @@
         <v>2911457</v>
       </c>
       <c r="K20" t="n">
-        <v>2915003</v>
+        <v>2917186</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>403912</v>
       </c>
       <c r="K21" t="n">
-        <v>412385</v>
+        <v>422912</v>
       </c>
     </row>
     <row r="22">
@@ -1264,7 +1264,7 @@
         <v>166426</v>
       </c>
       <c r="K22" t="n">
-        <v>168122</v>
+        <v>169407</v>
       </c>
     </row>
     <row r="23">
@@ -1301,7 +1301,7 @@
         <v>8630809</v>
       </c>
       <c r="K23" t="n">
-        <v>8632168</v>
+        <v>8633838</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>2023-01-31</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,9 @@
       <c r="K2" t="n">
         <v>602904</v>
       </c>
+      <c r="L2" t="n">
+        <v>632178</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -563,6 +571,9 @@
       <c r="K3" t="n">
         <v>581447</v>
       </c>
+      <c r="L3" t="n">
+        <v>584208</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -600,6 +611,9 @@
       <c r="K4" t="n">
         <v>1225508</v>
       </c>
+      <c r="L4" t="n">
+        <v>1229883</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -637,6 +651,9 @@
       <c r="K5" t="n">
         <v>263256</v>
       </c>
+      <c r="L5" t="n">
+        <v>265508</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +691,9 @@
       <c r="K6" t="n">
         <v>3710134</v>
       </c>
+      <c r="L6" t="n">
+        <v>3721608</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -711,6 +731,9 @@
       <c r="K7" t="n">
         <v>1160677</v>
       </c>
+      <c r="L7" t="n">
+        <v>1171286</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -748,6 +771,9 @@
       <c r="K8" t="n">
         <v>10468351</v>
       </c>
+      <c r="L8" t="n">
+        <v>10495576</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -785,6 +811,9 @@
       <c r="K9" t="n">
         <v>1618003</v>
       </c>
+      <c r="L9" t="n">
+        <v>1646509</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -822,6 +851,9 @@
       <c r="K10" t="n">
         <v>234343</v>
       </c>
+      <c r="L10" t="n">
+        <v>235463</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -859,6 +891,9 @@
       <c r="K11" t="n">
         <v>393556</v>
       </c>
+      <c r="L11" t="n">
+        <v>370093</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -896,6 +931,9 @@
       <c r="K12" t="n">
         <v>566122</v>
       </c>
+      <c r="L12" t="n">
+        <v>577352</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -933,6 +971,9 @@
       <c r="K13" t="n">
         <v>237066</v>
       </c>
+      <c r="L13" t="n">
+        <v>240787</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -970,6 +1011,9 @@
       <c r="K14" t="n">
         <v>594857</v>
       </c>
+      <c r="L14" t="n">
+        <v>600142</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1007,6 +1051,9 @@
       <c r="K15" t="n">
         <v>7741007</v>
       </c>
+      <c r="L15" t="n">
+        <v>7757162</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1044,6 +1091,9 @@
       <c r="K16" t="n">
         <v>1206697</v>
       </c>
+      <c r="L16" t="n">
+        <v>1209163</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1081,6 +1131,9 @@
       <c r="K17" t="n">
         <v>138169</v>
       </c>
+      <c r="L17" t="n">
+        <v>141146</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1118,6 +1171,9 @@
       <c r="K18" t="n">
         <v>1045084</v>
       </c>
+      <c r="L18" t="n">
+        <v>1057190</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1155,6 +1211,9 @@
       <c r="K19" t="n">
         <v>254622</v>
       </c>
+      <c r="L19" t="n">
+        <v>257858</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1192,6 +1251,9 @@
       <c r="K20" t="n">
         <v>2917186</v>
       </c>
+      <c r="L20" t="n">
+        <v>2921624</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1229,6 +1291,9 @@
       <c r="K21" t="n">
         <v>422912</v>
       </c>
+      <c r="L21" t="n">
+        <v>435047</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1266,6 +1331,9 @@
       <c r="K22" t="n">
         <v>169407</v>
       </c>
+      <c r="L22" t="n">
+        <v>172492</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1302,6 +1370,9 @@
       </c>
       <c r="K23" t="n">
         <v>8633838</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8636374</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -532,7 +532,7 @@
         <v>602904</v>
       </c>
       <c r="L2" t="n">
-        <v>632178</v>
+        <v>714975</v>
       </c>
     </row>
     <row r="3">
@@ -572,7 +572,7 @@
         <v>581447</v>
       </c>
       <c r="L3" t="n">
-        <v>584208</v>
+        <v>588798</v>
       </c>
     </row>
     <row r="4">
@@ -612,7 +612,7 @@
         <v>1225508</v>
       </c>
       <c r="L4" t="n">
-        <v>1229883</v>
+        <v>1232892</v>
       </c>
     </row>
     <row r="5">
@@ -652,7 +652,7 @@
         <v>263256</v>
       </c>
       <c r="L5" t="n">
-        <v>265508</v>
+        <v>268248</v>
       </c>
     </row>
     <row r="6">
@@ -692,7 +692,7 @@
         <v>3710134</v>
       </c>
       <c r="L6" t="n">
-        <v>3721608</v>
+        <v>3731407</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         <v>1160677</v>
       </c>
       <c r="L7" t="n">
-        <v>1171286</v>
+        <v>1178714</v>
       </c>
     </row>
     <row r="8">
@@ -772,7 +772,7 @@
         <v>10468351</v>
       </c>
       <c r="L8" t="n">
-        <v>10495576</v>
+        <v>10505839</v>
       </c>
     </row>
     <row r="9">
@@ -812,7 +812,7 @@
         <v>1618003</v>
       </c>
       <c r="L9" t="n">
-        <v>1646509</v>
+        <v>1661130</v>
       </c>
     </row>
     <row r="10">
@@ -852,7 +852,7 @@
         <v>234343</v>
       </c>
       <c r="L10" t="n">
-        <v>235463</v>
+        <v>236735</v>
       </c>
     </row>
     <row r="11">
@@ -892,7 +892,7 @@
         <v>393556</v>
       </c>
       <c r="L11" t="n">
-        <v>370093</v>
+        <v>388803</v>
       </c>
     </row>
     <row r="12">
@@ -932,7 +932,7 @@
         <v>566122</v>
       </c>
       <c r="L12" t="n">
-        <v>577352</v>
+        <v>584647</v>
       </c>
     </row>
     <row r="13">
@@ -972,7 +972,7 @@
         <v>237066</v>
       </c>
       <c r="L13" t="n">
-        <v>240787</v>
+        <v>243922</v>
       </c>
     </row>
     <row r="14">
@@ -1012,7 +1012,7 @@
         <v>594857</v>
       </c>
       <c r="L14" t="n">
-        <v>600142</v>
+        <v>603344</v>
       </c>
     </row>
     <row r="15">
@@ -1052,7 +1052,7 @@
         <v>7741007</v>
       </c>
       <c r="L15" t="n">
-        <v>7757162</v>
+        <v>7768419</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>1206697</v>
       </c>
       <c r="L16" t="n">
-        <v>1209163</v>
+        <v>1216417</v>
       </c>
     </row>
     <row r="17">
@@ -1132,7 +1132,7 @@
         <v>138169</v>
       </c>
       <c r="L17" t="n">
-        <v>141146</v>
+        <v>144020</v>
       </c>
     </row>
     <row r="18">
@@ -1172,7 +1172,7 @@
         <v>1045084</v>
       </c>
       <c r="L18" t="n">
-        <v>1057190</v>
+        <v>1065411</v>
       </c>
     </row>
     <row r="19">
@@ -1212,7 +1212,7 @@
         <v>254622</v>
       </c>
       <c r="L19" t="n">
-        <v>257858</v>
+        <v>260723</v>
       </c>
     </row>
     <row r="20">
@@ -1252,7 +1252,7 @@
         <v>2917186</v>
       </c>
       <c r="L20" t="n">
-        <v>2921624</v>
+        <v>2925178</v>
       </c>
     </row>
     <row r="21">
@@ -1292,7 +1292,7 @@
         <v>422912</v>
       </c>
       <c r="L21" t="n">
-        <v>435047</v>
+        <v>442448</v>
       </c>
     </row>
     <row r="22">
@@ -1332,7 +1332,7 @@
         <v>169407</v>
       </c>
       <c r="L22" t="n">
-        <v>172492</v>
+        <v>174755</v>
       </c>
     </row>
     <row r="23">
@@ -1372,7 +1372,7 @@
         <v>8633838</v>
       </c>
       <c r="L23" t="n">
-        <v>8636374</v>
+        <v>8639586</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>2023-02-01</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -534,6 +539,9 @@
       <c r="L2" t="n">
         <v>714975</v>
       </c>
+      <c r="M2" t="n">
+        <v>706257</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -574,6 +582,9 @@
       <c r="L3" t="n">
         <v>588798</v>
       </c>
+      <c r="M3" t="n">
+        <v>591258</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -614,6 +625,9 @@
       <c r="L4" t="n">
         <v>1232892</v>
       </c>
+      <c r="M4" t="n">
+        <v>1241118</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -654,6 +668,9 @@
       <c r="L5" t="n">
         <v>268248</v>
       </c>
+      <c r="M5" t="n">
+        <v>272657</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +711,9 @@
       <c r="L6" t="n">
         <v>3731407</v>
       </c>
+      <c r="M6" t="n">
+        <v>3753661</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -734,6 +754,9 @@
       <c r="L7" t="n">
         <v>1178714</v>
       </c>
+      <c r="M7" t="n">
+        <v>1197122</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -774,6 +797,9 @@
       <c r="L8" t="n">
         <v>10505839</v>
       </c>
+      <c r="M8" t="n">
+        <v>10532159</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -814,6 +840,9 @@
       <c r="L9" t="n">
         <v>1661130</v>
       </c>
+      <c r="M9" t="n">
+        <v>1691773</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -854,6 +883,9 @@
       <c r="L10" t="n">
         <v>236735</v>
       </c>
+      <c r="M10" t="n">
+        <v>238455</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -894,6 +926,9 @@
       <c r="L11" t="n">
         <v>388803</v>
       </c>
+      <c r="M11" t="n">
+        <v>382882</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -934,6 +969,9 @@
       <c r="L12" t="n">
         <v>584647</v>
       </c>
+      <c r="M12" t="n">
+        <v>621983</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -974,6 +1012,9 @@
       <c r="L13" t="n">
         <v>243922</v>
       </c>
+      <c r="M13" t="n">
+        <v>256158</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1014,6 +1055,9 @@
       <c r="L14" t="n">
         <v>603344</v>
       </c>
+      <c r="M14" t="n">
+        <v>609724</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1054,6 +1098,9 @@
       <c r="L15" t="n">
         <v>7768419</v>
       </c>
+      <c r="M15" t="n">
+        <v>7838691</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1094,6 +1141,9 @@
       <c r="L16" t="n">
         <v>1216417</v>
       </c>
+      <c r="M16" t="n">
+        <v>1225914</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1134,6 +1184,9 @@
       <c r="L17" t="n">
         <v>144020</v>
       </c>
+      <c r="M17" t="n">
+        <v>148791</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1174,6 +1227,9 @@
       <c r="L18" t="n">
         <v>1065411</v>
       </c>
+      <c r="M18" t="n">
+        <v>1093432</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1214,6 +1270,9 @@
       <c r="L19" t="n">
         <v>260723</v>
       </c>
+      <c r="M19" t="n">
+        <v>267207</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1254,6 +1313,9 @@
       <c r="L20" t="n">
         <v>2925178</v>
       </c>
+      <c r="M20" t="n">
+        <v>2932285</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1294,6 +1356,9 @@
       <c r="L21" t="n">
         <v>442448</v>
       </c>
+      <c r="M21" t="n">
+        <v>471500</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1334,6 +1399,9 @@
       <c r="L22" t="n">
         <v>174755</v>
       </c>
+      <c r="M22" t="n">
+        <v>180832</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1373,6 +1441,9 @@
       </c>
       <c r="L23" t="n">
         <v>8639586</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8647941</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>2023-02-02</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -542,6 +547,9 @@
       <c r="M2" t="n">
         <v>706257</v>
       </c>
+      <c r="N2" t="n">
+        <v>705839</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -585,6 +593,9 @@
       <c r="M3" t="n">
         <v>591258</v>
       </c>
+      <c r="N3" t="n">
+        <v>592511</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,6 +639,9 @@
       <c r="M4" t="n">
         <v>1241118</v>
       </c>
+      <c r="N4" t="n">
+        <v>1245677</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -671,6 +685,9 @@
       <c r="M5" t="n">
         <v>272657</v>
       </c>
+      <c r="N5" t="n">
+        <v>275136</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +731,9 @@
       <c r="M6" t="n">
         <v>3753661</v>
       </c>
+      <c r="N6" t="n">
+        <v>3771190</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -757,6 +777,9 @@
       <c r="M7" t="n">
         <v>1197122</v>
       </c>
+      <c r="N7" t="n">
+        <v>1241672</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -800,6 +823,9 @@
       <c r="M8" t="n">
         <v>10532159</v>
       </c>
+      <c r="N8" t="n">
+        <v>10550078</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -843,6 +869,9 @@
       <c r="M9" t="n">
         <v>1691773</v>
       </c>
+      <c r="N9" t="n">
+        <v>1710209</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -886,6 +915,9 @@
       <c r="M10" t="n">
         <v>238455</v>
       </c>
+      <c r="N10" t="n">
+        <v>238272</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -929,6 +961,9 @@
       <c r="M11" t="n">
         <v>382882</v>
       </c>
+      <c r="N11" t="n">
+        <v>384156</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -972,6 +1007,9 @@
       <c r="M12" t="n">
         <v>621983</v>
       </c>
+      <c r="N12" t="n">
+        <v>643134</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1015,6 +1053,9 @@
       <c r="M13" t="n">
         <v>256158</v>
       </c>
+      <c r="N13" t="n">
+        <v>261369</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1058,6 +1099,9 @@
       <c r="M14" t="n">
         <v>609724</v>
       </c>
+      <c r="N14" t="n">
+        <v>614202</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1101,6 +1145,9 @@
       <c r="M15" t="n">
         <v>7838691</v>
       </c>
+      <c r="N15" t="n">
+        <v>7919422</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1144,6 +1191,9 @@
       <c r="M16" t="n">
         <v>1225914</v>
       </c>
+      <c r="N16" t="n">
+        <v>1228911</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1187,6 +1237,9 @@
       <c r="M17" t="n">
         <v>148791</v>
       </c>
+      <c r="N17" t="n">
+        <v>157611</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1230,6 +1283,9 @@
       <c r="M18" t="n">
         <v>1093432</v>
       </c>
+      <c r="N18" t="n">
+        <v>1105761</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1273,6 +1329,9 @@
       <c r="M19" t="n">
         <v>267207</v>
       </c>
+      <c r="N19" t="n">
+        <v>270394</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1316,6 +1375,9 @@
       <c r="M20" t="n">
         <v>2932285</v>
       </c>
+      <c r="N20" t="n">
+        <v>2938003</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1359,6 +1421,9 @@
       <c r="M21" t="n">
         <v>471500</v>
       </c>
+      <c r="N21" t="n">
+        <v>490982</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1402,6 +1467,9 @@
       <c r="M22" t="n">
         <v>180832</v>
       </c>
+      <c r="N22" t="n">
+        <v>182804</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1444,6 +1512,9 @@
       </c>
       <c r="M23" t="n">
         <v>8647941</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8653460</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>2023-02-03</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -550,6 +555,9 @@
       <c r="N2" t="n">
         <v>705839</v>
       </c>
+      <c r="O2" t="n">
+        <v>706230</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -596,6 +604,9 @@
       <c r="N3" t="n">
         <v>592511</v>
       </c>
+      <c r="O3" t="n">
+        <v>593100</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -642,6 +653,9 @@
       <c r="N4" t="n">
         <v>1245677</v>
       </c>
+      <c r="O4" t="n">
+        <v>1248999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -688,6 +702,9 @@
       <c r="N5" t="n">
         <v>275136</v>
       </c>
+      <c r="O5" t="n">
+        <v>276279</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +751,9 @@
       <c r="N6" t="n">
         <v>3771190</v>
       </c>
+      <c r="O6" t="n">
+        <v>3779081</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -780,6 +800,9 @@
       <c r="N7" t="n">
         <v>1241672</v>
       </c>
+      <c r="O7" t="n">
+        <v>1250327</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -826,6 +849,9 @@
       <c r="N8" t="n">
         <v>10550078</v>
       </c>
+      <c r="O8" t="n">
+        <v>10559670</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -872,6 +898,9 @@
       <c r="N9" t="n">
         <v>1710209</v>
       </c>
+      <c r="O9" t="n">
+        <v>1726845</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -918,6 +947,9 @@
       <c r="N10" t="n">
         <v>238272</v>
       </c>
+      <c r="O10" t="n">
+        <v>238662</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,6 +996,9 @@
       <c r="N11" t="n">
         <v>384156</v>
       </c>
+      <c r="O11" t="n">
+        <v>384504</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1010,6 +1045,9 @@
       <c r="N12" t="n">
         <v>643134</v>
       </c>
+      <c r="O12" t="n">
+        <v>651910</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1056,6 +1094,9 @@
       <c r="N13" t="n">
         <v>261369</v>
       </c>
+      <c r="O13" t="n">
+        <v>265696</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1102,6 +1143,9 @@
       <c r="N14" t="n">
         <v>614202</v>
       </c>
+      <c r="O14" t="n">
+        <v>616735</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1148,6 +1192,9 @@
       <c r="N15" t="n">
         <v>7919422</v>
       </c>
+      <c r="O15" t="n">
+        <v>7931730</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1194,6 +1241,9 @@
       <c r="N16" t="n">
         <v>1228911</v>
       </c>
+      <c r="O16" t="n">
+        <v>1228027</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1240,6 +1290,9 @@
       <c r="N17" t="n">
         <v>157611</v>
       </c>
+      <c r="O17" t="n">
+        <v>160235</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1286,6 +1339,9 @@
       <c r="N18" t="n">
         <v>1105761</v>
       </c>
+      <c r="O18" t="n">
+        <v>1114481</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1332,6 +1388,9 @@
       <c r="N19" t="n">
         <v>270394</v>
       </c>
+      <c r="O19" t="n">
+        <v>272099</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1378,6 +1437,9 @@
       <c r="N20" t="n">
         <v>2938003</v>
       </c>
+      <c r="O20" t="n">
+        <v>2941501</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1424,6 +1486,9 @@
       <c r="N21" t="n">
         <v>490982</v>
       </c>
+      <c r="O21" t="n">
+        <v>512999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1470,6 +1535,9 @@
       <c r="N22" t="n">
         <v>182804</v>
       </c>
+      <c r="O22" t="n">
+        <v>183749</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1515,6 +1583,9 @@
       </c>
       <c r="N23" t="n">
         <v>8653460</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8655740</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -556,7 +556,7 @@
         <v>705839</v>
       </c>
       <c r="O2" t="n">
-        <v>706230</v>
+        <v>709473</v>
       </c>
     </row>
     <row r="3">
@@ -605,7 +605,7 @@
         <v>592511</v>
       </c>
       <c r="O3" t="n">
-        <v>593100</v>
+        <v>592925</v>
       </c>
     </row>
     <row r="4">
@@ -654,7 +654,7 @@
         <v>1245677</v>
       </c>
       <c r="O4" t="n">
-        <v>1248999</v>
+        <v>1253297</v>
       </c>
     </row>
     <row r="5">
@@ -703,7 +703,7 @@
         <v>275136</v>
       </c>
       <c r="O5" t="n">
-        <v>276279</v>
+        <v>277936</v>
       </c>
     </row>
     <row r="6">
@@ -752,7 +752,7 @@
         <v>3771190</v>
       </c>
       <c r="O6" t="n">
-        <v>3779081</v>
+        <v>3789167</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>1241672</v>
       </c>
       <c r="O7" t="n">
-        <v>1250327</v>
+        <v>1260289</v>
       </c>
     </row>
     <row r="8">
@@ -850,7 +850,7 @@
         <v>10550078</v>
       </c>
       <c r="O8" t="n">
-        <v>10559670</v>
+        <v>10569519</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +899,7 @@
         <v>1710209</v>
       </c>
       <c r="O9" t="n">
-        <v>1726845</v>
+        <v>1740884</v>
       </c>
     </row>
     <row r="10">
@@ -948,7 +948,7 @@
         <v>238272</v>
       </c>
       <c r="O10" t="n">
-        <v>238662</v>
+        <v>238983</v>
       </c>
     </row>
     <row r="11">
@@ -997,7 +997,7 @@
         <v>384156</v>
       </c>
       <c r="O11" t="n">
-        <v>384504</v>
+        <v>385316</v>
       </c>
     </row>
     <row r="12">
@@ -1046,7 +1046,7 @@
         <v>643134</v>
       </c>
       <c r="O12" t="n">
-        <v>651910</v>
+        <v>667507</v>
       </c>
     </row>
     <row r="13">
@@ -1095,7 +1095,7 @@
         <v>261369</v>
       </c>
       <c r="O13" t="n">
-        <v>265696</v>
+        <v>273799</v>
       </c>
     </row>
     <row r="14">
@@ -1144,7 +1144,7 @@
         <v>614202</v>
       </c>
       <c r="O14" t="n">
-        <v>616735</v>
+        <v>619995</v>
       </c>
     </row>
     <row r="15">
@@ -1193,7 +1193,7 @@
         <v>7919422</v>
       </c>
       <c r="O15" t="n">
-        <v>7931730</v>
+        <v>7922786</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1242,7 @@
         <v>1228911</v>
       </c>
       <c r="O16" t="n">
-        <v>1228027</v>
+        <v>1229107</v>
       </c>
     </row>
     <row r="17">
@@ -1291,7 +1291,7 @@
         <v>157611</v>
       </c>
       <c r="O17" t="n">
-        <v>160235</v>
+        <v>171614</v>
       </c>
     </row>
     <row r="18">
@@ -1340,7 +1340,7 @@
         <v>1105761</v>
       </c>
       <c r="O18" t="n">
-        <v>1114481</v>
+        <v>1126343</v>
       </c>
     </row>
     <row r="19">
@@ -1389,7 +1389,7 @@
         <v>270394</v>
       </c>
       <c r="O19" t="n">
-        <v>272099</v>
+        <v>274524</v>
       </c>
     </row>
     <row r="20">
@@ -1438,7 +1438,7 @@
         <v>2938003</v>
       </c>
       <c r="O20" t="n">
-        <v>2941501</v>
+        <v>2949523</v>
       </c>
     </row>
     <row r="21">
@@ -1487,7 +1487,7 @@
         <v>490982</v>
       </c>
       <c r="O21" t="n">
-        <v>512999</v>
+        <v>568383</v>
       </c>
     </row>
     <row r="22">
@@ -1536,7 +1536,7 @@
         <v>182804</v>
       </c>
       <c r="O22" t="n">
-        <v>183749</v>
+        <v>184405</v>
       </c>
     </row>
     <row r="23">
@@ -1585,7 +1585,7 @@
         <v>8653460</v>
       </c>
       <c r="O23" t="n">
-        <v>8655740</v>
+        <v>8659830</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>2023-02-04</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -558,6 +563,9 @@
       <c r="O2" t="n">
         <v>709473</v>
       </c>
+      <c r="P2" t="n">
+        <v>709380</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -607,6 +615,9 @@
       <c r="O3" t="n">
         <v>592925</v>
       </c>
+      <c r="P3" t="n">
+        <v>592873</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
       <c r="O4" t="n">
         <v>1253297</v>
       </c>
+      <c r="P4" t="n">
+        <v>1255118</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -705,6 +719,9 @@
       <c r="O5" t="n">
         <v>277936</v>
       </c>
+      <c r="P5" t="n">
+        <v>278593</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -754,6 +771,9 @@
       <c r="O6" t="n">
         <v>3789167</v>
       </c>
+      <c r="P6" t="n">
+        <v>3793561</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -803,6 +823,9 @@
       <c r="O7" t="n">
         <v>1260289</v>
       </c>
+      <c r="P7" t="n">
+        <v>1264564</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -852,6 +875,9 @@
       <c r="O8" t="n">
         <v>10569519</v>
       </c>
+      <c r="P8" t="n">
+        <v>10573170</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -901,6 +927,9 @@
       <c r="O9" t="n">
         <v>1740884</v>
       </c>
+      <c r="P9" t="n">
+        <v>1746488</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -950,6 +979,9 @@
       <c r="O10" t="n">
         <v>238983</v>
       </c>
+      <c r="P10" t="n">
+        <v>238794</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -999,6 +1031,9 @@
       <c r="O11" t="n">
         <v>385316</v>
       </c>
+      <c r="P11" t="n">
+        <v>386065</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1048,6 +1083,9 @@
       <c r="O12" t="n">
         <v>667507</v>
       </c>
+      <c r="P12" t="n">
+        <v>676452</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1097,6 +1135,9 @@
       <c r="O13" t="n">
         <v>273799</v>
       </c>
+      <c r="P13" t="n">
+        <v>276173</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1146,6 +1187,9 @@
       <c r="O14" t="n">
         <v>619995</v>
       </c>
+      <c r="P14" t="n">
+        <v>621403</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1195,6 +1239,9 @@
       <c r="O15" t="n">
         <v>7922786</v>
       </c>
+      <c r="P15" t="n">
+        <v>7913974</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1244,6 +1291,9 @@
       <c r="O16" t="n">
         <v>1229107</v>
       </c>
+      <c r="P16" t="n">
+        <v>1229662</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1293,6 +1343,9 @@
       <c r="O17" t="n">
         <v>171614</v>
       </c>
+      <c r="P17" t="n">
+        <v>174592</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1342,6 +1395,9 @@
       <c r="O18" t="n">
         <v>1126343</v>
       </c>
+      <c r="P18" t="n">
+        <v>1131182</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1391,6 +1447,9 @@
       <c r="O19" t="n">
         <v>274524</v>
       </c>
+      <c r="P19" t="n">
+        <v>276526</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1440,6 +1499,9 @@
       <c r="O20" t="n">
         <v>2949523</v>
       </c>
+      <c r="P20" t="n">
+        <v>2952968</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1489,6 +1551,9 @@
       <c r="O21" t="n">
         <v>568383</v>
       </c>
+      <c r="P21" t="n">
+        <v>587816</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1538,6 +1603,9 @@
       <c r="O22" t="n">
         <v>184405</v>
       </c>
+      <c r="P22" t="n">
+        <v>184451</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1586,6 +1654,9 @@
       </c>
       <c r="O23" t="n">
         <v>8659830</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8662092</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -1,43 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-01-29</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-04</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Aline Wirley</t>
+  </si>
+  <si>
+    <t>Cezar Black</t>
+  </si>
+  <si>
+    <t>Bruna Griphao</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Larissa</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Domitila Barros</t>
+  </si>
+  <si>
+    <t>Antonio ‘Cara de Sapato’ Jr</t>
+  </si>
+  <si>
+    <t>Sarah Aline</t>
+  </si>
+  <si>
+    <t>Fred Nicácio</t>
+  </si>
+  <si>
+    <t>Key Alves</t>
+  </si>
+  <si>
+    <t>Marília</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Marvvila</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Gabriel Santana</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>MC Guimê</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -46,111 +183,117 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -174,80 +317,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -279,20 +364,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -304,7 +385,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -325,16 +406,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,23 +415,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -414,1252 +484,2121 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P23"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="17" width="8.85156" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-13</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-25</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-26</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-27</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-28</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-29</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-30</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-31</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-02</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-03</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-04</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-05</t>
-        </is>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
         <v>129000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" s="3">
         <v>517771</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" s="3">
         <v>525191</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" s="3">
         <v>528738</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" s="3">
         <v>534073</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" s="3">
         <v>537056</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" s="3">
         <v>542791</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" s="3">
         <v>544192</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" s="3">
         <v>551325</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" s="3">
         <v>602904</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" s="3">
         <v>714975</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" s="3">
         <v>706257</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" s="3">
         <v>705839</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" s="3">
         <v>709473</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" s="3">
         <v>709380</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Paula</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5">
         <v>61600</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" s="5">
         <v>583662</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" s="5">
         <v>574485</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" s="5">
         <v>576005</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" s="5">
         <v>578455</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" s="5">
         <v>581277</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" s="5">
         <v>580020</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" s="5">
         <v>580215</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" s="5">
         <v>580975</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" s="5">
         <v>581447</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" s="5">
         <v>588798</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" s="5">
         <v>591258</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" s="5">
         <v>592511</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" s="5">
         <v>592925</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" s="5">
         <v>592873</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Aline Wirley</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
         <v>853000</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" s="5">
         <v>1154476</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" s="5">
         <v>1171498</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" s="5">
         <v>1177577</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" s="5">
         <v>1187481</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" s="5">
         <v>1196889</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" s="5">
         <v>1207849</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" s="5">
         <v>1214407</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" s="5">
         <v>1220327</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" s="5">
         <v>1225508</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" s="5">
         <v>1232892</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" s="5">
         <v>1241118</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" s="5">
         <v>1245677</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" s="5">
         <v>1253297</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" s="5">
         <v>1255118</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cezar Black</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
         <v>10400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" s="5">
         <v>214521</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" s="5">
         <v>231003</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" s="5">
         <v>236469</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" s="5">
         <v>242114</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" s="5">
         <v>246366</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" s="5">
         <v>251820</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" s="5">
         <v>256077</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" s="5">
         <v>260895</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" s="5">
         <v>263256</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" s="5">
         <v>268248</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" s="5">
         <v>272657</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" s="5">
         <v>275136</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" s="5">
         <v>277936</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" s="5">
         <v>278593</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bruna Griphao</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5">
         <v>2700000</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" s="5">
         <v>3565299</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" s="5">
         <v>3596131</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" s="5">
         <v>3609772</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" s="5">
         <v>3629895</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" s="5">
         <v>3650419</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" s="5">
         <v>3670505</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" s="5">
         <v>3686190</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" s="5">
         <v>3699286</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" s="5">
         <v>3710134</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" s="5">
         <v>3731407</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" s="5">
         <v>3753661</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" s="5">
         <v>3771190</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" s="5">
         <v>3789167</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" s="5">
         <v>3793561</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Gustavo</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5">
         <v>252000</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" s="5">
         <v>953586</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" s="5">
         <v>991588</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" s="5">
         <v>1017062</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" s="5">
         <v>1047848</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" s="5">
         <v>1071210</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" s="5">
         <v>1098843</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" s="5">
         <v>1120515</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" s="5">
         <v>1148099</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" s="5">
         <v>1160677</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" s="5">
         <v>1178714</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" s="5">
         <v>1197122</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" s="5">
         <v>1241672</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" s="5">
         <v>1260289</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" s="5">
         <v>1264564</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Fred</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5">
         <v>9300000</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" s="5">
         <v>10191505</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" s="5">
         <v>10232234</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" s="5">
         <v>10247431</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" s="5">
         <v>10278614</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" s="5">
         <v>10309471</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" s="5">
         <v>10362792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" s="5">
         <v>10406596</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" s="5">
         <v>10440067</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" s="5">
         <v>10468351</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" s="5">
         <v>10505839</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" s="5">
         <v>10532159</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" s="5">
         <v>10550078</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" s="5">
         <v>10569519</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" s="5">
         <v>10573170</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Larissa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
         <v>113000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" s="5">
         <v>1232390</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" s="5">
         <v>1291677</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" s="5">
         <v>1316218</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" s="5">
         <v>1377855</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" s="5">
         <v>1428076</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" s="5">
         <v>1502536</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" s="5">
         <v>1554173</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" s="5">
         <v>1589294</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" s="5">
         <v>1618003</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" s="5">
         <v>1661130</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" s="5">
         <v>1691773</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" s="5">
         <v>1710209</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" s="5">
         <v>1740884</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" s="5">
         <v>1746488</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ricardo</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5">
         <v>2541</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" s="5">
         <v>198552</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" s="5">
         <v>206493</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" s="5">
         <v>209570</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" s="5">
         <v>214887</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" s="5">
         <v>220371</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" s="5">
         <v>223909</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" s="5">
         <v>228821</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" s="5">
         <v>232725</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" s="5">
         <v>234343</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" s="5">
         <v>236735</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" s="5">
         <v>238455</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" s="5">
         <v>238272</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" s="5">
         <v>238983</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" s="5">
         <v>238794</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Domitila Barros</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5">
         <v>214000</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" s="5">
         <v>309931</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" s="5">
         <v>315388</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" s="5">
         <v>317308</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" s="5">
         <v>319741</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" s="5">
         <v>322945</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" s="5">
         <v>325774</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" s="5">
         <v>327376</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" s="5">
         <v>447125</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" s="5">
         <v>393556</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" s="5">
         <v>388803</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" s="5">
         <v>382882</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" s="5">
         <v>384156</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" s="5">
         <v>385316</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" s="5">
         <v>386065</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Antonio ‘Cara de Sapato’ Jr</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
         <v>167000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" s="5">
         <v>407478</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" s="5">
         <v>436671</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" s="5">
         <v>448175</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" s="5">
         <v>466757</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" s="5">
         <v>491573</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" s="5">
         <v>516648</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" s="5">
         <v>534738</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" s="5">
         <v>550781</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" s="5">
         <v>566122</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" s="5">
         <v>584647</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" s="5">
         <v>621983</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" s="5">
         <v>643134</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" s="5">
         <v>667507</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" s="5">
         <v>676452</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sarah Aline</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
         <v>10700</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" s="5">
         <v>166064</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" s="5">
         <v>181527</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" s="5">
         <v>186740</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" s="5">
         <v>194312</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" s="5">
         <v>206436</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" s="5">
         <v>218204</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" s="5">
         <v>225062</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" s="5">
         <v>231811</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" s="5">
         <v>237066</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" s="5">
         <v>243922</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" s="5">
         <v>256158</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" s="5">
         <v>261369</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" s="5">
         <v>273799</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" s="5">
         <v>276173</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Fred Nicácio</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5">
         <v>342000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" s="5">
         <v>511058</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" s="5">
         <v>528127</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" s="5">
         <v>544503</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" s="5">
         <v>554848</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" s="5">
         <v>571521</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" s="5">
         <v>582432</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" s="5">
         <v>586142</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" s="5">
         <v>590058</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" s="5">
         <v>594857</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" s="5">
         <v>603344</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" s="5">
         <v>609724</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" s="5">
         <v>614202</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" s="5">
         <v>619995</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" s="5">
         <v>621403</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Key Alves</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5">
         <v>7000000</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" s="5">
         <v>7656395</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" s="5">
         <v>7696363</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" s="5">
         <v>7719232</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" s="5">
         <v>7739270</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" s="5">
         <v>7753221</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" s="5">
         <v>7694020</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" s="5">
         <v>7705006</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" s="5">
         <v>7727024</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" s="5">
         <v>7741007</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" s="5">
         <v>7768419</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" s="5">
         <v>7838691</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" s="5">
         <v>7919422</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" s="5">
         <v>7922786</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" s="5">
         <v>7913974</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Marília</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
         <v>797000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" s="5">
         <v>1053148</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" s="5">
         <v>1074407</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" s="5">
         <v>1089861</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" s="5">
         <v>1105375</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" s="5">
         <v>1137312</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" s="5">
         <v>1191073</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" s="5">
         <v>1199787</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" s="5">
         <v>1203668</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" s="5">
         <v>1206697</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" s="5">
         <v>1216417</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" s="5">
         <v>1225914</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" s="5">
         <v>1228911</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" s="5">
         <v>1229107</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" s="5">
         <v>1229662</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Cristian</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5">
         <v>6855</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" s="5">
         <v>92682</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" s="5">
         <v>98043</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" s="5">
         <v>100840</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" s="5">
         <v>112523</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" s="5">
         <v>117808</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" s="5">
         <v>123775</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" s="5">
         <v>128001</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" s="5">
         <v>135488</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" s="5">
         <v>138169</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" s="5">
         <v>144020</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" s="5">
         <v>148791</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" s="5">
         <v>157611</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" s="5">
         <v>171614</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" s="5">
         <v>174592</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Marvvila</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
         <v>654000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" s="5">
         <v>870969</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" s="5">
         <v>905118</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" s="5">
         <v>915868</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" s="5">
         <v>934313</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" s="5">
         <v>955542</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" s="5">
         <v>979016</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" s="5">
         <v>998288</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" s="5">
         <v>1021044</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" s="5">
         <v>1045084</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" s="5">
         <v>1065411</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" s="5">
         <v>1093432</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" s="5">
         <v>1105761</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" s="5">
         <v>1126343</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" s="5">
         <v>1131182</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Tina</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5">
         <v>7376</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" s="5">
         <v>163201</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" s="5">
         <v>177683</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" s="5">
         <v>184119</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" s="5">
         <v>195192</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" s="5">
         <v>212577</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" s="5">
         <v>235450</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" s="5">
         <v>243619</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" s="5">
         <v>250150</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" s="5">
         <v>254622</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" s="5">
         <v>260723</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" s="5">
         <v>267207</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" s="5">
         <v>270394</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" s="5">
         <v>274524</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" s="5">
         <v>276526</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Gabriel Santana</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5">
         <v>2200000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" s="5">
         <v>2833398</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" s="5">
         <v>2852688</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" s="5">
         <v>2861236</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" s="5">
         <v>2874061</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" s="5">
         <v>2884001</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" s="5">
         <v>2894793</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" s="5">
         <v>2903908</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" s="5">
         <v>2911457</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" s="5">
         <v>2917186</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" s="5">
         <v>2925178</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" s="5">
         <v>2932285</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" s="5">
         <v>2938003</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" s="5">
         <v>2949523</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" s="5">
         <v>2952968</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Amanda</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5">
         <v>13800</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" s="5">
         <v>225509</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" s="5">
         <v>249003</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" s="5">
         <v>261948</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" s="5">
         <v>287020</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" s="5">
         <v>321130</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" s="5">
         <v>353696</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" s="5">
         <v>375905</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" s="5">
         <v>403912</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" s="5">
         <v>422912</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" s="5">
         <v>442448</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" s="5">
         <v>471500</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" s="5">
         <v>490982</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" s="5">
         <v>568383</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" s="5">
         <v>587816</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Bruno</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5">
         <v>1625</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" s="5">
         <v>148249</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" s="5">
         <v>151241</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" s="5">
         <v>152917</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" s="5">
         <v>156285</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" s="5">
         <v>158796</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" s="5">
         <v>161498</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" s="5">
         <v>163379</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" s="5">
         <v>166426</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" s="5">
         <v>169407</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" s="5">
         <v>174755</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" s="5">
         <v>180832</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" s="5">
         <v>182804</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" s="5">
         <v>184405</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" s="5">
         <v>184451</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MC Guimê</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5">
         <v>8200000</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" s="5">
         <v>8591948</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" s="5">
         <v>8602569</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" s="5">
         <v>8606705</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" s="5">
         <v>8611439</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" s="5">
         <v>8616220</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" s="5">
         <v>8620432</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" s="5">
         <v>8625669</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" s="5">
         <v>8630809</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" s="5">
         <v>8633838</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" s="5">
         <v>8639586</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" s="5">
         <v>8647941</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" s="5">
         <v>8653460</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" s="5">
         <v>8659830</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" s="5">
         <v>8662092</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -580,7 +580,7 @@
         <v>709380</v>
       </c>
       <c r="R2" t="n">
-        <v>710621</v>
+        <v>710405</v>
       </c>
     </row>
     <row r="3">
@@ -638,7 +638,7 @@
         <v>592873</v>
       </c>
       <c r="R3" t="n">
-        <v>592812</v>
+        <v>592483</v>
       </c>
     </row>
     <row r="4">
@@ -696,7 +696,7 @@
         <v>1255118</v>
       </c>
       <c r="R4" t="n">
-        <v>1259642</v>
+        <v>1263051</v>
       </c>
     </row>
     <row r="5">
@@ -754,7 +754,7 @@
         <v>278593</v>
       </c>
       <c r="R5" t="n">
-        <v>280368</v>
+        <v>281924</v>
       </c>
     </row>
     <row r="6">
@@ -812,7 +812,7 @@
         <v>3793561</v>
       </c>
       <c r="R6" t="n">
-        <v>3801325</v>
+        <v>3808437</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +870,7 @@
         <v>1264564</v>
       </c>
       <c r="R7" t="n">
-        <v>1273551</v>
+        <v>1279989</v>
       </c>
     </row>
     <row r="8">
@@ -928,7 +928,7 @@
         <v>10573170</v>
       </c>
       <c r="R8" t="n">
-        <v>10581908</v>
+        <v>10598647</v>
       </c>
     </row>
     <row r="9">
@@ -986,7 +986,7 @@
         <v>1746488</v>
       </c>
       <c r="R9" t="n">
-        <v>1757253</v>
+        <v>1766593</v>
       </c>
     </row>
     <row r="10">
@@ -1044,7 +1044,7 @@
         <v>238794</v>
       </c>
       <c r="R10" t="n">
-        <v>238707</v>
+        <v>238125</v>
       </c>
     </row>
     <row r="11">
@@ -1102,7 +1102,7 @@
         <v>386065</v>
       </c>
       <c r="R11" t="n">
-        <v>385126</v>
+        <v>387974</v>
       </c>
     </row>
     <row r="12">
@@ -1160,7 +1160,7 @@
         <v>676452</v>
       </c>
       <c r="R12" t="n">
-        <v>706776</v>
+        <v>736233</v>
       </c>
     </row>
     <row r="13">
@@ -1218,7 +1218,7 @@
         <v>276173</v>
       </c>
       <c r="R13" t="n">
-        <v>280199</v>
+        <v>283219</v>
       </c>
     </row>
     <row r="14">
@@ -1276,7 +1276,7 @@
         <v>621403</v>
       </c>
       <c r="R14" t="n">
-        <v>624260</v>
+        <v>626512</v>
       </c>
     </row>
     <row r="15">
@@ -1334,7 +1334,7 @@
         <v>7913974</v>
       </c>
       <c r="R15" t="n">
-        <v>7915923</v>
+        <v>7916159</v>
       </c>
     </row>
     <row r="16">
@@ -1392,7 +1392,7 @@
         <v>1229662</v>
       </c>
       <c r="R16" t="n">
-        <v>1231394</v>
+        <v>1231947</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +1450,7 @@
         <v>174592</v>
       </c>
       <c r="R17" t="n">
-        <v>181255</v>
+        <v>186222</v>
       </c>
     </row>
     <row r="18">
@@ -1508,7 +1508,7 @@
         <v>1131182</v>
       </c>
       <c r="R18" t="n">
-        <v>1140834</v>
+        <v>1147801</v>
       </c>
     </row>
     <row r="19">
@@ -1566,7 +1566,7 @@
         <v>276526</v>
       </c>
       <c r="R19" t="n">
-        <v>279137</v>
+        <v>286003</v>
       </c>
     </row>
     <row r="20">
@@ -1624,7 +1624,7 @@
         <v>2952968</v>
       </c>
       <c r="R20" t="n">
-        <v>2958691</v>
+        <v>2961228</v>
       </c>
     </row>
     <row r="21">
@@ -1682,7 +1682,7 @@
         <v>587816</v>
       </c>
       <c r="R21" t="n">
-        <v>656341</v>
+        <v>724937</v>
       </c>
     </row>
     <row r="22">
@@ -1740,7 +1740,7 @@
         <v>184451</v>
       </c>
       <c r="R22" t="n">
-        <v>184913</v>
+        <v>185409</v>
       </c>
     </row>
     <row r="23">
@@ -1798,7 +1798,7 @@
         <v>8662092</v>
       </c>
       <c r="R23" t="n">
-        <v>8665135</v>
+        <v>8668207</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>2023-02-06</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -582,6 +587,9 @@
       <c r="R2" t="n">
         <v>710405</v>
       </c>
+      <c r="S2" t="n">
+        <v>709640</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -640,6 +648,9 @@
       <c r="R3" t="n">
         <v>592483</v>
       </c>
+      <c r="S3" t="n">
+        <v>591649</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -698,6 +709,9 @@
       <c r="R4" t="n">
         <v>1263051</v>
       </c>
+      <c r="S4" t="n">
+        <v>1265210</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -756,6 +770,9 @@
       <c r="R5" t="n">
         <v>281924</v>
       </c>
+      <c r="S5" t="n">
+        <v>282666</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -814,6 +831,9 @@
       <c r="R6" t="n">
         <v>3808437</v>
       </c>
+      <c r="S6" t="n">
+        <v>3814635</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -872,6 +892,9 @@
       <c r="R7" t="n">
         <v>1279989</v>
       </c>
+      <c r="S7" t="n">
+        <v>1284225</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -930,6 +953,9 @@
       <c r="R8" t="n">
         <v>10598647</v>
       </c>
+      <c r="S8" t="n">
+        <v>10615229</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -988,6 +1014,9 @@
       <c r="R9" t="n">
         <v>1766593</v>
       </c>
+      <c r="S9" t="n">
+        <v>1777789</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1046,6 +1075,9 @@
       <c r="R10" t="n">
         <v>238125</v>
       </c>
+      <c r="S10" t="n">
+        <v>237603</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1104,6 +1136,9 @@
       <c r="R11" t="n">
         <v>387974</v>
       </c>
+      <c r="S11" t="n">
+        <v>386961</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1162,6 +1197,9 @@
       <c r="R12" t="n">
         <v>736233</v>
       </c>
+      <c r="S12" t="n">
+        <v>750508</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1220,6 +1258,9 @@
       <c r="R13" t="n">
         <v>283219</v>
       </c>
+      <c r="S13" t="n">
+        <v>285392</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1278,6 +1319,9 @@
       <c r="R14" t="n">
         <v>626512</v>
       </c>
+      <c r="S14" t="n">
+        <v>628202</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1336,6 +1380,9 @@
       <c r="R15" t="n">
         <v>7916159</v>
       </c>
+      <c r="S15" t="n">
+        <v>7915973</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1394,6 +1441,9 @@
       <c r="R16" t="n">
         <v>1231947</v>
       </c>
+      <c r="S16" t="n">
+        <v>1231791</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1452,6 +1502,9 @@
       <c r="R17" t="n">
         <v>186222</v>
       </c>
+      <c r="S17" t="n">
+        <v>188324</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1510,6 +1563,9 @@
       <c r="R18" t="n">
         <v>1147801</v>
       </c>
+      <c r="S18" t="n">
+        <v>1155460</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1568,6 +1624,9 @@
       <c r="R19" t="n">
         <v>286003</v>
       </c>
+      <c r="S19" t="n">
+        <v>288907</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1626,6 +1685,9 @@
       <c r="R20" t="n">
         <v>2961228</v>
       </c>
+      <c r="S20" t="n">
+        <v>2963865</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1684,6 +1746,9 @@
       <c r="R21" t="n">
         <v>724937</v>
       </c>
+      <c r="S21" t="n">
+        <v>754460</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1742,6 +1807,9 @@
       <c r="R22" t="n">
         <v>185409</v>
       </c>
+      <c r="S22" t="n">
+        <v>185734</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1799,6 +1867,9 @@
       </c>
       <c r="R23" t="n">
         <v>8668207</v>
+      </c>
+      <c r="S23" t="n">
+        <v>8670055</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -588,7 +588,7 @@
         <v>710405</v>
       </c>
       <c r="S2" t="n">
-        <v>709640</v>
+        <v>709641</v>
       </c>
     </row>
     <row r="3">
@@ -649,7 +649,7 @@
         <v>592483</v>
       </c>
       <c r="S3" t="n">
-        <v>591649</v>
+        <v>590866</v>
       </c>
     </row>
     <row r="4">
@@ -710,7 +710,7 @@
         <v>1263051</v>
       </c>
       <c r="S4" t="n">
-        <v>1265210</v>
+        <v>1266719</v>
       </c>
     </row>
     <row r="5">
@@ -771,7 +771,7 @@
         <v>281924</v>
       </c>
       <c r="S5" t="n">
-        <v>282666</v>
+        <v>282575</v>
       </c>
     </row>
     <row r="6">
@@ -832,7 +832,7 @@
         <v>3808437</v>
       </c>
       <c r="S6" t="n">
-        <v>3814635</v>
+        <v>3819378</v>
       </c>
     </row>
     <row r="7">
@@ -893,7 +893,7 @@
         <v>1279989</v>
       </c>
       <c r="S7" t="n">
-        <v>1284225</v>
+        <v>1289356</v>
       </c>
     </row>
     <row r="8">
@@ -954,7 +954,7 @@
         <v>10598647</v>
       </c>
       <c r="S8" t="n">
-        <v>10615229</v>
+        <v>10622104</v>
       </c>
     </row>
     <row r="9">
@@ -1015,7 +1015,7 @@
         <v>1766593</v>
       </c>
       <c r="S9" t="n">
-        <v>1777789</v>
+        <v>1789150</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>238125</v>
       </c>
       <c r="S10" t="n">
-        <v>237603</v>
+        <v>237437</v>
       </c>
     </row>
     <row r="11">
@@ -1137,7 +1137,7 @@
         <v>387974</v>
       </c>
       <c r="S11" t="n">
-        <v>386961</v>
+        <v>388677</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1198,7 @@
         <v>736233</v>
       </c>
       <c r="S12" t="n">
-        <v>750508</v>
+        <v>763295</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1259,7 @@
         <v>283219</v>
       </c>
       <c r="S13" t="n">
-        <v>285392</v>
+        <v>286903</v>
       </c>
     </row>
     <row r="14">
@@ -1320,7 +1320,7 @@
         <v>626512</v>
       </c>
       <c r="S14" t="n">
-        <v>628202</v>
+        <v>629301</v>
       </c>
     </row>
     <row r="15">
@@ -1381,7 +1381,7 @@
         <v>7916159</v>
       </c>
       <c r="S15" t="n">
-        <v>7915973</v>
+        <v>7914749</v>
       </c>
     </row>
     <row r="16">
@@ -1442,7 +1442,7 @@
         <v>1231947</v>
       </c>
       <c r="S16" t="n">
-        <v>1231791</v>
+        <v>1231939</v>
       </c>
     </row>
     <row r="17">
@@ -1503,7 +1503,7 @@
         <v>186222</v>
       </c>
       <c r="S17" t="n">
-        <v>188324</v>
+        <v>213942</v>
       </c>
     </row>
     <row r="18">
@@ -1564,7 +1564,7 @@
         <v>1147801</v>
       </c>
       <c r="S18" t="n">
-        <v>1155460</v>
+        <v>1161202</v>
       </c>
     </row>
     <row r="19">
@@ -1625,7 +1625,7 @@
         <v>286003</v>
       </c>
       <c r="S19" t="n">
-        <v>288907</v>
+        <v>290827</v>
       </c>
     </row>
     <row r="20">
@@ -1686,7 +1686,7 @@
         <v>2961228</v>
       </c>
       <c r="S20" t="n">
-        <v>2963865</v>
+        <v>2965184</v>
       </c>
     </row>
     <row r="21">
@@ -1747,7 +1747,7 @@
         <v>724937</v>
       </c>
       <c r="S21" t="n">
-        <v>754460</v>
+        <v>777534</v>
       </c>
     </row>
     <row r="22">
@@ -1808,7 +1808,7 @@
         <v>185409</v>
       </c>
       <c r="S22" t="n">
-        <v>185734</v>
+        <v>185251</v>
       </c>
     </row>
     <row r="23">
@@ -1869,7 +1869,7 @@
         <v>8668207</v>
       </c>
       <c r="S23" t="n">
-        <v>8670055</v>
+        <v>8672033</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,11 @@
           <t>2023-02-07</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -590,6 +595,9 @@
       <c r="S2" t="n">
         <v>709641</v>
       </c>
+      <c r="T2" t="n">
+        <v>711357</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -651,6 +659,9 @@
       <c r="S3" t="n">
         <v>590866</v>
       </c>
+      <c r="T3" t="n">
+        <v>587285</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -712,6 +723,9 @@
       <c r="S4" t="n">
         <v>1266719</v>
       </c>
+      <c r="T4" t="n">
+        <v>1271776</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -773,6 +787,9 @@
       <c r="S5" t="n">
         <v>282575</v>
       </c>
+      <c r="T5" t="n">
+        <v>284547</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -834,6 +851,9 @@
       <c r="S6" t="n">
         <v>3819378</v>
       </c>
+      <c r="T6" t="n">
+        <v>3828938</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -895,6 +915,9 @@
       <c r="S7" t="n">
         <v>1289356</v>
       </c>
+      <c r="T7" t="n">
+        <v>1299888</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -956,6 +979,9 @@
       <c r="S8" t="n">
         <v>10622104</v>
       </c>
+      <c r="T8" t="n">
+        <v>10637786</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1043,9 @@
       <c r="S9" t="n">
         <v>1789150</v>
       </c>
+      <c r="T9" t="n">
+        <v>1816081</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1078,6 +1107,9 @@
       <c r="S10" t="n">
         <v>237437</v>
       </c>
+      <c r="T10" t="n">
+        <v>238534</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1139,6 +1171,9 @@
       <c r="S11" t="n">
         <v>388677</v>
       </c>
+      <c r="T11" t="n">
+        <v>392228</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1200,6 +1235,9 @@
       <c r="S12" t="n">
         <v>763295</v>
       </c>
+      <c r="T12" t="n">
+        <v>799447</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1261,6 +1299,9 @@
       <c r="S13" t="n">
         <v>286903</v>
       </c>
+      <c r="T13" t="n">
+        <v>293428</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1322,6 +1363,9 @@
       <c r="S14" t="n">
         <v>629301</v>
       </c>
+      <c r="T14" t="n">
+        <v>632961</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1383,6 +1427,9 @@
       <c r="S15" t="n">
         <v>7914749</v>
       </c>
+      <c r="T15" t="n">
+        <v>7916466</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1444,6 +1491,9 @@
       <c r="S16" t="n">
         <v>1231939</v>
       </c>
+      <c r="T16" t="n">
+        <v>1234851</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1505,6 +1555,9 @@
       <c r="S17" t="n">
         <v>213942</v>
       </c>
+      <c r="T17" t="n">
+        <v>275591</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1566,6 +1619,9 @@
       <c r="S18" t="n">
         <v>1161202</v>
       </c>
+      <c r="T18" t="n">
+        <v>1175381</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1627,6 +1683,9 @@
       <c r="S19" t="n">
         <v>290827</v>
       </c>
+      <c r="T19" t="n">
+        <v>359918</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1688,6 +1747,9 @@
       <c r="S20" t="n">
         <v>2965184</v>
       </c>
+      <c r="T20" t="n">
+        <v>2970706</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1749,6 +1811,9 @@
       <c r="S21" t="n">
         <v>777534</v>
       </c>
+      <c r="T21" t="n">
+        <v>832676</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1810,6 +1875,9 @@
       <c r="S22" t="n">
         <v>185251</v>
       </c>
+      <c r="T22" t="n">
+        <v>186058</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1870,6 +1938,9 @@
       </c>
       <c r="S23" t="n">
         <v>8672033</v>
+      </c>
+      <c r="T23" t="n">
+        <v>8677077</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>2023-02-08</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +603,9 @@
       <c r="T2" t="n">
         <v>711357</v>
       </c>
+      <c r="U2" t="n">
+        <v>711613</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -662,6 +670,9 @@
       <c r="T3" t="n">
         <v>587285</v>
       </c>
+      <c r="U3" t="n">
+        <v>592292</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -726,6 +737,9 @@
       <c r="T4" t="n">
         <v>1271776</v>
       </c>
+      <c r="U4" t="n">
+        <v>1275736</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -790,6 +804,9 @@
       <c r="T5" t="n">
         <v>284547</v>
       </c>
+      <c r="U5" t="n">
+        <v>285802</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -854,6 +871,9 @@
       <c r="T6" t="n">
         <v>3828938</v>
       </c>
+      <c r="U6" t="n">
+        <v>3837594</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -918,6 +938,9 @@
       <c r="T7" t="n">
         <v>1299888</v>
       </c>
+      <c r="U7" t="n">
+        <v>1306159</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -982,6 +1005,9 @@
       <c r="T8" t="n">
         <v>10637786</v>
       </c>
+      <c r="U8" t="n">
+        <v>10650460</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1046,6 +1072,9 @@
       <c r="T9" t="n">
         <v>1816081</v>
       </c>
+      <c r="U9" t="n">
+        <v>1841165</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1110,6 +1139,9 @@
       <c r="T10" t="n">
         <v>238534</v>
       </c>
+      <c r="U10" t="n">
+        <v>239513</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1174,6 +1206,9 @@
       <c r="T11" t="n">
         <v>392228</v>
       </c>
+      <c r="U11" t="n">
+        <v>392643</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1238,6 +1273,9 @@
       <c r="T12" t="n">
         <v>799447</v>
       </c>
+      <c r="U12" t="n">
+        <v>821167</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1302,6 +1340,9 @@
       <c r="T13" t="n">
         <v>293428</v>
       </c>
+      <c r="U13" t="n">
+        <v>298168</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1366,6 +1407,9 @@
       <c r="T14" t="n">
         <v>632961</v>
       </c>
+      <c r="U14" t="n">
+        <v>635452</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1430,6 +1474,9 @@
       <c r="T15" t="n">
         <v>7916466</v>
       </c>
+      <c r="U15" t="n">
+        <v>7917194</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1494,6 +1541,9 @@
       <c r="T16" t="n">
         <v>1234851</v>
       </c>
+      <c r="U16" t="n">
+        <v>1238749</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1558,6 +1608,9 @@
       <c r="T17" t="n">
         <v>275591</v>
       </c>
+      <c r="U17" t="n">
+        <v>272906</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1622,6 +1675,9 @@
       <c r="T18" t="n">
         <v>1175381</v>
       </c>
+      <c r="U18" t="n">
+        <v>1186752</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1686,6 +1742,9 @@
       <c r="T19" t="n">
         <v>359918</v>
       </c>
+      <c r="U19" t="n">
+        <v>398234</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1750,6 +1809,9 @@
       <c r="T20" t="n">
         <v>2970706</v>
       </c>
+      <c r="U20" t="n">
+        <v>2972964</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1814,6 +1876,9 @@
       <c r="T21" t="n">
         <v>832676</v>
       </c>
+      <c r="U21" t="n">
+        <v>866515</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1878,6 +1943,9 @@
       <c r="T22" t="n">
         <v>186058</v>
       </c>
+      <c r="U22" t="n">
+        <v>186811</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1941,6 +2009,9 @@
       </c>
       <c r="T23" t="n">
         <v>8677077</v>
+      </c>
+      <c r="U23" t="n">
+        <v>8682680</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -604,7 +604,7 @@
         <v>711357</v>
       </c>
       <c r="U2" t="n">
-        <v>711613</v>
+        <v>711852</v>
       </c>
     </row>
     <row r="3">
@@ -671,7 +671,7 @@
         <v>587285</v>
       </c>
       <c r="U3" t="n">
-        <v>592292</v>
+        <v>592246</v>
       </c>
     </row>
     <row r="4">
@@ -738,7 +738,7 @@
         <v>1271776</v>
       </c>
       <c r="U4" t="n">
-        <v>1275736</v>
+        <v>1278783</v>
       </c>
     </row>
     <row r="5">
@@ -805,7 +805,7 @@
         <v>284547</v>
       </c>
       <c r="U5" t="n">
-        <v>285802</v>
+        <v>286399</v>
       </c>
     </row>
     <row r="6">
@@ -872,7 +872,7 @@
         <v>3828938</v>
       </c>
       <c r="U6" t="n">
-        <v>3837594</v>
+        <v>3847909</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>1299888</v>
       </c>
       <c r="U7" t="n">
-        <v>1306159</v>
+        <v>1313993</v>
       </c>
     </row>
     <row r="8">
@@ -1006,7 +1006,7 @@
         <v>10637786</v>
       </c>
       <c r="U8" t="n">
-        <v>10650460</v>
+        <v>10659314</v>
       </c>
     </row>
     <row r="9">
@@ -1073,7 +1073,7 @@
         <v>1816081</v>
       </c>
       <c r="U9" t="n">
-        <v>1841165</v>
+        <v>1863701</v>
       </c>
     </row>
     <row r="10">
@@ -1140,7 +1140,7 @@
         <v>238534</v>
       </c>
       <c r="U10" t="n">
-        <v>239513</v>
+        <v>240155</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         <v>392228</v>
       </c>
       <c r="U11" t="n">
-        <v>392643</v>
+        <v>394638</v>
       </c>
     </row>
     <row r="12">
@@ -1274,7 +1274,7 @@
         <v>799447</v>
       </c>
       <c r="U12" t="n">
-        <v>821167</v>
+        <v>836501</v>
       </c>
     </row>
     <row r="13">
@@ -1341,7 +1341,7 @@
         <v>293428</v>
       </c>
       <c r="U13" t="n">
-        <v>298168</v>
+        <v>301813</v>
       </c>
     </row>
     <row r="14">
@@ -1408,7 +1408,7 @@
         <v>632961</v>
       </c>
       <c r="U14" t="n">
-        <v>635452</v>
+        <v>636762</v>
       </c>
     </row>
     <row r="15">
@@ -1475,7 +1475,7 @@
         <v>7916466</v>
       </c>
       <c r="U15" t="n">
-        <v>7917194</v>
+        <v>7920702</v>
       </c>
     </row>
     <row r="16">
@@ -1542,7 +1542,7 @@
         <v>1234851</v>
       </c>
       <c r="U16" t="n">
-        <v>1238749</v>
+        <v>1243908</v>
       </c>
     </row>
     <row r="17">
@@ -1609,7 +1609,7 @@
         <v>275591</v>
       </c>
       <c r="U17" t="n">
-        <v>272906</v>
+        <v>272903</v>
       </c>
     </row>
     <row r="18">
@@ -1676,7 +1676,7 @@
         <v>1175381</v>
       </c>
       <c r="U18" t="n">
-        <v>1186752</v>
+        <v>1196827</v>
       </c>
     </row>
     <row r="19">
@@ -1743,7 +1743,7 @@
         <v>359918</v>
       </c>
       <c r="U19" t="n">
-        <v>398234</v>
+        <v>414396</v>
       </c>
     </row>
     <row r="20">
@@ -1810,7 +1810,7 @@
         <v>2970706</v>
       </c>
       <c r="U20" t="n">
-        <v>2972964</v>
+        <v>2974758</v>
       </c>
     </row>
     <row r="21">
@@ -1877,7 +1877,7 @@
         <v>832676</v>
       </c>
       <c r="U21" t="n">
-        <v>866515</v>
+        <v>892650</v>
       </c>
     </row>
     <row r="22">
@@ -1944,7 +1944,7 @@
         <v>186058</v>
       </c>
       <c r="U22" t="n">
-        <v>186811</v>
+        <v>187191</v>
       </c>
     </row>
     <row r="23">
@@ -2011,7 +2011,7 @@
         <v>8677077</v>
       </c>
       <c r="U23" t="n">
-        <v>8682680</v>
+        <v>8686517</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,16 @@
           <t>2023-02-09</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-10</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -606,6 +616,12 @@
       <c r="U2" t="n">
         <v>711852</v>
       </c>
+      <c r="V2" t="n">
+        <v>712472</v>
+      </c>
+      <c r="W2" t="n">
+        <v>712475</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -673,6 +689,12 @@
       <c r="U3" t="n">
         <v>592246</v>
       </c>
+      <c r="V3" t="n">
+        <v>591977</v>
+      </c>
+      <c r="W3" t="n">
+        <v>591978</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +762,12 @@
       <c r="U4" t="n">
         <v>1278783</v>
       </c>
+      <c r="V4" t="n">
+        <v>1281561</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1281564</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -807,6 +835,12 @@
       <c r="U5" t="n">
         <v>286399</v>
       </c>
+      <c r="V5" t="n">
+        <v>290469</v>
+      </c>
+      <c r="W5" t="n">
+        <v>290472</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -874,6 +908,12 @@
       <c r="U6" t="n">
         <v>3847909</v>
       </c>
+      <c r="V6" t="n">
+        <v>3862497</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3862525</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -941,6 +981,12 @@
       <c r="U7" t="n">
         <v>1313993</v>
       </c>
+      <c r="V7" t="n">
+        <v>1319600</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1319604</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1008,6 +1054,12 @@
       <c r="U8" t="n">
         <v>10659314</v>
       </c>
+      <c r="V8" t="n">
+        <v>10667409</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10667407</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1075,6 +1127,12 @@
       <c r="U9" t="n">
         <v>1863701</v>
       </c>
+      <c r="V9" t="n">
+        <v>1882914</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1882931</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1200,12 @@
       <c r="U10" t="n">
         <v>240155</v>
       </c>
+      <c r="V10" t="n">
+        <v>240750</v>
+      </c>
+      <c r="W10" t="n">
+        <v>240750</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1209,6 +1273,12 @@
       <c r="U11" t="n">
         <v>394638</v>
       </c>
+      <c r="V11" t="n">
+        <v>394666</v>
+      </c>
+      <c r="W11" t="n">
+        <v>394667</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1276,6 +1346,12 @@
       <c r="U12" t="n">
         <v>836501</v>
       </c>
+      <c r="V12" t="n">
+        <v>862165</v>
+      </c>
+      <c r="W12" t="n">
+        <v>862184</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1343,6 +1419,12 @@
       <c r="U13" t="n">
         <v>301813</v>
       </c>
+      <c r="V13" t="n">
+        <v>305573</v>
+      </c>
+      <c r="W13" t="n">
+        <v>305573</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1410,6 +1492,12 @@
       <c r="U14" t="n">
         <v>636762</v>
       </c>
+      <c r="V14" t="n">
+        <v>637082</v>
+      </c>
+      <c r="W14" t="n">
+        <v>637086</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1477,6 +1565,12 @@
       <c r="U15" t="n">
         <v>7920702</v>
       </c>
+      <c r="V15" t="n">
+        <v>7919131</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7919123</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1544,6 +1638,12 @@
       <c r="U16" t="n">
         <v>1243908</v>
       </c>
+      <c r="V16" t="n">
+        <v>1246090</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1246092</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1611,6 +1711,12 @@
       <c r="U17" t="n">
         <v>272903</v>
       </c>
+      <c r="V17" t="n">
+        <v>274260</v>
+      </c>
+      <c r="W17" t="n">
+        <v>274264</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1678,6 +1784,12 @@
       <c r="U18" t="n">
         <v>1196827</v>
       </c>
+      <c r="V18" t="n">
+        <v>1208042</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1208067</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1745,6 +1857,12 @@
       <c r="U19" t="n">
         <v>414396</v>
       </c>
+      <c r="V19" t="n">
+        <v>424388</v>
+      </c>
+      <c r="W19" t="n">
+        <v>424394</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1812,6 +1930,12 @@
       <c r="U20" t="n">
         <v>2974758</v>
       </c>
+      <c r="V20" t="n">
+        <v>2977919</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2977918</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1879,6 +2003,12 @@
       <c r="U21" t="n">
         <v>892650</v>
       </c>
+      <c r="V21" t="n">
+        <v>927302</v>
+      </c>
+      <c r="W21" t="n">
+        <v>927324</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1946,6 +2076,12 @@
       <c r="U22" t="n">
         <v>187191</v>
       </c>
+      <c r="V22" t="n">
+        <v>187684</v>
+      </c>
+      <c r="W22" t="n">
+        <v>187684</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2012,6 +2148,12 @@
       </c>
       <c r="U23" t="n">
         <v>8686517</v>
+      </c>
+      <c r="V23" t="n">
+        <v>8691419</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8691419</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -620,7 +620,7 @@
         <v>712472</v>
       </c>
       <c r="W2" t="n">
-        <v>712475</v>
+        <v>712474</v>
       </c>
     </row>
     <row r="3">
@@ -693,7 +693,7 @@
         <v>591977</v>
       </c>
       <c r="W3" t="n">
-        <v>591978</v>
+        <v>592175</v>
       </c>
     </row>
     <row r="4">
@@ -766,7 +766,7 @@
         <v>1281561</v>
       </c>
       <c r="W4" t="n">
-        <v>1281564</v>
+        <v>1285394</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
         <v>290469</v>
       </c>
       <c r="W5" t="n">
-        <v>290472</v>
+        <v>291205</v>
       </c>
     </row>
     <row r="6">
@@ -912,7 +912,7 @@
         <v>3862497</v>
       </c>
       <c r="W6" t="n">
-        <v>3862525</v>
+        <v>3876353</v>
       </c>
     </row>
     <row r="7">
@@ -985,7 +985,7 @@
         <v>1319600</v>
       </c>
       <c r="W7" t="n">
-        <v>1319604</v>
+        <v>1319633</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>10667409</v>
       </c>
       <c r="W8" t="n">
-        <v>10667407</v>
+        <v>10669852</v>
       </c>
     </row>
     <row r="9">
@@ -1131,7 +1131,7 @@
         <v>1882914</v>
       </c>
       <c r="W9" t="n">
-        <v>1882931</v>
+        <v>1893616</v>
       </c>
     </row>
     <row r="10">
@@ -1204,7 +1204,7 @@
         <v>240750</v>
       </c>
       <c r="W10" t="n">
-        <v>240750</v>
+        <v>241262</v>
       </c>
     </row>
     <row r="11">
@@ -1277,7 +1277,7 @@
         <v>394666</v>
       </c>
       <c r="W11" t="n">
-        <v>394667</v>
+        <v>395859</v>
       </c>
     </row>
     <row r="12">
@@ -1350,7 +1350,7 @@
         <v>862165</v>
       </c>
       <c r="W12" t="n">
-        <v>862184</v>
+        <v>886576</v>
       </c>
     </row>
     <row r="13">
@@ -1423,7 +1423,7 @@
         <v>305573</v>
       </c>
       <c r="W13" t="n">
-        <v>305573</v>
+        <v>308478</v>
       </c>
     </row>
     <row r="14">
@@ -1496,7 +1496,7 @@
         <v>637082</v>
       </c>
       <c r="W14" t="n">
-        <v>637086</v>
+        <v>637303</v>
       </c>
     </row>
     <row r="15">
@@ -1569,7 +1569,7 @@
         <v>7919131</v>
       </c>
       <c r="W15" t="n">
-        <v>7919123</v>
+        <v>7919086</v>
       </c>
     </row>
     <row r="16">
@@ -1642,7 +1642,7 @@
         <v>1246090</v>
       </c>
       <c r="W16" t="n">
-        <v>1246092</v>
+        <v>1247636</v>
       </c>
     </row>
     <row r="17">
@@ -1715,7 +1715,7 @@
         <v>274260</v>
       </c>
       <c r="W17" t="n">
-        <v>274264</v>
+        <v>275934</v>
       </c>
     </row>
     <row r="18">
@@ -1788,7 +1788,7 @@
         <v>1208042</v>
       </c>
       <c r="W18" t="n">
-        <v>1208067</v>
+        <v>1217499</v>
       </c>
     </row>
     <row r="19">
@@ -1861,7 +1861,7 @@
         <v>424388</v>
       </c>
       <c r="W19" t="n">
-        <v>424394</v>
+        <v>428451</v>
       </c>
     </row>
     <row r="20">
@@ -1934,7 +1934,7 @@
         <v>2977919</v>
       </c>
       <c r="W20" t="n">
-        <v>2977918</v>
+        <v>2979642</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         <v>927302</v>
       </c>
       <c r="W21" t="n">
-        <v>927324</v>
+        <v>974755</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2080,7 @@
         <v>187684</v>
       </c>
       <c r="W22" t="n">
-        <v>187684</v>
+        <v>187791</v>
       </c>
     </row>
     <row r="23">
@@ -2153,7 +2153,7 @@
         <v>8691419</v>
       </c>
       <c r="W23" t="n">
-        <v>8691419</v>
+        <v>8695390</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -620,7 +620,7 @@
         <v>712472</v>
       </c>
       <c r="W2" t="n">
-        <v>712474</v>
+        <v>712248</v>
       </c>
     </row>
     <row r="3">
@@ -693,7 +693,7 @@
         <v>591977</v>
       </c>
       <c r="W3" t="n">
-        <v>592175</v>
+        <v>592324</v>
       </c>
     </row>
     <row r="4">
@@ -766,7 +766,7 @@
         <v>1281561</v>
       </c>
       <c r="W4" t="n">
-        <v>1285394</v>
+        <v>1286702</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
         <v>290469</v>
       </c>
       <c r="W5" t="n">
-        <v>291205</v>
+        <v>291444</v>
       </c>
     </row>
     <row r="6">
@@ -912,7 +912,7 @@
         <v>3862497</v>
       </c>
       <c r="W6" t="n">
-        <v>3876353</v>
+        <v>3884075</v>
       </c>
     </row>
     <row r="7">
@@ -985,7 +985,7 @@
         <v>1319600</v>
       </c>
       <c r="W7" t="n">
-        <v>1319633</v>
+        <v>1319976</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>10667409</v>
       </c>
       <c r="W8" t="n">
-        <v>10669852</v>
+        <v>10674811</v>
       </c>
     </row>
     <row r="9">
@@ -1131,7 +1131,7 @@
         <v>1882914</v>
       </c>
       <c r="W9" t="n">
-        <v>1893616</v>
+        <v>1896359</v>
       </c>
     </row>
     <row r="10">
@@ -1204,7 +1204,7 @@
         <v>240750</v>
       </c>
       <c r="W10" t="n">
-        <v>241262</v>
+        <v>241352</v>
       </c>
     </row>
     <row r="11">
@@ -1277,7 +1277,7 @@
         <v>394666</v>
       </c>
       <c r="W11" t="n">
-        <v>395859</v>
+        <v>396007</v>
       </c>
     </row>
     <row r="12">
@@ -1350,7 +1350,7 @@
         <v>862165</v>
       </c>
       <c r="W12" t="n">
-        <v>886576</v>
+        <v>894442</v>
       </c>
     </row>
     <row r="13">
@@ -1423,7 +1423,7 @@
         <v>305573</v>
       </c>
       <c r="W13" t="n">
-        <v>308478</v>
+        <v>309628</v>
       </c>
     </row>
     <row r="14">
@@ -1496,7 +1496,7 @@
         <v>637082</v>
       </c>
       <c r="W14" t="n">
-        <v>637303</v>
+        <v>637881</v>
       </c>
     </row>
     <row r="15">
@@ -1569,7 +1569,7 @@
         <v>7919131</v>
       </c>
       <c r="W15" t="n">
-        <v>7919086</v>
+        <v>7919433</v>
       </c>
     </row>
     <row r="16">
@@ -1642,7 +1642,7 @@
         <v>1246090</v>
       </c>
       <c r="W16" t="n">
-        <v>1247636</v>
+        <v>1248044</v>
       </c>
     </row>
     <row r="17">
@@ -1715,7 +1715,7 @@
         <v>274260</v>
       </c>
       <c r="W17" t="n">
-        <v>275934</v>
+        <v>276798</v>
       </c>
     </row>
     <row r="18">
@@ -1788,7 +1788,7 @@
         <v>1208042</v>
       </c>
       <c r="W18" t="n">
-        <v>1217499</v>
+        <v>1220493</v>
       </c>
     </row>
     <row r="19">
@@ -1861,7 +1861,7 @@
         <v>424388</v>
       </c>
       <c r="W19" t="n">
-        <v>428451</v>
+        <v>430222</v>
       </c>
     </row>
     <row r="20">
@@ -1934,7 +1934,7 @@
         <v>2977919</v>
       </c>
       <c r="W20" t="n">
-        <v>2979642</v>
+        <v>2981009</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         <v>927302</v>
       </c>
       <c r="W21" t="n">
-        <v>974755</v>
+        <v>986511</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2080,7 @@
         <v>187684</v>
       </c>
       <c r="W22" t="n">
-        <v>187791</v>
+        <v>187882</v>
       </c>
     </row>
     <row r="23">
@@ -2153,7 +2153,7 @@
         <v>8691419</v>
       </c>
       <c r="W23" t="n">
-        <v>8695390</v>
+        <v>8696388</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>2023-02-11</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +627,9 @@
       <c r="W2" t="n">
         <v>712248</v>
       </c>
+      <c r="X2" t="n">
+        <v>711934</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -695,6 +703,9 @@
       <c r="W3" t="n">
         <v>592324</v>
       </c>
+      <c r="X3" t="n">
+        <v>592073</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -768,6 +779,9 @@
       <c r="W4" t="n">
         <v>1286702</v>
       </c>
+      <c r="X4" t="n">
+        <v>1289372</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -841,6 +855,9 @@
       <c r="W5" t="n">
         <v>291444</v>
       </c>
+      <c r="X5" t="n">
+        <v>291856</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -914,6 +931,9 @@
       <c r="W6" t="n">
         <v>3884075</v>
       </c>
+      <c r="X6" t="n">
+        <v>3895890</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -987,6 +1007,9 @@
       <c r="W7" t="n">
         <v>1319976</v>
       </c>
+      <c r="X7" t="n">
+        <v>1320920</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1060,6 +1083,9 @@
       <c r="W8" t="n">
         <v>10674811</v>
       </c>
+      <c r="X8" t="n">
+        <v>10675710</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1133,6 +1159,9 @@
       <c r="W9" t="n">
         <v>1896359</v>
       </c>
+      <c r="X9" t="n">
+        <v>1902379</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1206,6 +1235,9 @@
       <c r="W10" t="n">
         <v>241352</v>
       </c>
+      <c r="X10" t="n">
+        <v>241594</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1311,9 @@
       <c r="W11" t="n">
         <v>396007</v>
       </c>
+      <c r="X11" t="n">
+        <v>395893</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1352,6 +1387,9 @@
       <c r="W12" t="n">
         <v>894442</v>
       </c>
+      <c r="X12" t="n">
+        <v>914864</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1425,6 +1463,9 @@
       <c r="W13" t="n">
         <v>309628</v>
       </c>
+      <c r="X13" t="n">
+        <v>311809</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1498,6 +1539,9 @@
       <c r="W14" t="n">
         <v>637881</v>
       </c>
+      <c r="X14" t="n">
+        <v>638751</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1571,6 +1615,9 @@
       <c r="W15" t="n">
         <v>7919433</v>
       </c>
+      <c r="X15" t="n">
+        <v>7917721</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1644,6 +1691,9 @@
       <c r="W16" t="n">
         <v>1248044</v>
       </c>
+      <c r="X16" t="n">
+        <v>1248741</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1717,6 +1767,9 @@
       <c r="W17" t="n">
         <v>276798</v>
       </c>
+      <c r="X17" t="n">
+        <v>278376</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1790,6 +1843,9 @@
       <c r="W18" t="n">
         <v>1220493</v>
       </c>
+      <c r="X18" t="n">
+        <v>1225399</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1863,6 +1919,9 @@
       <c r="W19" t="n">
         <v>430222</v>
       </c>
+      <c r="X19" t="n">
+        <v>439720</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1936,6 +1995,9 @@
       <c r="W20" t="n">
         <v>2981009</v>
       </c>
+      <c r="X20" t="n">
+        <v>2983376</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2009,6 +2071,9 @@
       <c r="W21" t="n">
         <v>986511</v>
       </c>
+      <c r="X21" t="n">
+        <v>1039730</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2082,6 +2147,9 @@
       <c r="W22" t="n">
         <v>187882</v>
       </c>
+      <c r="X22" t="n">
+        <v>188066</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2154,6 +2222,9 @@
       </c>
       <c r="W23" t="n">
         <v>8696388</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8699552</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,11 @@
           <t>2023-02-12</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -630,6 +635,9 @@
       <c r="X2" t="n">
         <v>711934</v>
       </c>
+      <c r="Y2" t="n">
+        <v>712925</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -706,6 +714,9 @@
       <c r="X3" t="n">
         <v>592073</v>
       </c>
+      <c r="Y3" t="n">
+        <v>601874</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -782,6 +793,9 @@
       <c r="X4" t="n">
         <v>1289372</v>
       </c>
+      <c r="Y4" t="n">
+        <v>1293258</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -858,6 +872,9 @@
       <c r="X5" t="n">
         <v>291856</v>
       </c>
+      <c r="Y5" t="n">
+        <v>292878</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -934,6 +951,9 @@
       <c r="X6" t="n">
         <v>3895890</v>
       </c>
+      <c r="Y6" t="n">
+        <v>3915068</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1010,6 +1030,9 @@
       <c r="X7" t="n">
         <v>1320920</v>
       </c>
+      <c r="Y7" t="n">
+        <v>1320374</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1086,6 +1109,9 @@
       <c r="X8" t="n">
         <v>10675710</v>
       </c>
+      <c r="Y8" t="n">
+        <v>10682874</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1162,6 +1188,9 @@
       <c r="X9" t="n">
         <v>1902379</v>
       </c>
+      <c r="Y9" t="n">
+        <v>1914764</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1238,6 +1267,9 @@
       <c r="X10" t="n">
         <v>241594</v>
       </c>
+      <c r="Y10" t="n">
+        <v>242846</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1314,6 +1346,9 @@
       <c r="X11" t="n">
         <v>395893</v>
       </c>
+      <c r="Y11" t="n">
+        <v>397145</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1390,6 +1425,9 @@
       <c r="X12" t="n">
         <v>914864</v>
       </c>
+      <c r="Y12" t="n">
+        <v>952132</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1466,6 +1504,9 @@
       <c r="X13" t="n">
         <v>311809</v>
       </c>
+      <c r="Y13" t="n">
+        <v>317026</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1542,6 +1583,9 @@
       <c r="X14" t="n">
         <v>638751</v>
       </c>
+      <c r="Y14" t="n">
+        <v>642541</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1618,6 +1662,9 @@
       <c r="X15" t="n">
         <v>7917721</v>
       </c>
+      <c r="Y15" t="n">
+        <v>7913901</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1694,6 +1741,9 @@
       <c r="X16" t="n">
         <v>1248741</v>
       </c>
+      <c r="Y16" t="n">
+        <v>1247906</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1770,6 +1820,9 @@
       <c r="X17" t="n">
         <v>278376</v>
       </c>
+      <c r="Y17" t="n">
+        <v>299821</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1846,6 +1899,9 @@
       <c r="X18" t="n">
         <v>1225399</v>
       </c>
+      <c r="Y18" t="n">
+        <v>1232776</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1922,6 +1978,9 @@
       <c r="X19" t="n">
         <v>439720</v>
       </c>
+      <c r="Y19" t="n">
+        <v>451654</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1998,6 +2057,9 @@
       <c r="X20" t="n">
         <v>2983376</v>
       </c>
+      <c r="Y20" t="n">
+        <v>2987351</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2074,6 +2136,9 @@
       <c r="X21" t="n">
         <v>1039730</v>
       </c>
+      <c r="Y21" t="n">
+        <v>1144277</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2150,6 +2215,9 @@
       <c r="X22" t="n">
         <v>188066</v>
       </c>
+      <c r="Y22" t="n">
+        <v>189010</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2225,6 +2293,9 @@
       </c>
       <c r="X23" t="n">
         <v>8699552</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8706271</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -636,7 +636,7 @@
         <v>711934</v>
       </c>
       <c r="Y2" t="n">
-        <v>712925</v>
+        <v>711337</v>
       </c>
     </row>
     <row r="3">
@@ -715,7 +715,7 @@
         <v>592073</v>
       </c>
       <c r="Y3" t="n">
-        <v>601874</v>
+        <v>599427</v>
       </c>
     </row>
     <row r="4">
@@ -794,7 +794,7 @@
         <v>1289372</v>
       </c>
       <c r="Y4" t="n">
-        <v>1293258</v>
+        <v>1295862</v>
       </c>
     </row>
     <row r="5">
@@ -873,7 +873,7 @@
         <v>291856</v>
       </c>
       <c r="Y5" t="n">
-        <v>292878</v>
+        <v>294565</v>
       </c>
     </row>
     <row r="6">
@@ -952,7 +952,7 @@
         <v>3895890</v>
       </c>
       <c r="Y6" t="n">
-        <v>3915068</v>
+        <v>3923780</v>
       </c>
     </row>
     <row r="7">
@@ -1031,7 +1031,7 @@
         <v>1320920</v>
       </c>
       <c r="Y7" t="n">
-        <v>1320374</v>
+        <v>1316541</v>
       </c>
     </row>
     <row r="8">
@@ -1110,7 +1110,7 @@
         <v>10675710</v>
       </c>
       <c r="Y8" t="n">
-        <v>10682874</v>
+        <v>10685206</v>
       </c>
     </row>
     <row r="9">
@@ -1189,7 +1189,7 @@
         <v>1902379</v>
       </c>
       <c r="Y9" t="n">
-        <v>1914764</v>
+        <v>1921930</v>
       </c>
     </row>
     <row r="10">
@@ -1268,7 +1268,7 @@
         <v>241594</v>
       </c>
       <c r="Y10" t="n">
-        <v>242846</v>
+        <v>243568</v>
       </c>
     </row>
     <row r="11">
@@ -1347,7 +1347,7 @@
         <v>395893</v>
       </c>
       <c r="Y11" t="n">
-        <v>397145</v>
+        <v>395354</v>
       </c>
     </row>
     <row r="12">
@@ -1426,7 +1426,7 @@
         <v>914864</v>
       </c>
       <c r="Y12" t="n">
-        <v>952132</v>
+        <v>974306</v>
       </c>
     </row>
     <row r="13">
@@ -1505,7 +1505,7 @@
         <v>311809</v>
       </c>
       <c r="Y13" t="n">
-        <v>317026</v>
+        <v>319962</v>
       </c>
     </row>
     <row r="14">
@@ -1584,7 +1584,7 @@
         <v>638751</v>
       </c>
       <c r="Y14" t="n">
-        <v>642541</v>
+        <v>644105</v>
       </c>
     </row>
     <row r="15">
@@ -1663,7 +1663,7 @@
         <v>7917721</v>
       </c>
       <c r="Y15" t="n">
-        <v>7913901</v>
+        <v>7905862</v>
       </c>
     </row>
     <row r="16">
@@ -1742,7 +1742,7 @@
         <v>1248741</v>
       </c>
       <c r="Y16" t="n">
-        <v>1247906</v>
+        <v>1248860</v>
       </c>
     </row>
     <row r="17">
@@ -1821,7 +1821,7 @@
         <v>278376</v>
       </c>
       <c r="Y17" t="n">
-        <v>299821</v>
+        <v>315890</v>
       </c>
     </row>
     <row r="18">
@@ -1900,7 +1900,7 @@
         <v>1225399</v>
       </c>
       <c r="Y18" t="n">
-        <v>1232776</v>
+        <v>1237944</v>
       </c>
     </row>
     <row r="19">
@@ -1979,7 +1979,7 @@
         <v>439720</v>
       </c>
       <c r="Y19" t="n">
-        <v>451654</v>
+        <v>455641</v>
       </c>
     </row>
     <row r="20">
@@ -2058,7 +2058,7 @@
         <v>2983376</v>
       </c>
       <c r="Y20" t="n">
-        <v>2987351</v>
+        <v>2989092</v>
       </c>
     </row>
     <row r="21">
@@ -2137,7 +2137,7 @@
         <v>1039730</v>
       </c>
       <c r="Y21" t="n">
-        <v>1144277</v>
+        <v>1192922</v>
       </c>
     </row>
     <row r="22">
@@ -2216,7 +2216,7 @@
         <v>188066</v>
       </c>
       <c r="Y22" t="n">
-        <v>189010</v>
+        <v>197847</v>
       </c>
     </row>
     <row r="23">
@@ -2295,7 +2295,7 @@
         <v>8699552</v>
       </c>
       <c r="Y23" t="n">
-        <v>8706271</v>
+        <v>8715673</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,6 +559,11 @@
           <t>2023-02-13</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -638,6 +643,9 @@
       <c r="Y2" t="n">
         <v>711337</v>
       </c>
+      <c r="Z2" t="n">
+        <v>712959</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +725,9 @@
       <c r="Y3" t="n">
         <v>599427</v>
       </c>
+      <c r="Z3" t="n">
+        <v>600336</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -796,6 +807,9 @@
       <c r="Y4" t="n">
         <v>1295862</v>
       </c>
+      <c r="Z4" t="n">
+        <v>1299152</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -875,6 +889,9 @@
       <c r="Y5" t="n">
         <v>294565</v>
       </c>
+      <c r="Z5" t="n">
+        <v>298975</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -954,6 +971,9 @@
       <c r="Y6" t="n">
         <v>3923780</v>
       </c>
+      <c r="Z6" t="n">
+        <v>3938814</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1033,6 +1053,9 @@
       <c r="Y7" t="n">
         <v>1316541</v>
       </c>
+      <c r="Z7" t="n">
+        <v>1317385</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1112,6 +1135,9 @@
       <c r="Y8" t="n">
         <v>10685206</v>
       </c>
+      <c r="Z8" t="n">
+        <v>10716722</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1191,6 +1217,9 @@
       <c r="Y9" t="n">
         <v>1921930</v>
       </c>
+      <c r="Z9" t="n">
+        <v>1927929</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1270,6 +1299,9 @@
       <c r="Y10" t="n">
         <v>243568</v>
       </c>
+      <c r="Z10" t="n">
+        <v>244508</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1349,6 +1381,9 @@
       <c r="Y11" t="n">
         <v>395354</v>
       </c>
+      <c r="Z11" t="n">
+        <v>395997</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1428,6 +1463,9 @@
       <c r="Y12" t="n">
         <v>974306</v>
       </c>
+      <c r="Z12" t="n">
+        <v>985065</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1507,6 +1545,9 @@
       <c r="Y13" t="n">
         <v>319962</v>
       </c>
+      <c r="Z13" t="n">
+        <v>321653</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1586,6 +1627,9 @@
       <c r="Y14" t="n">
         <v>644105</v>
       </c>
+      <c r="Z14" t="n">
+        <v>646094</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1665,6 +1709,9 @@
       <c r="Y15" t="n">
         <v>7905862</v>
       </c>
+      <c r="Z15" t="n">
+        <v>7916623</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1744,6 +1791,9 @@
       <c r="Y16" t="n">
         <v>1248860</v>
       </c>
+      <c r="Z16" t="n">
+        <v>1250723</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1823,6 +1873,9 @@
       <c r="Y17" t="n">
         <v>315890</v>
       </c>
+      <c r="Z17" t="n">
+        <v>324109</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1902,6 +1955,9 @@
       <c r="Y18" t="n">
         <v>1237944</v>
       </c>
+      <c r="Z18" t="n">
+        <v>1242257</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1981,6 +2037,9 @@
       <c r="Y19" t="n">
         <v>455641</v>
       </c>
+      <c r="Z19" t="n">
+        <v>457803</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2060,6 +2119,9 @@
       <c r="Y20" t="n">
         <v>2989092</v>
       </c>
+      <c r="Z20" t="n">
+        <v>2996176</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2139,6 +2201,9 @@
       <c r="Y21" t="n">
         <v>1192922</v>
       </c>
+      <c r="Z21" t="n">
+        <v>1207594</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2218,6 +2283,9 @@
       <c r="Y22" t="n">
         <v>197847</v>
       </c>
+      <c r="Z22" t="n">
+        <v>199265</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2296,6 +2364,9 @@
       </c>
       <c r="Y23" t="n">
         <v>8715673</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8718072</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -644,7 +644,7 @@
         <v>711337</v>
       </c>
       <c r="Z2" t="n">
-        <v>712959</v>
+        <v>710804</v>
       </c>
     </row>
     <row r="3">
@@ -726,7 +726,7 @@
         <v>599427</v>
       </c>
       <c r="Z3" t="n">
-        <v>600336</v>
+        <v>598994</v>
       </c>
     </row>
     <row r="4">
@@ -808,7 +808,7 @@
         <v>1295862</v>
       </c>
       <c r="Z4" t="n">
-        <v>1299152</v>
+        <v>1299116</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>294565</v>
       </c>
       <c r="Z5" t="n">
-        <v>298975</v>
+        <v>301081</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         <v>3923780</v>
       </c>
       <c r="Z6" t="n">
-        <v>3938814</v>
+        <v>3935378</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>1316541</v>
       </c>
       <c r="Z7" t="n">
-        <v>1317385</v>
+        <v>1314848</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>10685206</v>
       </c>
       <c r="Z8" t="n">
-        <v>10716722</v>
+        <v>10685811</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1218,7 @@
         <v>1921930</v>
       </c>
       <c r="Z9" t="n">
-        <v>1927929</v>
+        <v>1931265</v>
       </c>
     </row>
     <row r="10">
@@ -1300,7 +1300,7 @@
         <v>243568</v>
       </c>
       <c r="Z10" t="n">
-        <v>244508</v>
+        <v>244844</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>395354</v>
       </c>
       <c r="Z11" t="n">
-        <v>395997</v>
+        <v>392185</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>974306</v>
       </c>
       <c r="Z12" t="n">
-        <v>985065</v>
+        <v>1002404</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1546,7 @@
         <v>319962</v>
       </c>
       <c r="Z13" t="n">
-        <v>321653</v>
+        <v>324538</v>
       </c>
     </row>
     <row r="14">
@@ -1628,7 +1628,7 @@
         <v>644105</v>
       </c>
       <c r="Z14" t="n">
-        <v>646094</v>
+        <v>645948</v>
       </c>
     </row>
     <row r="15">
@@ -1710,7 +1710,7 @@
         <v>7905862</v>
       </c>
       <c r="Z15" t="n">
-        <v>7916623</v>
+        <v>7905834</v>
       </c>
     </row>
     <row r="16">
@@ -1792,7 +1792,7 @@
         <v>1248860</v>
       </c>
       <c r="Z16" t="n">
-        <v>1250723</v>
+        <v>1249957</v>
       </c>
     </row>
     <row r="17">
@@ -1874,7 +1874,7 @@
         <v>315890</v>
       </c>
       <c r="Z17" t="n">
-        <v>324109</v>
+        <v>329510</v>
       </c>
     </row>
     <row r="18">
@@ -1956,7 +1956,7 @@
         <v>1237944</v>
       </c>
       <c r="Z18" t="n">
-        <v>1242257</v>
+        <v>1243542</v>
       </c>
     </row>
     <row r="19">
@@ -2038,7 +2038,7 @@
         <v>455641</v>
       </c>
       <c r="Z19" t="n">
-        <v>457803</v>
+        <v>459264</v>
       </c>
     </row>
     <row r="20">
@@ -2120,7 +2120,7 @@
         <v>2989092</v>
       </c>
       <c r="Z20" t="n">
-        <v>2996176</v>
+        <v>2992581</v>
       </c>
     </row>
     <row r="21">
@@ -2202,7 +2202,7 @@
         <v>1192922</v>
       </c>
       <c r="Z21" t="n">
-        <v>1207594</v>
+        <v>1235672</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2284,7 @@
         <v>197847</v>
       </c>
       <c r="Z22" t="n">
-        <v>199265</v>
+        <v>201200</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>8715673</v>
       </c>
       <c r="Z23" t="n">
-        <v>8718072</v>
+        <v>8714952</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +564,11 @@
           <t>2023-02-14</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +651,9 @@
       <c r="Z2" t="n">
         <v>710804</v>
       </c>
+      <c r="AA2" t="n">
+        <v>711324</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -728,6 +736,9 @@
       <c r="Z3" t="n">
         <v>598994</v>
       </c>
+      <c r="AA3" t="n">
+        <v>601187</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -810,6 +821,9 @@
       <c r="Z4" t="n">
         <v>1299116</v>
       </c>
+      <c r="AA4" t="n">
+        <v>1301394</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +906,9 @@
       <c r="Z5" t="n">
         <v>301081</v>
       </c>
+      <c r="AA5" t="n">
+        <v>302142</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -974,6 +991,9 @@
       <c r="Z6" t="n">
         <v>3935378</v>
       </c>
+      <c r="AA6" t="n">
+        <v>3941202</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1056,6 +1076,9 @@
       <c r="Z7" t="n">
         <v>1314848</v>
       </c>
+      <c r="AA7" t="n">
+        <v>1315605</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1138,6 +1161,9 @@
       <c r="Z8" t="n">
         <v>10685811</v>
       </c>
+      <c r="AA8" t="n">
+        <v>10690091</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1220,6 +1246,9 @@
       <c r="Z9" t="n">
         <v>1931265</v>
       </c>
+      <c r="AA9" t="n">
+        <v>1935499</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1302,6 +1331,9 @@
       <c r="Z10" t="n">
         <v>244844</v>
       </c>
+      <c r="AA10" t="n">
+        <v>246013</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1384,6 +1416,9 @@
       <c r="Z11" t="n">
         <v>392185</v>
       </c>
+      <c r="AA11" t="n">
+        <v>391817</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1466,6 +1501,9 @@
       <c r="Z12" t="n">
         <v>1002404</v>
       </c>
+      <c r="AA12" t="n">
+        <v>1021605</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1548,6 +1586,9 @@
       <c r="Z13" t="n">
         <v>324538</v>
       </c>
+      <c r="AA13" t="n">
+        <v>327051</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1630,6 +1671,9 @@
       <c r="Z14" t="n">
         <v>645948</v>
       </c>
+      <c r="AA14" t="n">
+        <v>647499</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1712,6 +1756,9 @@
       <c r="Z15" t="n">
         <v>7905834</v>
       </c>
+      <c r="AA15" t="n">
+        <v>7903903</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1794,6 +1841,9 @@
       <c r="Z16" t="n">
         <v>1249957</v>
       </c>
+      <c r="AA16" t="n">
+        <v>1249221</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1876,6 +1926,9 @@
       <c r="Z17" t="n">
         <v>329510</v>
       </c>
+      <c r="AA17" t="n">
+        <v>333668</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1958,6 +2011,9 @@
       <c r="Z18" t="n">
         <v>1243542</v>
       </c>
+      <c r="AA18" t="n">
+        <v>1246319</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2040,6 +2096,9 @@
       <c r="Z19" t="n">
         <v>459264</v>
       </c>
+      <c r="AA19" t="n">
+        <v>461416</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2122,6 +2181,9 @@
       <c r="Z20" t="n">
         <v>2992581</v>
       </c>
+      <c r="AA20" t="n">
+        <v>2994421</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2204,6 +2266,9 @@
       <c r="Z21" t="n">
         <v>1235672</v>
       </c>
+      <c r="AA21" t="n">
+        <v>1267425</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2286,6 +2351,9 @@
       <c r="Z22" t="n">
         <v>201200</v>
       </c>
+      <c r="AA22" t="n">
+        <v>203741</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2367,6 +2435,9 @@
       </c>
       <c r="Z23" t="n">
         <v>8714952</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>8718333</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,11 @@
           <t>2023-02-15</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -654,6 +659,9 @@
       <c r="AA2" t="n">
         <v>711324</v>
       </c>
+      <c r="AB2" t="n">
+        <v>711676</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -739,6 +747,9 @@
       <c r="AA3" t="n">
         <v>601187</v>
       </c>
+      <c r="AB3" t="n">
+        <v>610741</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +835,9 @@
       <c r="AA4" t="n">
         <v>1301394</v>
       </c>
+      <c r="AB4" t="n">
+        <v>1306874</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -909,6 +923,9 @@
       <c r="AA5" t="n">
         <v>302142</v>
       </c>
+      <c r="AB5" t="n">
+        <v>308765</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -994,6 +1011,9 @@
       <c r="AA6" t="n">
         <v>3941202</v>
       </c>
+      <c r="AB6" t="n">
+        <v>3975752</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1079,6 +1099,9 @@
       <c r="AA7" t="n">
         <v>1315605</v>
       </c>
+      <c r="AB7" t="n">
+        <v>1318414</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1164,6 +1187,9 @@
       <c r="AA8" t="n">
         <v>10690091</v>
       </c>
+      <c r="AB8" t="n">
+        <v>10693149</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1249,6 +1275,9 @@
       <c r="AA9" t="n">
         <v>1935499</v>
       </c>
+      <c r="AB9" t="n">
+        <v>1946446</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1334,6 +1363,9 @@
       <c r="AA10" t="n">
         <v>246013</v>
       </c>
+      <c r="AB10" t="n">
+        <v>248510</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1419,6 +1451,9 @@
       <c r="AA11" t="n">
         <v>391817</v>
       </c>
+      <c r="AB11" t="n">
+        <v>392579</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1504,6 +1539,9 @@
       <c r="AA12" t="n">
         <v>1021605</v>
       </c>
+      <c r="AB12" t="n">
+        <v>1069458</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1589,6 +1627,9 @@
       <c r="AA13" t="n">
         <v>327051</v>
       </c>
+      <c r="AB13" t="n">
+        <v>332636</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1674,6 +1715,9 @@
       <c r="AA14" t="n">
         <v>647499</v>
       </c>
+      <c r="AB14" t="n">
+        <v>650589</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1759,6 +1803,9 @@
       <c r="AA15" t="n">
         <v>7903903</v>
       </c>
+      <c r="AB15" t="n">
+        <v>7902419</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1844,6 +1891,9 @@
       <c r="AA16" t="n">
         <v>1249221</v>
       </c>
+      <c r="AB16" t="n">
+        <v>1251044</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1929,6 +1979,9 @@
       <c r="AA17" t="n">
         <v>333668</v>
       </c>
+      <c r="AB17" t="n">
+        <v>340972</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2014,6 +2067,9 @@
       <c r="AA18" t="n">
         <v>1246319</v>
       </c>
+      <c r="AB18" t="n">
+        <v>1252268</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2099,6 +2155,9 @@
       <c r="AA19" t="n">
         <v>461416</v>
       </c>
+      <c r="AB19" t="n">
+        <v>466313</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2184,6 +2243,9 @@
       <c r="AA20" t="n">
         <v>2994421</v>
       </c>
+      <c r="AB20" t="n">
+        <v>2999709</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2269,6 +2331,9 @@
       <c r="AA21" t="n">
         <v>1267425</v>
       </c>
+      <c r="AB21" t="n">
+        <v>1331482</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2354,6 +2419,9 @@
       <c r="AA22" t="n">
         <v>203741</v>
       </c>
+      <c r="AB22" t="n">
+        <v>206830</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2438,6 +2506,9 @@
       </c>
       <c r="AA23" t="n">
         <v>8718333</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8727924</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -660,7 +660,7 @@
         <v>711324</v>
       </c>
       <c r="AB2" t="n">
-        <v>711676</v>
+        <v>711005</v>
       </c>
     </row>
     <row r="3">
@@ -748,7 +748,7 @@
         <v>601187</v>
       </c>
       <c r="AB3" t="n">
-        <v>610741</v>
+        <v>613187</v>
       </c>
     </row>
     <row r="4">
@@ -836,7 +836,7 @@
         <v>1301394</v>
       </c>
       <c r="AB4" t="n">
-        <v>1306874</v>
+        <v>1309670</v>
       </c>
     </row>
     <row r="5">
@@ -924,7 +924,7 @@
         <v>302142</v>
       </c>
       <c r="AB5" t="n">
-        <v>308765</v>
+        <v>310808</v>
       </c>
     </row>
     <row r="6">
@@ -1012,7 +1012,7 @@
         <v>3941202</v>
       </c>
       <c r="AB6" t="n">
-        <v>3975752</v>
+        <v>3993453</v>
       </c>
     </row>
     <row r="7">
@@ -1100,7 +1100,7 @@
         <v>1315605</v>
       </c>
       <c r="AB7" t="n">
-        <v>1318414</v>
+        <v>1317289</v>
       </c>
     </row>
     <row r="8">
@@ -1188,7 +1188,7 @@
         <v>10690091</v>
       </c>
       <c r="AB8" t="n">
-        <v>10693149</v>
+        <v>10697384</v>
       </c>
     </row>
     <row r="9">
@@ -1276,7 +1276,7 @@
         <v>1935499</v>
       </c>
       <c r="AB9" t="n">
-        <v>1946446</v>
+        <v>1952884</v>
       </c>
     </row>
     <row r="10">
@@ -1364,7 +1364,7 @@
         <v>246013</v>
       </c>
       <c r="AB10" t="n">
-        <v>248510</v>
+        <v>248967</v>
       </c>
     </row>
     <row r="11">
@@ -1452,7 +1452,7 @@
         <v>391817</v>
       </c>
       <c r="AB11" t="n">
-        <v>392579</v>
+        <v>392961</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1540,7 @@
         <v>1021605</v>
       </c>
       <c r="AB12" t="n">
-        <v>1069458</v>
+        <v>1087230</v>
       </c>
     </row>
     <row r="13">
@@ -1628,7 +1628,7 @@
         <v>327051</v>
       </c>
       <c r="AB13" t="n">
-        <v>332636</v>
+        <v>336583</v>
       </c>
     </row>
     <row r="14">
@@ -1716,7 +1716,7 @@
         <v>647499</v>
       </c>
       <c r="AB14" t="n">
-        <v>650589</v>
+        <v>652294</v>
       </c>
     </row>
     <row r="15">
@@ -1804,7 +1804,7 @@
         <v>7903903</v>
       </c>
       <c r="AB15" t="n">
-        <v>7902419</v>
+        <v>7900622</v>
       </c>
     </row>
     <row r="16">
@@ -1892,7 +1892,7 @@
         <v>1249221</v>
       </c>
       <c r="AB16" t="n">
-        <v>1251044</v>
+        <v>1252050</v>
       </c>
     </row>
     <row r="17">
@@ -1980,7 +1980,7 @@
         <v>333668</v>
       </c>
       <c r="AB17" t="n">
-        <v>340972</v>
+        <v>343526</v>
       </c>
     </row>
     <row r="18">
@@ -2068,7 +2068,7 @@
         <v>1246319</v>
       </c>
       <c r="AB18" t="n">
-        <v>1252268</v>
+        <v>1255336</v>
       </c>
     </row>
     <row r="19">
@@ -2156,7 +2156,7 @@
         <v>461416</v>
       </c>
       <c r="AB19" t="n">
-        <v>466313</v>
+        <v>468203</v>
       </c>
     </row>
     <row r="20">
@@ -2244,7 +2244,7 @@
         <v>2994421</v>
       </c>
       <c r="AB20" t="n">
-        <v>2999709</v>
+        <v>3001715</v>
       </c>
     </row>
     <row r="21">
@@ -2332,7 +2332,7 @@
         <v>1267425</v>
       </c>
       <c r="AB21" t="n">
-        <v>1331482</v>
+        <v>1358141</v>
       </c>
     </row>
     <row r="22">
@@ -2420,7 +2420,7 @@
         <v>203741</v>
       </c>
       <c r="AB22" t="n">
-        <v>206830</v>
+        <v>207836</v>
       </c>
     </row>
     <row r="23">
@@ -2508,7 +2508,7 @@
         <v>8718333</v>
       </c>
       <c r="AB23" t="n">
-        <v>8727924</v>
+        <v>8732450</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,11 @@
           <t>2023-02-16</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -662,6 +667,9 @@
       <c r="AB2" t="n">
         <v>711005</v>
       </c>
+      <c r="AC2" t="n">
+        <v>710764</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -750,6 +758,9 @@
       <c r="AB3" t="n">
         <v>613187</v>
       </c>
+      <c r="AC3" t="n">
+        <v>613645</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -838,6 +849,9 @@
       <c r="AB4" t="n">
         <v>1309670</v>
       </c>
+      <c r="AC4" t="n">
+        <v>1310954</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -926,6 +940,9 @@
       <c r="AB5" t="n">
         <v>310808</v>
       </c>
+      <c r="AC5" t="n">
+        <v>311531</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1014,6 +1031,9 @@
       <c r="AB6" t="n">
         <v>3993453</v>
       </c>
+      <c r="AC6" t="n">
+        <v>4000718</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1102,6 +1122,9 @@
       <c r="AB7" t="n">
         <v>1317289</v>
       </c>
+      <c r="AC7" t="n">
+        <v>1317622</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1190,6 +1213,9 @@
       <c r="AB8" t="n">
         <v>10697384</v>
       </c>
+      <c r="AC8" t="n">
+        <v>10702526</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1278,6 +1304,9 @@
       <c r="AB9" t="n">
         <v>1952884</v>
       </c>
+      <c r="AC9" t="n">
+        <v>1955789</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1366,6 +1395,9 @@
       <c r="AB10" t="n">
         <v>248967</v>
       </c>
+      <c r="AC10" t="n">
+        <v>249151</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1454,6 +1486,9 @@
       <c r="AB11" t="n">
         <v>392961</v>
       </c>
+      <c r="AC11" t="n">
+        <v>392634</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1542,6 +1577,9 @@
       <c r="AB12" t="n">
         <v>1087230</v>
       </c>
+      <c r="AC12" t="n">
+        <v>1093403</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1630,6 +1668,9 @@
       <c r="AB13" t="n">
         <v>336583</v>
       </c>
+      <c r="AC13" t="n">
+        <v>337976</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1718,6 +1759,9 @@
       <c r="AB14" t="n">
         <v>652294</v>
       </c>
+      <c r="AC14" t="n">
+        <v>653102</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1806,6 +1850,9 @@
       <c r="AB15" t="n">
         <v>7900622</v>
       </c>
+      <c r="AC15" t="n">
+        <v>7899398</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1894,6 +1941,9 @@
       <c r="AB16" t="n">
         <v>1252050</v>
       </c>
+      <c r="AC16" t="n">
+        <v>1252497</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1982,6 +2032,9 @@
       <c r="AB17" t="n">
         <v>343526</v>
       </c>
+      <c r="AC17" t="n">
+        <v>344637</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2070,6 +2123,9 @@
       <c r="AB18" t="n">
         <v>1255336</v>
       </c>
+      <c r="AC18" t="n">
+        <v>1256588</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2158,6 +2214,9 @@
       <c r="AB19" t="n">
         <v>468203</v>
       </c>
+      <c r="AC19" t="n">
+        <v>468878</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2246,6 +2305,9 @@
       <c r="AB20" t="n">
         <v>3001715</v>
       </c>
+      <c r="AC20" t="n">
+        <v>3002170</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2334,6 +2396,9 @@
       <c r="AB21" t="n">
         <v>1358141</v>
       </c>
+      <c r="AC21" t="n">
+        <v>1367541</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2422,6 +2487,9 @@
       <c r="AB22" t="n">
         <v>207836</v>
       </c>
+      <c r="AC22" t="n">
+        <v>208145</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2509,6 +2577,9 @@
       </c>
       <c r="AB23" t="n">
         <v>8732450</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8734338</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -668,7 +668,7 @@
         <v>711005</v>
       </c>
       <c r="AC2" t="n">
-        <v>710764</v>
+        <v>710790</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +759,7 @@
         <v>613187</v>
       </c>
       <c r="AC3" t="n">
-        <v>613645</v>
+        <v>614004</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
         <v>1309670</v>
       </c>
       <c r="AC4" t="n">
-        <v>1310954</v>
+        <v>1312910</v>
       </c>
     </row>
     <row r="5">
@@ -941,7 +941,7 @@
         <v>310808</v>
       </c>
       <c r="AC5" t="n">
-        <v>311531</v>
+        <v>312401</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>3993453</v>
       </c>
       <c r="AC6" t="n">
-        <v>4000718</v>
+        <v>4005130</v>
       </c>
     </row>
     <row r="7">
@@ -1123,7 +1123,7 @@
         <v>1317289</v>
       </c>
       <c r="AC7" t="n">
-        <v>1317622</v>
+        <v>1317968</v>
       </c>
     </row>
     <row r="8">
@@ -1214,7 +1214,7 @@
         <v>10697384</v>
       </c>
       <c r="AC8" t="n">
-        <v>10702526</v>
+        <v>10701500</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>1952884</v>
       </c>
       <c r="AC9" t="n">
-        <v>1955789</v>
+        <v>1958305</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1396,7 @@
         <v>248967</v>
       </c>
       <c r="AC10" t="n">
-        <v>249151</v>
+        <v>249298</v>
       </c>
     </row>
     <row r="11">
@@ -1487,7 +1487,7 @@
         <v>392961</v>
       </c>
       <c r="AC11" t="n">
-        <v>392634</v>
+        <v>412636</v>
       </c>
     </row>
     <row r="12">
@@ -1578,7 +1578,7 @@
         <v>1087230</v>
       </c>
       <c r="AC12" t="n">
-        <v>1093403</v>
+        <v>1098891</v>
       </c>
     </row>
     <row r="13">
@@ -1669,7 +1669,7 @@
         <v>336583</v>
       </c>
       <c r="AC13" t="n">
-        <v>337976</v>
+        <v>339302</v>
       </c>
     </row>
     <row r="14">
@@ -1760,7 +1760,7 @@
         <v>652294</v>
       </c>
       <c r="AC14" t="n">
-        <v>653102</v>
+        <v>653944</v>
       </c>
     </row>
     <row r="15">
@@ -1851,7 +1851,7 @@
         <v>7900622</v>
       </c>
       <c r="AC15" t="n">
-        <v>7899398</v>
+        <v>7896592</v>
       </c>
     </row>
     <row r="16">
@@ -1942,7 +1942,7 @@
         <v>1252050</v>
       </c>
       <c r="AC16" t="n">
-        <v>1252497</v>
+        <v>1252872</v>
       </c>
     </row>
     <row r="17">
@@ -2033,7 +2033,7 @@
         <v>343526</v>
       </c>
       <c r="AC17" t="n">
-        <v>344637</v>
+        <v>347140</v>
       </c>
     </row>
     <row r="18">
@@ -2124,7 +2124,7 @@
         <v>1255336</v>
       </c>
       <c r="AC18" t="n">
-        <v>1256588</v>
+        <v>1257594</v>
       </c>
     </row>
     <row r="19">
@@ -2215,7 +2215,7 @@
         <v>468203</v>
       </c>
       <c r="AC19" t="n">
-        <v>468878</v>
+        <v>469678</v>
       </c>
     </row>
     <row r="20">
@@ -2306,7 +2306,7 @@
         <v>3001715</v>
       </c>
       <c r="AC20" t="n">
-        <v>3002170</v>
+        <v>3002617</v>
       </c>
     </row>
     <row r="21">
@@ -2397,7 +2397,7 @@
         <v>1358141</v>
       </c>
       <c r="AC21" t="n">
-        <v>1367541</v>
+        <v>1379276</v>
       </c>
     </row>
     <row r="22">
@@ -2488,7 +2488,7 @@
         <v>207836</v>
       </c>
       <c r="AC22" t="n">
-        <v>208145</v>
+        <v>208409</v>
       </c>
     </row>
     <row r="23">
@@ -2579,7 +2579,7 @@
         <v>8732450</v>
       </c>
       <c r="AC23" t="n">
-        <v>8734338</v>
+        <v>8737583</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -668,7 +668,7 @@
         <v>711005</v>
       </c>
       <c r="AC2" t="n">
-        <v>710790</v>
+        <v>711356</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +759,7 @@
         <v>613187</v>
       </c>
       <c r="AC3" t="n">
-        <v>614004</v>
+        <v>615901</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
         <v>1309670</v>
       </c>
       <c r="AC4" t="n">
-        <v>1312910</v>
+        <v>1324168</v>
       </c>
     </row>
     <row r="5">
@@ -941,7 +941,7 @@
         <v>310808</v>
       </c>
       <c r="AC5" t="n">
-        <v>312401</v>
+        <v>317553</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>3993453</v>
       </c>
       <c r="AC6" t="n">
-        <v>4005130</v>
+        <v>4012569</v>
       </c>
     </row>
     <row r="7">
@@ -1123,7 +1123,7 @@
         <v>1317289</v>
       </c>
       <c r="AC7" t="n">
-        <v>1317968</v>
+        <v>1319324</v>
       </c>
     </row>
     <row r="8">
@@ -1214,7 +1214,7 @@
         <v>10697384</v>
       </c>
       <c r="AC8" t="n">
-        <v>10701500</v>
+        <v>10704213</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>1952884</v>
       </c>
       <c r="AC9" t="n">
-        <v>1958305</v>
+        <v>1963723</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1396,7 @@
         <v>248967</v>
       </c>
       <c r="AC10" t="n">
-        <v>249298</v>
+        <v>250833</v>
       </c>
     </row>
     <row r="11">
@@ -1487,7 +1487,7 @@
         <v>392961</v>
       </c>
       <c r="AC11" t="n">
-        <v>412636</v>
+        <v>411861</v>
       </c>
     </row>
     <row r="12">
@@ -1578,7 +1578,7 @@
         <v>1087230</v>
       </c>
       <c r="AC12" t="n">
-        <v>1098891</v>
+        <v>1109373</v>
       </c>
     </row>
     <row r="13">
@@ -1669,7 +1669,7 @@
         <v>336583</v>
       </c>
       <c r="AC13" t="n">
-        <v>339302</v>
+        <v>342428</v>
       </c>
     </row>
     <row r="14">
@@ -1760,7 +1760,7 @@
         <v>652294</v>
       </c>
       <c r="AC14" t="n">
-        <v>653944</v>
+        <v>656042</v>
       </c>
     </row>
     <row r="15">
@@ -1851,7 +1851,7 @@
         <v>7900622</v>
       </c>
       <c r="AC15" t="n">
-        <v>7896592</v>
+        <v>7896612</v>
       </c>
     </row>
     <row r="16">
@@ -1942,7 +1942,7 @@
         <v>1252050</v>
       </c>
       <c r="AC16" t="n">
-        <v>1252872</v>
+        <v>1254109</v>
       </c>
     </row>
     <row r="17">
@@ -2033,7 +2033,7 @@
         <v>343526</v>
       </c>
       <c r="AC17" t="n">
-        <v>347140</v>
+        <v>350489</v>
       </c>
     </row>
     <row r="18">
@@ -2124,7 +2124,7 @@
         <v>1255336</v>
       </c>
       <c r="AC18" t="n">
-        <v>1257594</v>
+        <v>1260126</v>
       </c>
     </row>
     <row r="19">
@@ -2215,7 +2215,7 @@
         <v>468203</v>
       </c>
       <c r="AC19" t="n">
-        <v>469678</v>
+        <v>472054</v>
       </c>
     </row>
     <row r="20">
@@ -2306,7 +2306,7 @@
         <v>3001715</v>
       </c>
       <c r="AC20" t="n">
-        <v>3002617</v>
+        <v>3004418</v>
       </c>
     </row>
     <row r="21">
@@ -2397,7 +2397,7 @@
         <v>1358141</v>
       </c>
       <c r="AC21" t="n">
-        <v>1379276</v>
+        <v>1396578</v>
       </c>
     </row>
     <row r="22">
@@ -2488,7 +2488,7 @@
         <v>207836</v>
       </c>
       <c r="AC22" t="n">
-        <v>208409</v>
+        <v>282277</v>
       </c>
     </row>
     <row r="23">
@@ -2579,7 +2579,7 @@
         <v>8732450</v>
       </c>
       <c r="AC23" t="n">
-        <v>8737583</v>
+        <v>8742471</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,11 @@
           <t>2023-02-17</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +675,9 @@
       <c r="AC2" t="n">
         <v>711356</v>
       </c>
+      <c r="AD2" t="n">
+        <v>713042</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -761,6 +769,9 @@
       <c r="AC3" t="n">
         <v>615901</v>
       </c>
+      <c r="AD3" t="n">
+        <v>619681</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -852,6 +863,9 @@
       <c r="AC4" t="n">
         <v>1324168</v>
       </c>
+      <c r="AD4" t="n">
+        <v>1334400</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -943,6 +957,9 @@
       <c r="AC5" t="n">
         <v>317553</v>
       </c>
+      <c r="AD5" t="n">
+        <v>329768</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1034,6 +1051,9 @@
       <c r="AC6" t="n">
         <v>4012569</v>
       </c>
+      <c r="AD6" t="n">
+        <v>4024766</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1125,6 +1145,9 @@
       <c r="AC7" t="n">
         <v>1319324</v>
       </c>
+      <c r="AD7" t="n">
+        <v>1320589</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1239,9 @@
       <c r="AC8" t="n">
         <v>10704213</v>
       </c>
+      <c r="AD8" t="n">
+        <v>10712336</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1307,6 +1333,9 @@
       <c r="AC9" t="n">
         <v>1963723</v>
       </c>
+      <c r="AD9" t="n">
+        <v>1972500</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1398,6 +1427,9 @@
       <c r="AC10" t="n">
         <v>250833</v>
       </c>
+      <c r="AD10" t="n">
+        <v>260051</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1489,6 +1521,9 @@
       <c r="AC11" t="n">
         <v>411861</v>
       </c>
+      <c r="AD11" t="n">
+        <v>400609</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1580,6 +1615,9 @@
       <c r="AC12" t="n">
         <v>1109373</v>
       </c>
+      <c r="AD12" t="n">
+        <v>1128353</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1671,6 +1709,9 @@
       <c r="AC13" t="n">
         <v>342428</v>
       </c>
+      <c r="AD13" t="n">
+        <v>346974</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1762,6 +1803,9 @@
       <c r="AC14" t="n">
         <v>656042</v>
       </c>
+      <c r="AD14" t="n">
+        <v>659085</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1853,6 +1897,9 @@
       <c r="AC15" t="n">
         <v>7896612</v>
       </c>
+      <c r="AD15" t="n">
+        <v>7893273</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1944,6 +1991,9 @@
       <c r="AC16" t="n">
         <v>1254109</v>
       </c>
+      <c r="AD16" t="n">
+        <v>1254201</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2035,6 +2085,9 @@
       <c r="AC17" t="n">
         <v>350489</v>
       </c>
+      <c r="AD17" t="n">
+        <v>357781</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2126,6 +2179,9 @@
       <c r="AC18" t="n">
         <v>1260126</v>
       </c>
+      <c r="AD18" t="n">
+        <v>1264835</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2217,6 +2273,9 @@
       <c r="AC19" t="n">
         <v>472054</v>
       </c>
+      <c r="AD19" t="n">
+        <v>476564</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2308,6 +2367,9 @@
       <c r="AC20" t="n">
         <v>3004418</v>
       </c>
+      <c r="AD20" t="n">
+        <v>3007786</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2399,6 +2461,9 @@
       <c r="AC21" t="n">
         <v>1396578</v>
       </c>
+      <c r="AD21" t="n">
+        <v>1426169</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2490,6 +2555,9 @@
       <c r="AC22" t="n">
         <v>282277</v>
       </c>
+      <c r="AD22" t="n">
+        <v>342698</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2580,6 +2648,9 @@
       </c>
       <c r="AC23" t="n">
         <v>8742471</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>8750425</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +584,11 @@
           <t>2023-02-18</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -678,6 +683,9 @@
       <c r="AD2" t="n">
         <v>713042</v>
       </c>
+      <c r="AE2" t="n">
+        <v>713272</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -772,6 +780,9 @@
       <c r="AD3" t="n">
         <v>619681</v>
       </c>
+      <c r="AE3" t="n">
+        <v>667436</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -866,6 +877,9 @@
       <c r="AD4" t="n">
         <v>1334400</v>
       </c>
+      <c r="AE4" t="n">
+        <v>1348399</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -960,6 +974,9 @@
       <c r="AD5" t="n">
         <v>329768</v>
       </c>
+      <c r="AE5" t="n">
+        <v>338684</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1054,6 +1071,9 @@
       <c r="AD6" t="n">
         <v>4024766</v>
       </c>
+      <c r="AE6" t="n">
+        <v>4035547</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1148,6 +1168,9 @@
       <c r="AD7" t="n">
         <v>1320589</v>
       </c>
+      <c r="AE7" t="n">
+        <v>1321543</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1242,6 +1265,9 @@
       <c r="AD8" t="n">
         <v>10712336</v>
       </c>
+      <c r="AE8" t="n">
+        <v>10716380</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1336,6 +1362,9 @@
       <c r="AD9" t="n">
         <v>1972500</v>
       </c>
+      <c r="AE9" t="n">
+        <v>1994811</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1430,6 +1459,9 @@
       <c r="AD10" t="n">
         <v>260051</v>
       </c>
+      <c r="AE10" t="n">
+        <v>265091</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1524,6 +1556,9 @@
       <c r="AD11" t="n">
         <v>400609</v>
       </c>
+      <c r="AE11" t="n">
+        <v>401355</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1618,6 +1653,9 @@
       <c r="AD12" t="n">
         <v>1128353</v>
       </c>
+      <c r="AE12" t="n">
+        <v>1152218</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1712,6 +1750,9 @@
       <c r="AD13" t="n">
         <v>346974</v>
       </c>
+      <c r="AE13" t="n">
+        <v>350820</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1806,6 +1847,9 @@
       <c r="AD14" t="n">
         <v>659085</v>
       </c>
+      <c r="AE14" t="n">
+        <v>661325</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1900,6 +1944,9 @@
       <c r="AD15" t="n">
         <v>7893273</v>
       </c>
+      <c r="AE15" t="n">
+        <v>7892476</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1994,6 +2041,9 @@
       <c r="AD16" t="n">
         <v>1254201</v>
       </c>
+      <c r="AE16" t="n">
+        <v>1255893</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2088,6 +2138,9 @@
       <c r="AD17" t="n">
         <v>357781</v>
       </c>
+      <c r="AE17" t="n">
+        <v>366869</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2182,6 +2235,9 @@
       <c r="AD18" t="n">
         <v>1264835</v>
       </c>
+      <c r="AE18" t="n">
+        <v>1270500</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2276,6 +2332,9 @@
       <c r="AD19" t="n">
         <v>476564</v>
       </c>
+      <c r="AE19" t="n">
+        <v>480911</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2370,6 +2429,9 @@
       <c r="AD20" t="n">
         <v>3007786</v>
       </c>
+      <c r="AE20" t="n">
+        <v>3011040</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2464,6 +2526,9 @@
       <c r="AD21" t="n">
         <v>1426169</v>
       </c>
+      <c r="AE21" t="n">
+        <v>1460826</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2558,6 +2623,9 @@
       <c r="AD22" t="n">
         <v>342698</v>
       </c>
+      <c r="AE22" t="n">
+        <v>367157</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2651,6 +2719,9 @@
       </c>
       <c r="AD23" t="n">
         <v>8750425</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>8760050</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,11 @@
           <t>2023-02-19</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -686,6 +691,9 @@
       <c r="AE2" t="n">
         <v>713272</v>
       </c>
+      <c r="AF2" t="n">
+        <v>713354</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -783,6 +791,9 @@
       <c r="AE3" t="n">
         <v>667436</v>
       </c>
+      <c r="AF3" t="n">
+        <v>671028</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -880,6 +891,9 @@
       <c r="AE4" t="n">
         <v>1348399</v>
       </c>
+      <c r="AF4" t="n">
+        <v>1355378</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -977,6 +991,9 @@
       <c r="AE5" t="n">
         <v>338684</v>
       </c>
+      <c r="AF5" t="n">
+        <v>342122</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1091,9 @@
       <c r="AE6" t="n">
         <v>4035547</v>
       </c>
+      <c r="AF6" t="n">
+        <v>4039818</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1171,6 +1191,9 @@
       <c r="AE7" t="n">
         <v>1321543</v>
       </c>
+      <c r="AF7" t="n">
+        <v>1321459</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1268,6 +1291,9 @@
       <c r="AE8" t="n">
         <v>10716380</v>
       </c>
+      <c r="AF8" t="n">
+        <v>10724288</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1365,6 +1391,9 @@
       <c r="AE9" t="n">
         <v>1994811</v>
       </c>
+      <c r="AF9" t="n">
+        <v>2012948</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1462,6 +1491,9 @@
       <c r="AE10" t="n">
         <v>265091</v>
       </c>
+      <c r="AF10" t="n">
+        <v>268646</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1559,6 +1591,9 @@
       <c r="AE11" t="n">
         <v>401355</v>
       </c>
+      <c r="AF11" t="n">
+        <v>409092</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1656,6 +1691,9 @@
       <c r="AE12" t="n">
         <v>1152218</v>
       </c>
+      <c r="AF12" t="n">
+        <v>1161652</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1753,6 +1791,9 @@
       <c r="AE13" t="n">
         <v>350820</v>
       </c>
+      <c r="AF13" t="n">
+        <v>353239</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1850,6 +1891,9 @@
       <c r="AE14" t="n">
         <v>661325</v>
       </c>
+      <c r="AF14" t="n">
+        <v>662773</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1947,6 +1991,9 @@
       <c r="AE15" t="n">
         <v>7892476</v>
       </c>
+      <c r="AF15" t="n">
+        <v>7892576</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2044,6 +2091,9 @@
       <c r="AE16" t="n">
         <v>1255893</v>
       </c>
+      <c r="AF16" t="n">
+        <v>1256035</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2141,6 +2191,9 @@
       <c r="AE17" t="n">
         <v>366869</v>
       </c>
+      <c r="AF17" t="n">
+        <v>374560</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2238,6 +2291,9 @@
       <c r="AE18" t="n">
         <v>1270500</v>
       </c>
+      <c r="AF18" t="n">
+        <v>1272608</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2335,6 +2391,9 @@
       <c r="AE19" t="n">
         <v>480911</v>
       </c>
+      <c r="AF19" t="n">
+        <v>482593</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2432,6 +2491,9 @@
       <c r="AE20" t="n">
         <v>3011040</v>
       </c>
+      <c r="AF20" t="n">
+        <v>3012319</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2529,6 +2591,9 @@
       <c r="AE21" t="n">
         <v>1460826</v>
       </c>
+      <c r="AF21" t="n">
+        <v>1475652</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2626,6 +2691,9 @@
       <c r="AE22" t="n">
         <v>367157</v>
       </c>
+      <c r="AF22" t="n">
+        <v>373383</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2722,6 +2790,9 @@
       </c>
       <c r="AE23" t="n">
         <v>8760050</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>8765009</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -692,7 +692,7 @@
         <v>713272</v>
       </c>
       <c r="AF2" t="n">
-        <v>713354</v>
+        <v>713672</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +792,7 @@
         <v>667436</v>
       </c>
       <c r="AF3" t="n">
-        <v>671028</v>
+        <v>671305</v>
       </c>
     </row>
     <row r="4">
@@ -892,7 +892,7 @@
         <v>1348399</v>
       </c>
       <c r="AF4" t="n">
-        <v>1355378</v>
+        <v>1359397</v>
       </c>
     </row>
     <row r="5">
@@ -992,7 +992,7 @@
         <v>338684</v>
       </c>
       <c r="AF5" t="n">
-        <v>342122</v>
+        <v>343661</v>
       </c>
     </row>
     <row r="6">
@@ -1092,7 +1092,7 @@
         <v>4035547</v>
       </c>
       <c r="AF6" t="n">
-        <v>4039818</v>
+        <v>4041927</v>
       </c>
     </row>
     <row r="7">
@@ -1192,7 +1192,7 @@
         <v>1321543</v>
       </c>
       <c r="AF7" t="n">
-        <v>1321459</v>
+        <v>1321040</v>
       </c>
     </row>
     <row r="8">
@@ -1292,7 +1292,7 @@
         <v>10716380</v>
       </c>
       <c r="AF8" t="n">
-        <v>10724288</v>
+        <v>10724135</v>
       </c>
     </row>
     <row r="9">
@@ -1392,7 +1392,7 @@
         <v>1994811</v>
       </c>
       <c r="AF9" t="n">
-        <v>2012948</v>
+        <v>2019454</v>
       </c>
     </row>
     <row r="10">
@@ -1492,7 +1492,7 @@
         <v>265091</v>
       </c>
       <c r="AF10" t="n">
-        <v>268646</v>
+        <v>270050</v>
       </c>
     </row>
     <row r="11">
@@ -1592,7 +1592,7 @@
         <v>401355</v>
       </c>
       <c r="AF11" t="n">
-        <v>409092</v>
+        <v>402681</v>
       </c>
     </row>
     <row r="12">
@@ -1692,7 +1692,7 @@
         <v>1152218</v>
       </c>
       <c r="AF12" t="n">
-        <v>1161652</v>
+        <v>1167658</v>
       </c>
     </row>
     <row r="13">
@@ -1792,7 +1792,7 @@
         <v>350820</v>
       </c>
       <c r="AF13" t="n">
-        <v>353239</v>
+        <v>354301</v>
       </c>
     </row>
     <row r="14">
@@ -1892,7 +1892,7 @@
         <v>661325</v>
       </c>
       <c r="AF14" t="n">
-        <v>662773</v>
+        <v>664363</v>
       </c>
     </row>
     <row r="15">
@@ -1992,7 +1992,7 @@
         <v>7892476</v>
       </c>
       <c r="AF15" t="n">
-        <v>7892576</v>
+        <v>7827029</v>
       </c>
     </row>
     <row r="16">
@@ -2092,7 +2092,7 @@
         <v>1255893</v>
       </c>
       <c r="AF16" t="n">
-        <v>1256035</v>
+        <v>1256543</v>
       </c>
     </row>
     <row r="17">
@@ -2192,7 +2192,7 @@
         <v>366869</v>
       </c>
       <c r="AF17" t="n">
-        <v>374560</v>
+        <v>377285</v>
       </c>
     </row>
     <row r="18">
@@ -2292,7 +2292,7 @@
         <v>1270500</v>
       </c>
       <c r="AF18" t="n">
-        <v>1272608</v>
+        <v>1274006</v>
       </c>
     </row>
     <row r="19">
@@ -2392,7 +2392,7 @@
         <v>480911</v>
       </c>
       <c r="AF19" t="n">
-        <v>482593</v>
+        <v>483667</v>
       </c>
     </row>
     <row r="20">
@@ -2492,7 +2492,7 @@
         <v>3011040</v>
       </c>
       <c r="AF20" t="n">
-        <v>3012319</v>
+        <v>3012530</v>
       </c>
     </row>
     <row r="21">
@@ -2592,7 +2592,7 @@
         <v>1460826</v>
       </c>
       <c r="AF21" t="n">
-        <v>1475652</v>
+        <v>1486675</v>
       </c>
     </row>
     <row r="22">
@@ -2692,7 +2692,7 @@
         <v>367157</v>
       </c>
       <c r="AF22" t="n">
-        <v>373383</v>
+        <v>376481</v>
       </c>
     </row>
     <row r="23">
@@ -2792,7 +2792,7 @@
         <v>8760050</v>
       </c>
       <c r="AF23" t="n">
-        <v>8765009</v>
+        <v>8767343</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF23"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +594,11 @@
           <t>2023-02-20</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +699,9 @@
       <c r="AF2" t="n">
         <v>713672</v>
       </c>
+      <c r="AG2" t="n">
+        <v>714720</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -794,6 +802,9 @@
       <c r="AF3" t="n">
         <v>671305</v>
       </c>
+      <c r="AG3" t="n">
+        <v>674404</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -894,6 +905,9 @@
       <c r="AF4" t="n">
         <v>1359397</v>
       </c>
+      <c r="AG4" t="n">
+        <v>1365013</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -994,6 +1008,9 @@
       <c r="AF5" t="n">
         <v>343661</v>
       </c>
+      <c r="AG5" t="n">
+        <v>345946</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1094,6 +1111,9 @@
       <c r="AF6" t="n">
         <v>4041927</v>
       </c>
+      <c r="AG6" t="n">
+        <v>4046754</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1194,6 +1214,9 @@
       <c r="AF7" t="n">
         <v>1321040</v>
       </c>
+      <c r="AG7" t="n">
+        <v>1319683</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1294,6 +1317,9 @@
       <c r="AF8" t="n">
         <v>10724135</v>
       </c>
+      <c r="AG8" t="n">
+        <v>10730217</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1394,6 +1420,9 @@
       <c r="AF9" t="n">
         <v>2019454</v>
       </c>
+      <c r="AG9" t="n">
+        <v>2027854</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1494,6 +1523,9 @@
       <c r="AF10" t="n">
         <v>270050</v>
       </c>
+      <c r="AG10" t="n">
+        <v>271925</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1594,6 +1626,9 @@
       <c r="AF11" t="n">
         <v>402681</v>
       </c>
+      <c r="AG11" t="n">
+        <v>410051</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1694,6 +1729,9 @@
       <c r="AF12" t="n">
         <v>1167658</v>
       </c>
+      <c r="AG12" t="n">
+        <v>1177258</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1794,6 +1832,9 @@
       <c r="AF13" t="n">
         <v>354301</v>
       </c>
+      <c r="AG13" t="n">
+        <v>356973</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1894,6 +1935,9 @@
       <c r="AF14" t="n">
         <v>664363</v>
       </c>
+      <c r="AG14" t="n">
+        <v>671194</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1994,6 +2038,9 @@
       <c r="AF15" t="n">
         <v>7827029</v>
       </c>
+      <c r="AG15" t="n">
+        <v>7789848</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2094,6 +2141,9 @@
       <c r="AF16" t="n">
         <v>1256543</v>
       </c>
+      <c r="AG16" t="n">
+        <v>1256734</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2194,6 +2244,9 @@
       <c r="AF17" t="n">
         <v>377285</v>
       </c>
+      <c r="AG17" t="n">
+        <v>381285</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2294,6 +2347,9 @@
       <c r="AF18" t="n">
         <v>1274006</v>
       </c>
+      <c r="AG18" t="n">
+        <v>1276019</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2394,6 +2450,9 @@
       <c r="AF19" t="n">
         <v>483667</v>
       </c>
+      <c r="AG19" t="n">
+        <v>485642</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2494,6 +2553,9 @@
       <c r="AF20" t="n">
         <v>3012530</v>
       </c>
+      <c r="AG20" t="n">
+        <v>3014200</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2594,6 +2656,9 @@
       <c r="AF21" t="n">
         <v>1486675</v>
       </c>
+      <c r="AG21" t="n">
+        <v>1503879</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2694,6 +2759,9 @@
       <c r="AF22" t="n">
         <v>376481</v>
       </c>
+      <c r="AG22" t="n">
+        <v>382048</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2793,6 +2861,9 @@
       </c>
       <c r="AF23" t="n">
         <v>8767343</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8771322</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,11 @@
           <t>2023-02-21</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -702,6 +707,9 @@
       <c r="AG2" t="n">
         <v>714720</v>
       </c>
+      <c r="AH2" t="n">
+        <v>713343</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -805,6 +813,9 @@
       <c r="AG3" t="n">
         <v>674404</v>
       </c>
+      <c r="AH3" t="n">
+        <v>675809</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +919,9 @@
       <c r="AG4" t="n">
         <v>1365013</v>
       </c>
+      <c r="AH4" t="n">
+        <v>1370404</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1011,6 +1025,9 @@
       <c r="AG5" t="n">
         <v>345946</v>
       </c>
+      <c r="AH5" t="n">
+        <v>349381</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1114,6 +1131,9 @@
       <c r="AG6" t="n">
         <v>4046754</v>
       </c>
+      <c r="AH6" t="n">
+        <v>4051221</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1217,6 +1237,9 @@
       <c r="AG7" t="n">
         <v>1319683</v>
       </c>
+      <c r="AH7" t="n">
+        <v>1317835</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1320,6 +1343,9 @@
       <c r="AG8" t="n">
         <v>10730217</v>
       </c>
+      <c r="AH8" t="n">
+        <v>10730092</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1423,6 +1449,9 @@
       <c r="AG9" t="n">
         <v>2027854</v>
       </c>
+      <c r="AH9" t="n">
+        <v>2036627</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1526,6 +1555,9 @@
       <c r="AG10" t="n">
         <v>271925</v>
       </c>
+      <c r="AH10" t="n">
+        <v>275412</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1629,6 +1661,9 @@
       <c r="AG11" t="n">
         <v>410051</v>
       </c>
+      <c r="AH11" t="n">
+        <v>408940</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1732,6 +1767,9 @@
       <c r="AG12" t="n">
         <v>1177258</v>
       </c>
+      <c r="AH12" t="n">
+        <v>1191379</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1835,6 +1873,9 @@
       <c r="AG13" t="n">
         <v>356973</v>
       </c>
+      <c r="AH13" t="n">
+        <v>359758</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1938,6 +1979,9 @@
       <c r="AG14" t="n">
         <v>671194</v>
       </c>
+      <c r="AH14" t="n">
+        <v>677173</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2041,6 +2085,9 @@
       <c r="AG15" t="n">
         <v>7789848</v>
       </c>
+      <c r="AH15" t="n">
+        <v>7717069</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2144,6 +2191,9 @@
       <c r="AG16" t="n">
         <v>1256734</v>
       </c>
+      <c r="AH16" t="n">
+        <v>1256908</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2247,6 +2297,9 @@
       <c r="AG17" t="n">
         <v>381285</v>
       </c>
+      <c r="AH17" t="n">
+        <v>416262</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2350,6 +2403,9 @@
       <c r="AG18" t="n">
         <v>1276019</v>
       </c>
+      <c r="AH18" t="n">
+        <v>1278996</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2453,6 +2509,9 @@
       <c r="AG19" t="n">
         <v>485642</v>
       </c>
+      <c r="AH19" t="n">
+        <v>487319</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2556,6 +2615,9 @@
       <c r="AG20" t="n">
         <v>3014200</v>
       </c>
+      <c r="AH20" t="n">
+        <v>3015303</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2659,6 +2721,9 @@
       <c r="AG21" t="n">
         <v>1503879</v>
       </c>
+      <c r="AH21" t="n">
+        <v>1528355</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2762,6 +2827,9 @@
       <c r="AG22" t="n">
         <v>382048</v>
       </c>
+      <c r="AH22" t="n">
+        <v>386361</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2864,6 +2932,9 @@
       </c>
       <c r="AG23" t="n">
         <v>8771322</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8788253</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -708,7 +708,7 @@
         <v>714720</v>
       </c>
       <c r="AH2" t="n">
-        <v>713343</v>
+        <v>713304</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>674404</v>
       </c>
       <c r="AH3" t="n">
-        <v>675809</v>
+        <v>704777</v>
       </c>
     </row>
     <row r="4">
@@ -920,7 +920,7 @@
         <v>1365013</v>
       </c>
       <c r="AH4" t="n">
-        <v>1370404</v>
+        <v>1372111</v>
       </c>
     </row>
     <row r="5">
@@ -1026,7 +1026,7 @@
         <v>345946</v>
       </c>
       <c r="AH5" t="n">
-        <v>349381</v>
+        <v>350420</v>
       </c>
     </row>
     <row r="6">
@@ -1132,7 +1132,7 @@
         <v>4046754</v>
       </c>
       <c r="AH6" t="n">
-        <v>4051221</v>
+        <v>4054247</v>
       </c>
     </row>
     <row r="7">
@@ -1238,7 +1238,7 @@
         <v>1319683</v>
       </c>
       <c r="AH7" t="n">
-        <v>1317835</v>
+        <v>1317224</v>
       </c>
     </row>
     <row r="8">
@@ -1344,7 +1344,7 @@
         <v>10730217</v>
       </c>
       <c r="AH8" t="n">
-        <v>10730092</v>
+        <v>10731249</v>
       </c>
     </row>
     <row r="9">
@@ -1450,7 +1450,7 @@
         <v>2027854</v>
       </c>
       <c r="AH9" t="n">
-        <v>2036627</v>
+        <v>2039790</v>
       </c>
     </row>
     <row r="10">
@@ -1556,7 +1556,7 @@
         <v>271925</v>
       </c>
       <c r="AH10" t="n">
-        <v>275412</v>
+        <v>276948</v>
       </c>
     </row>
     <row r="11">
@@ -1662,7 +1662,7 @@
         <v>410051</v>
       </c>
       <c r="AH11" t="n">
-        <v>408940</v>
+        <v>409284</v>
       </c>
     </row>
     <row r="12">
@@ -1768,7 +1768,7 @@
         <v>1177258</v>
       </c>
       <c r="AH12" t="n">
-        <v>1191379</v>
+        <v>1196262</v>
       </c>
     </row>
     <row r="13">
@@ -1874,7 +1874,7 @@
         <v>356973</v>
       </c>
       <c r="AH13" t="n">
-        <v>359758</v>
+        <v>360753</v>
       </c>
     </row>
     <row r="14">
@@ -1980,7 +1980,7 @@
         <v>671194</v>
       </c>
       <c r="AH14" t="n">
-        <v>677173</v>
+        <v>678557</v>
       </c>
     </row>
     <row r="15">
@@ -2086,7 +2086,7 @@
         <v>7789848</v>
       </c>
       <c r="AH15" t="n">
-        <v>7717069</v>
+        <v>7692693</v>
       </c>
     </row>
     <row r="16">
@@ -2192,7 +2192,7 @@
         <v>1256734</v>
       </c>
       <c r="AH16" t="n">
-        <v>1256908</v>
+        <v>1257305</v>
       </c>
     </row>
     <row r="17">
@@ -2298,7 +2298,7 @@
         <v>381285</v>
       </c>
       <c r="AH17" t="n">
-        <v>416262</v>
+        <v>441077</v>
       </c>
     </row>
     <row r="18">
@@ -2404,7 +2404,7 @@
         <v>1276019</v>
       </c>
       <c r="AH18" t="n">
-        <v>1278996</v>
+        <v>1280083</v>
       </c>
     </row>
     <row r="19">
@@ -2510,7 +2510,7 @@
         <v>485642</v>
       </c>
       <c r="AH19" t="n">
-        <v>487319</v>
+        <v>488163</v>
       </c>
     </row>
     <row r="20">
@@ -2616,7 +2616,7 @@
         <v>3014200</v>
       </c>
       <c r="AH20" t="n">
-        <v>3015303</v>
+        <v>3016315</v>
       </c>
     </row>
     <row r="21">
@@ -2722,7 +2722,7 @@
         <v>1503879</v>
       </c>
       <c r="AH21" t="n">
-        <v>1528355</v>
+        <v>1536808</v>
       </c>
     </row>
     <row r="22">
@@ -2828,7 +2828,7 @@
         <v>382048</v>
       </c>
       <c r="AH22" t="n">
-        <v>386361</v>
+        <v>388587</v>
       </c>
     </row>
     <row r="23">
@@ -2934,7 +2934,7 @@
         <v>8771322</v>
       </c>
       <c r="AH23" t="n">
-        <v>8788253</v>
+        <v>8802255</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +604,11 @@
           <t>2023-02-22</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -710,6 +715,9 @@
       <c r="AH2" t="n">
         <v>713304</v>
       </c>
+      <c r="AI2" t="n">
+        <v>713925</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +824,9 @@
       <c r="AH3" t="n">
         <v>704777</v>
       </c>
+      <c r="AI3" t="n">
+        <v>798937</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -922,6 +933,9 @@
       <c r="AH4" t="n">
         <v>1372111</v>
       </c>
+      <c r="AI4" t="n">
+        <v>1380053</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1028,6 +1042,9 @@
       <c r="AH5" t="n">
         <v>350420</v>
       </c>
+      <c r="AI5" t="n">
+        <v>358552</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1134,6 +1151,9 @@
       <c r="AH6" t="n">
         <v>4054247</v>
       </c>
+      <c r="AI6" t="n">
+        <v>4073031</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1240,6 +1260,9 @@
       <c r="AH7" t="n">
         <v>1317224</v>
       </c>
+      <c r="AI7" t="n">
+        <v>1312883</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1346,6 +1369,9 @@
       <c r="AH8" t="n">
         <v>10731249</v>
       </c>
+      <c r="AI8" t="n">
+        <v>10752484</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1452,6 +1478,9 @@
       <c r="AH9" t="n">
         <v>2039790</v>
       </c>
+      <c r="AI9" t="n">
+        <v>2054124</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1558,6 +1587,9 @@
       <c r="AH10" t="n">
         <v>276948</v>
       </c>
+      <c r="AI10" t="n">
+        <v>282109</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1664,6 +1696,9 @@
       <c r="AH11" t="n">
         <v>409284</v>
       </c>
+      <c r="AI11" t="n">
+        <v>411541</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1770,6 +1805,9 @@
       <c r="AH12" t="n">
         <v>1196262</v>
       </c>
+      <c r="AI12" t="n">
+        <v>1219318</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1876,6 +1914,9 @@
       <c r="AH13" t="n">
         <v>360753</v>
       </c>
+      <c r="AI13" t="n">
+        <v>364196</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1982,6 +2023,9 @@
       <c r="AH14" t="n">
         <v>678557</v>
       </c>
+      <c r="AI14" t="n">
+        <v>686910</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2088,6 +2132,9 @@
       <c r="AH15" t="n">
         <v>7692693</v>
       </c>
+      <c r="AI15" t="n">
+        <v>7684807</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2194,6 +2241,9 @@
       <c r="AH16" t="n">
         <v>1257305</v>
       </c>
+      <c r="AI16" t="n">
+        <v>1258445</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2300,6 +2350,9 @@
       <c r="AH17" t="n">
         <v>441077</v>
       </c>
+      <c r="AI17" t="n">
+        <v>454195</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2406,6 +2459,9 @@
       <c r="AH18" t="n">
         <v>1280083</v>
       </c>
+      <c r="AI18" t="n">
+        <v>1285346</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2512,6 +2568,9 @@
       <c r="AH19" t="n">
         <v>488163</v>
       </c>
+      <c r="AI19" t="n">
+        <v>491078</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2618,6 +2677,9 @@
       <c r="AH20" t="n">
         <v>3016315</v>
       </c>
+      <c r="AI20" t="n">
+        <v>3022349</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2724,6 +2786,9 @@
       <c r="AH21" t="n">
         <v>1536808</v>
       </c>
+      <c r="AI21" t="n">
+        <v>1578638</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2830,6 +2895,9 @@
       <c r="AH22" t="n">
         <v>388587</v>
       </c>
+      <c r="AI22" t="n">
+        <v>394227</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2935,6 +3003,9 @@
       </c>
       <c r="AH23" t="n">
         <v>8802255</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>8836483</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,11 @@
           <t>2023-02-23</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -718,6 +723,9 @@
       <c r="AI2" t="n">
         <v>713925</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>715981</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -827,6 +835,9 @@
       <c r="AI3" t="n">
         <v>798937</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>815442</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -936,6 +947,9 @@
       <c r="AI4" t="n">
         <v>1380053</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>1387547</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1045,6 +1059,9 @@
       <c r="AI5" t="n">
         <v>358552</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>362479</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1154,6 +1171,9 @@
       <c r="AI6" t="n">
         <v>4073031</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>4094362</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1263,6 +1283,9 @@
       <c r="AI7" t="n">
         <v>1312883</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>1301565</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1372,6 +1395,9 @@
       <c r="AI8" t="n">
         <v>10752484</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>10796744</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1481,6 +1507,9 @@
       <c r="AI9" t="n">
         <v>2054124</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>2063934</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1590,6 +1619,9 @@
       <c r="AI10" t="n">
         <v>282109</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>287212</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1699,6 +1731,9 @@
       <c r="AI11" t="n">
         <v>411541</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>416352</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1808,6 +1843,9 @@
       <c r="AI12" t="n">
         <v>1219318</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>1254668</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1917,6 +1955,9 @@
       <c r="AI13" t="n">
         <v>364196</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>371545</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2026,6 +2067,9 @@
       <c r="AI14" t="n">
         <v>686910</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>697626</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2135,6 +2179,9 @@
       <c r="AI15" t="n">
         <v>7684807</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>7662263</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2244,6 +2291,9 @@
       <c r="AI16" t="n">
         <v>1258445</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>1260914</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2353,6 +2403,9 @@
       <c r="AI17" t="n">
         <v>454195</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>458304</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2462,6 +2515,9 @@
       <c r="AI18" t="n">
         <v>1285346</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>1291544</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2571,6 +2627,9 @@
       <c r="AI19" t="n">
         <v>491078</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>493502</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2680,6 +2739,9 @@
       <c r="AI20" t="n">
         <v>3022349</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>3031096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2789,6 +2851,9 @@
       <c r="AI21" t="n">
         <v>1578638</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>1607848</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2898,6 +2963,9 @@
       <c r="AI22" t="n">
         <v>394227</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>397784</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3006,6 +3074,9 @@
       </c>
       <c r="AI23" t="n">
         <v>8836483</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>8968368</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,6 +614,11 @@
           <t>2023-02-24</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -726,6 +731,9 @@
       <c r="AJ2" t="n">
         <v>715981</v>
       </c>
+      <c r="AK2" t="n">
+        <v>714830</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -838,6 +846,9 @@
       <c r="AJ3" t="n">
         <v>815442</v>
       </c>
+      <c r="AK3" t="n">
+        <v>816107</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -950,6 +961,9 @@
       <c r="AJ4" t="n">
         <v>1387547</v>
       </c>
+      <c r="AK4" t="n">
+        <v>1394641</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1062,6 +1076,9 @@
       <c r="AJ5" t="n">
         <v>362479</v>
       </c>
+      <c r="AK5" t="n">
+        <v>367040</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1174,6 +1191,9 @@
       <c r="AJ6" t="n">
         <v>4094362</v>
       </c>
+      <c r="AK6" t="n">
+        <v>4106921</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1306,9 @@
       <c r="AJ7" t="n">
         <v>1301565</v>
       </c>
+      <c r="AK7" t="n">
+        <v>1301958</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1398,6 +1421,9 @@
       <c r="AJ8" t="n">
         <v>10796744</v>
       </c>
+      <c r="AK8" t="n">
+        <v>10816465</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1510,6 +1536,9 @@
       <c r="AJ9" t="n">
         <v>2063934</v>
       </c>
+      <c r="AK9" t="n">
+        <v>2073538</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1651,9 @@
       <c r="AJ10" t="n">
         <v>287212</v>
       </c>
+      <c r="AK10" t="n">
+        <v>290667</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1734,6 +1766,9 @@
       <c r="AJ11" t="n">
         <v>416352</v>
       </c>
+      <c r="AK11" t="n">
+        <v>417990</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1846,6 +1881,9 @@
       <c r="AJ12" t="n">
         <v>1254668</v>
       </c>
+      <c r="AK12" t="n">
+        <v>1278574</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1958,6 +1996,9 @@
       <c r="AJ13" t="n">
         <v>371545</v>
       </c>
+      <c r="AK13" t="n">
+        <v>376022</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2070,6 +2111,9 @@
       <c r="AJ14" t="n">
         <v>697626</v>
       </c>
+      <c r="AK14" t="n">
+        <v>712084</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2182,6 +2226,9 @@
       <c r="AJ15" t="n">
         <v>7662263</v>
       </c>
+      <c r="AK15" t="n">
+        <v>7656091</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2294,6 +2341,9 @@
       <c r="AJ16" t="n">
         <v>1260914</v>
       </c>
+      <c r="AK16" t="n">
+        <v>1263780</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2406,6 +2456,9 @@
       <c r="AJ17" t="n">
         <v>458304</v>
       </c>
+      <c r="AK17" t="n">
+        <v>452138</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2518,6 +2571,9 @@
       <c r="AJ18" t="n">
         <v>1291544</v>
       </c>
+      <c r="AK18" t="n">
+        <v>1293008</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2630,6 +2686,9 @@
       <c r="AJ19" t="n">
         <v>493502</v>
       </c>
+      <c r="AK19" t="n">
+        <v>495795</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2742,6 +2801,9 @@
       <c r="AJ20" t="n">
         <v>3031096</v>
       </c>
+      <c r="AK20" t="n">
+        <v>3029690</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2854,6 +2916,9 @@
       <c r="AJ21" t="n">
         <v>1607848</v>
       </c>
+      <c r="AK21" t="n">
+        <v>1634824</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2966,6 +3031,9 @@
       <c r="AJ22" t="n">
         <v>397784</v>
       </c>
+      <c r="AK22" t="n">
+        <v>401224</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3077,6 +3145,9 @@
       </c>
       <c r="AJ23" t="n">
         <v>8968368</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>9036643</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,6 +619,11 @@
           <t>2023-02-25</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -734,6 +739,9 @@
       <c r="AK2" t="n">
         <v>714830</v>
       </c>
+      <c r="AL2" t="n">
+        <v>713125</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -849,6 +857,9 @@
       <c r="AK3" t="n">
         <v>816107</v>
       </c>
+      <c r="AL3" t="n">
+        <v>821547</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -964,6 +975,9 @@
       <c r="AK4" t="n">
         <v>1394641</v>
       </c>
+      <c r="AL4" t="n">
+        <v>1398506</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1079,6 +1093,9 @@
       <c r="AK5" t="n">
         <v>367040</v>
       </c>
+      <c r="AL5" t="n">
+        <v>372570</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1194,6 +1211,9 @@
       <c r="AK6" t="n">
         <v>4106921</v>
       </c>
+      <c r="AL6" t="n">
+        <v>4117164</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1309,6 +1329,9 @@
       <c r="AK7" t="n">
         <v>1301958</v>
       </c>
+      <c r="AL7" t="n">
+        <v>1364733</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1424,6 +1447,9 @@
       <c r="AK8" t="n">
         <v>10816465</v>
       </c>
+      <c r="AL8" t="n">
+        <v>10806951</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1539,6 +1565,9 @@
       <c r="AK9" t="n">
         <v>2073538</v>
       </c>
+      <c r="AL9" t="n">
+        <v>2082385</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1654,6 +1683,9 @@
       <c r="AK10" t="n">
         <v>290667</v>
       </c>
+      <c r="AL10" t="n">
+        <v>294504</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1769,6 +1801,9 @@
       <c r="AK11" t="n">
         <v>417990</v>
       </c>
+      <c r="AL11" t="n">
+        <v>421443</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1884,6 +1919,9 @@
       <c r="AK12" t="n">
         <v>1278574</v>
       </c>
+      <c r="AL12" t="n">
+        <v>1310176</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1999,6 +2037,9 @@
       <c r="AK13" t="n">
         <v>376022</v>
       </c>
+      <c r="AL13" t="n">
+        <v>381428</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2114,6 +2155,9 @@
       <c r="AK14" t="n">
         <v>712084</v>
       </c>
+      <c r="AL14" t="n">
+        <v>722677</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2229,6 +2273,9 @@
       <c r="AK15" t="n">
         <v>7656091</v>
       </c>
+      <c r="AL15" t="n">
+        <v>7654513</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2344,6 +2391,9 @@
       <c r="AK16" t="n">
         <v>1263780</v>
       </c>
+      <c r="AL16" t="n">
+        <v>1262463</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2459,6 +2509,9 @@
       <c r="AK17" t="n">
         <v>452138</v>
       </c>
+      <c r="AL17" t="n">
+        <v>461238</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2574,6 +2627,9 @@
       <c r="AK18" t="n">
         <v>1293008</v>
       </c>
+      <c r="AL18" t="n">
+        <v>1297889</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2689,6 +2745,9 @@
       <c r="AK19" t="n">
         <v>495795</v>
       </c>
+      <c r="AL19" t="n">
+        <v>497485</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2804,6 +2863,9 @@
       <c r="AK20" t="n">
         <v>3029690</v>
       </c>
+      <c r="AL20" t="n">
+        <v>3037066</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2919,6 +2981,9 @@
       <c r="AK21" t="n">
         <v>1634824</v>
       </c>
+      <c r="AL21" t="n">
+        <v>1662040</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3034,6 +3099,9 @@
       <c r="AK22" t="n">
         <v>401224</v>
       </c>
+      <c r="AL22" t="n">
+        <v>403262</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3148,6 +3216,9 @@
       </c>
       <c r="AK23" t="n">
         <v>9036643</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>9174930</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,6 +624,11 @@
           <t>2023-02-26</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -742,6 +747,9 @@
       <c r="AL2" t="n">
         <v>713125</v>
       </c>
+      <c r="AM2" t="n">
+        <v>714987</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -860,6 +868,9 @@
       <c r="AL3" t="n">
         <v>821547</v>
       </c>
+      <c r="AM3" t="n">
+        <v>832933</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -978,6 +989,9 @@
       <c r="AL4" t="n">
         <v>1398506</v>
       </c>
+      <c r="AM4" t="n">
+        <v>1409678</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1096,6 +1110,9 @@
       <c r="AL5" t="n">
         <v>372570</v>
       </c>
+      <c r="AM5" t="n">
+        <v>377742</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1214,6 +1231,9 @@
       <c r="AL6" t="n">
         <v>4117164</v>
       </c>
+      <c r="AM6" t="n">
+        <v>4148126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1332,6 +1352,9 @@
       <c r="AL7" t="n">
         <v>1364733</v>
       </c>
+      <c r="AM7" t="n">
+        <v>1400298</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1450,6 +1473,9 @@
       <c r="AL8" t="n">
         <v>10806951</v>
       </c>
+      <c r="AM8" t="n">
+        <v>10851444</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1568,6 +1594,9 @@
       <c r="AL9" t="n">
         <v>2082385</v>
       </c>
+      <c r="AM9" t="n">
+        <v>2094451</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1686,6 +1715,9 @@
       <c r="AL10" t="n">
         <v>294504</v>
       </c>
+      <c r="AM10" t="n">
+        <v>299208</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1804,6 +1836,9 @@
       <c r="AL11" t="n">
         <v>421443</v>
       </c>
+      <c r="AM11" t="n">
+        <v>425841</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1922,6 +1957,9 @@
       <c r="AL12" t="n">
         <v>1310176</v>
       </c>
+      <c r="AM12" t="n">
+        <v>1349920</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2040,6 +2078,9 @@
       <c r="AL13" t="n">
         <v>381428</v>
       </c>
+      <c r="AM13" t="n">
+        <v>386039</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2158,6 +2199,9 @@
       <c r="AL14" t="n">
         <v>722677</v>
       </c>
+      <c r="AM14" t="n">
+        <v>736617</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2276,6 +2320,9 @@
       <c r="AL15" t="n">
         <v>7654513</v>
       </c>
+      <c r="AM15" t="n">
+        <v>7669327</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2394,6 +2441,9 @@
       <c r="AL16" t="n">
         <v>1262463</v>
       </c>
+      <c r="AM16" t="n">
+        <v>1264359</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2512,6 +2562,9 @@
       <c r="AL17" t="n">
         <v>461238</v>
       </c>
+      <c r="AM17" t="n">
+        <v>468966</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2630,6 +2683,9 @@
       <c r="AL18" t="n">
         <v>1297889</v>
       </c>
+      <c r="AM18" t="n">
+        <v>1302803</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2748,6 +2804,9 @@
       <c r="AL19" t="n">
         <v>497485</v>
       </c>
+      <c r="AM19" t="n">
+        <v>500409</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2866,6 +2925,9 @@
       <c r="AL20" t="n">
         <v>3037066</v>
       </c>
+      <c r="AM20" t="n">
+        <v>3047817</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2984,6 +3046,9 @@
       <c r="AL21" t="n">
         <v>1662040</v>
       </c>
+      <c r="AM21" t="n">
+        <v>1696016</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3102,6 +3167,9 @@
       <c r="AL22" t="n">
         <v>403262</v>
       </c>
+      <c r="AM22" t="n">
+        <v>406955</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3219,6 +3287,9 @@
       </c>
       <c r="AL23" t="n">
         <v>9174930</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>9245017</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,11 @@
           <t>2023-02-27</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -750,6 +755,9 @@
       <c r="AM2" t="n">
         <v>714987</v>
       </c>
+      <c r="AN2" t="n">
+        <v>714953</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -871,6 +879,9 @@
       <c r="AM3" t="n">
         <v>832933</v>
       </c>
+      <c r="AN3" t="n">
+        <v>832812</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1003,9 @@
       <c r="AM4" t="n">
         <v>1409678</v>
       </c>
+      <c r="AN4" t="n">
+        <v>1411836</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1113,6 +1127,9 @@
       <c r="AM5" t="n">
         <v>377742</v>
       </c>
+      <c r="AN5" t="n">
+        <v>378471</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1234,6 +1251,9 @@
       <c r="AM6" t="n">
         <v>4148126</v>
       </c>
+      <c r="AN6" t="n">
+        <v>4151427</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1355,6 +1375,9 @@
       <c r="AM7" t="n">
         <v>1400298</v>
       </c>
+      <c r="AN7" t="n">
+        <v>1402867</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1476,6 +1499,9 @@
       <c r="AM8" t="n">
         <v>10851444</v>
       </c>
+      <c r="AN8" t="n">
+        <v>10854039</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1597,6 +1623,9 @@
       <c r="AM9" t="n">
         <v>2094451</v>
       </c>
+      <c r="AN9" t="n">
+        <v>2097222</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1718,6 +1747,9 @@
       <c r="AM10" t="n">
         <v>299208</v>
       </c>
+      <c r="AN10" t="n">
+        <v>299889</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1839,6 +1871,9 @@
       <c r="AM11" t="n">
         <v>425841</v>
       </c>
+      <c r="AN11" t="n">
+        <v>427153</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1960,6 +1995,9 @@
       <c r="AM12" t="n">
         <v>1349920</v>
       </c>
+      <c r="AN12" t="n">
+        <v>1356014</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2081,6 +2119,9 @@
       <c r="AM13" t="n">
         <v>386039</v>
       </c>
+      <c r="AN13" t="n">
+        <v>386873</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2202,6 +2243,9 @@
       <c r="AM14" t="n">
         <v>736617</v>
       </c>
+      <c r="AN14" t="n">
+        <v>738745</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2323,6 +2367,9 @@
       <c r="AM15" t="n">
         <v>7669327</v>
       </c>
+      <c r="AN15" t="n">
+        <v>7669744</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2444,6 +2491,9 @@
       <c r="AM16" t="n">
         <v>1264359</v>
       </c>
+      <c r="AN16" t="n">
+        <v>1264614</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2565,6 +2615,9 @@
       <c r="AM17" t="n">
         <v>468966</v>
       </c>
+      <c r="AN17" t="n">
+        <v>469957</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2686,6 +2739,9 @@
       <c r="AM18" t="n">
         <v>1302803</v>
       </c>
+      <c r="AN18" t="n">
+        <v>1303756</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2807,6 +2863,9 @@
       <c r="AM19" t="n">
         <v>500409</v>
       </c>
+      <c r="AN19" t="n">
+        <v>500637</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2928,6 +2987,9 @@
       <c r="AM20" t="n">
         <v>3047817</v>
       </c>
+      <c r="AN20" t="n">
+        <v>3048622</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3049,6 +3111,9 @@
       <c r="AM21" t="n">
         <v>1696016</v>
       </c>
+      <c r="AN21" t="n">
+        <v>1701066</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3170,6 +3235,9 @@
       <c r="AM22" t="n">
         <v>406955</v>
       </c>
+      <c r="AN22" t="n">
+        <v>407757</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3290,6 +3358,9 @@
       </c>
       <c r="AM23" t="n">
         <v>9245017</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>9256229</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -756,7 +756,7 @@
         <v>714987</v>
       </c>
       <c r="AN2" t="n">
-        <v>714953</v>
+        <v>715191</v>
       </c>
     </row>
     <row r="3">
@@ -880,7 +880,7 @@
         <v>832933</v>
       </c>
       <c r="AN3" t="n">
-        <v>832812</v>
+        <v>863973</v>
       </c>
     </row>
     <row r="4">
@@ -1004,7 +1004,7 @@
         <v>1409678</v>
       </c>
       <c r="AN4" t="n">
-        <v>1411836</v>
+        <v>1418534</v>
       </c>
     </row>
     <row r="5">
@@ -1128,7 +1128,7 @@
         <v>377742</v>
       </c>
       <c r="AN5" t="n">
-        <v>378471</v>
+        <v>383300</v>
       </c>
     </row>
     <row r="6">
@@ -1252,7 +1252,7 @@
         <v>4148126</v>
       </c>
       <c r="AN6" t="n">
-        <v>4151427</v>
+        <v>4161909</v>
       </c>
     </row>
     <row r="7">
@@ -1376,7 +1376,7 @@
         <v>1400298</v>
       </c>
       <c r="AN7" t="n">
-        <v>1402867</v>
+        <v>1418447</v>
       </c>
     </row>
     <row r="8">
@@ -1500,7 +1500,7 @@
         <v>10851444</v>
       </c>
       <c r="AN8" t="n">
-        <v>10854039</v>
+        <v>10862005</v>
       </c>
     </row>
     <row r="9">
@@ -1624,7 +1624,7 @@
         <v>2094451</v>
       </c>
       <c r="AN9" t="n">
-        <v>2097222</v>
+        <v>2107733</v>
       </c>
     </row>
     <row r="10">
@@ -1748,7 +1748,7 @@
         <v>299208</v>
       </c>
       <c r="AN10" t="n">
-        <v>299889</v>
+        <v>304795</v>
       </c>
     </row>
     <row r="11">
@@ -1872,7 +1872,7 @@
         <v>425841</v>
       </c>
       <c r="AN11" t="n">
-        <v>427153</v>
+        <v>429978</v>
       </c>
     </row>
     <row r="12">
@@ -1996,7 +1996,7 @@
         <v>1349920</v>
       </c>
       <c r="AN12" t="n">
-        <v>1356014</v>
+        <v>1381576</v>
       </c>
     </row>
     <row r="13">
@@ -2120,7 +2120,7 @@
         <v>386039</v>
       </c>
       <c r="AN13" t="n">
-        <v>386873</v>
+        <v>390403</v>
       </c>
     </row>
     <row r="14">
@@ -2244,7 +2244,7 @@
         <v>736617</v>
       </c>
       <c r="AN14" t="n">
-        <v>738745</v>
+        <v>760362</v>
       </c>
     </row>
     <row r="15">
@@ -2368,7 +2368,7 @@
         <v>7669327</v>
       </c>
       <c r="AN15" t="n">
-        <v>7669744</v>
+        <v>7673511</v>
       </c>
     </row>
     <row r="16">
@@ -2492,7 +2492,7 @@
         <v>1264359</v>
       </c>
       <c r="AN16" t="n">
-        <v>1264614</v>
+        <v>1266316</v>
       </c>
     </row>
     <row r="17">
@@ -2616,7 +2616,7 @@
         <v>468966</v>
       </c>
       <c r="AN17" t="n">
-        <v>469957</v>
+        <v>475503</v>
       </c>
     </row>
     <row r="18">
@@ -2740,7 +2740,7 @@
         <v>1302803</v>
       </c>
       <c r="AN18" t="n">
-        <v>1303756</v>
+        <v>1307107</v>
       </c>
     </row>
     <row r="19">
@@ -2864,7 +2864,7 @@
         <v>500409</v>
       </c>
       <c r="AN19" t="n">
-        <v>500637</v>
+        <v>502459</v>
       </c>
     </row>
     <row r="20">
@@ -2988,7 +2988,7 @@
         <v>3047817</v>
       </c>
       <c r="AN20" t="n">
-        <v>3048622</v>
+        <v>3052707</v>
       </c>
     </row>
     <row r="21">
@@ -3112,7 +3112,7 @@
         <v>1696016</v>
       </c>
       <c r="AN21" t="n">
-        <v>1701066</v>
+        <v>1724546</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>406955</v>
       </c>
       <c r="AN22" t="n">
-        <v>407757</v>
+        <v>410016</v>
       </c>
     </row>
     <row r="23">
@@ -3360,7 +3360,7 @@
         <v>9245017</v>
       </c>
       <c r="AN23" t="n">
-        <v>9256229</v>
+        <v>9283040</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN23"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +634,11 @@
           <t>2023-02-28</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -758,6 +763,9 @@
       <c r="AN2" t="n">
         <v>715191</v>
       </c>
+      <c r="AO2" t="n">
+        <v>715430</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -882,6 +890,9 @@
       <c r="AN3" t="n">
         <v>863973</v>
       </c>
+      <c r="AO3" t="n">
+        <v>890212</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1006,6 +1017,9 @@
       <c r="AN4" t="n">
         <v>1418534</v>
       </c>
+      <c r="AO4" t="n">
+        <v>1423634</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1130,6 +1144,9 @@
       <c r="AN5" t="n">
         <v>383300</v>
       </c>
+      <c r="AO5" t="n">
+        <v>387753</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1271,9 @@
       <c r="AN6" t="n">
         <v>4161909</v>
       </c>
+      <c r="AO6" t="n">
+        <v>4168330</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1378,6 +1398,9 @@
       <c r="AN7" t="n">
         <v>1418447</v>
       </c>
+      <c r="AO7" t="n">
+        <v>1425283</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1502,6 +1525,9 @@
       <c r="AN8" t="n">
         <v>10862005</v>
       </c>
+      <c r="AO8" t="n">
+        <v>10867602</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1626,6 +1652,9 @@
       <c r="AN9" t="n">
         <v>2107733</v>
       </c>
+      <c r="AO9" t="n">
+        <v>2114587</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1750,6 +1779,9 @@
       <c r="AN10" t="n">
         <v>304795</v>
       </c>
+      <c r="AO10" t="n">
+        <v>308699</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1874,6 +1906,9 @@
       <c r="AN11" t="n">
         <v>429978</v>
       </c>
+      <c r="AO11" t="n">
+        <v>434895</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1998,6 +2033,9 @@
       <c r="AN12" t="n">
         <v>1381576</v>
       </c>
+      <c r="AO12" t="n">
+        <v>1406951</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2122,6 +2160,9 @@
       <c r="AN13" t="n">
         <v>390403</v>
       </c>
+      <c r="AO13" t="n">
+        <v>394128</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2246,6 +2287,9 @@
       <c r="AN14" t="n">
         <v>760362</v>
       </c>
+      <c r="AO14" t="n">
+        <v>859748</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2370,6 +2414,9 @@
       <c r="AN15" t="n">
         <v>7673511</v>
       </c>
+      <c r="AO15" t="n">
+        <v>7674376</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2494,6 +2541,9 @@
       <c r="AN16" t="n">
         <v>1266316</v>
       </c>
+      <c r="AO16" t="n">
+        <v>1267195</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2618,6 +2668,9 @@
       <c r="AN17" t="n">
         <v>475503</v>
       </c>
+      <c r="AO17" t="n">
+        <v>483413</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2742,6 +2795,9 @@
       <c r="AN18" t="n">
         <v>1307107</v>
       </c>
+      <c r="AO18" t="n">
+        <v>1310491</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2866,6 +2922,9 @@
       <c r="AN19" t="n">
         <v>502459</v>
       </c>
+      <c r="AO19" t="n">
+        <v>504143</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2990,6 +3049,9 @@
       <c r="AN20" t="n">
         <v>3052707</v>
       </c>
+      <c r="AO20" t="n">
+        <v>3057674</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3114,6 +3176,9 @@
       <c r="AN21" t="n">
         <v>1724546</v>
       </c>
+      <c r="AO21" t="n">
+        <v>1738058</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3238,6 +3303,9 @@
       <c r="AN22" t="n">
         <v>410016</v>
       </c>
+      <c r="AO22" t="n">
+        <v>411641</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3361,6 +3429,9 @@
       </c>
       <c r="AN23" t="n">
         <v>9283040</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>9294468</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AP23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,11 @@
           <t>2023-03-01</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -766,6 +771,9 @@
       <c r="AO2" t="n">
         <v>715430</v>
       </c>
+      <c r="AP2" t="n">
+        <v>715768</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -893,6 +901,9 @@
       <c r="AO3" t="n">
         <v>890212</v>
       </c>
+      <c r="AP3" t="n">
+        <v>900037</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1020,6 +1031,9 @@
       <c r="AO4" t="n">
         <v>1423634</v>
       </c>
+      <c r="AP4" t="n">
+        <v>1431906</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1147,6 +1161,9 @@
       <c r="AO5" t="n">
         <v>387753</v>
       </c>
+      <c r="AP5" t="n">
+        <v>394034</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1274,6 +1291,9 @@
       <c r="AO6" t="n">
         <v>4168330</v>
       </c>
+      <c r="AP6" t="n">
+        <v>4180708</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1401,6 +1421,9 @@
       <c r="AO7" t="n">
         <v>1425283</v>
       </c>
+      <c r="AP7" t="n">
+        <v>1438258</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1551,9 @@
       <c r="AO8" t="n">
         <v>10867602</v>
       </c>
+      <c r="AP8" t="n">
+        <v>10875240</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1655,6 +1681,9 @@
       <c r="AO9" t="n">
         <v>2114587</v>
       </c>
+      <c r="AP9" t="n">
+        <v>2123347</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1782,6 +1811,9 @@
       <c r="AO10" t="n">
         <v>308699</v>
       </c>
+      <c r="AP10" t="n">
+        <v>313197</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1909,6 +1941,9 @@
       <c r="AO11" t="n">
         <v>434895</v>
       </c>
+      <c r="AP11" t="n">
+        <v>436529</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2036,6 +2071,9 @@
       <c r="AO12" t="n">
         <v>1406951</v>
       </c>
+      <c r="AP12" t="n">
+        <v>1426410</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2163,6 +2201,9 @@
       <c r="AO13" t="n">
         <v>394128</v>
       </c>
+      <c r="AP13" t="n">
+        <v>398504</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2290,6 +2331,9 @@
       <c r="AO14" t="n">
         <v>859748</v>
       </c>
+      <c r="AP14" t="n">
+        <v>937389</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2417,6 +2461,9 @@
       <c r="AO15" t="n">
         <v>7674376</v>
       </c>
+      <c r="AP15" t="n">
+        <v>7676252</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2544,6 +2591,9 @@
       <c r="AO16" t="n">
         <v>1267195</v>
       </c>
+      <c r="AP16" t="n">
+        <v>1269882</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2671,6 +2721,9 @@
       <c r="AO17" t="n">
         <v>483413</v>
       </c>
+      <c r="AP17" t="n">
+        <v>481933</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2798,6 +2851,9 @@
       <c r="AO18" t="n">
         <v>1310491</v>
       </c>
+      <c r="AP18" t="n">
+        <v>1315722</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2925,6 +2981,9 @@
       <c r="AO19" t="n">
         <v>504143</v>
       </c>
+      <c r="AP19" t="n">
+        <v>505856</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3052,6 +3111,9 @@
       <c r="AO20" t="n">
         <v>3057674</v>
       </c>
+      <c r="AP20" t="n">
+        <v>3062589</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3179,6 +3241,9 @@
       <c r="AO21" t="n">
         <v>1738058</v>
       </c>
+      <c r="AP21" t="n">
+        <v>1756725</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3306,6 +3371,9 @@
       <c r="AO22" t="n">
         <v>411641</v>
       </c>
+      <c r="AP22" t="n">
+        <v>413897</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3432,6 +3500,9 @@
       </c>
       <c r="AO23" t="n">
         <v>9294468</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>9321435</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP23"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,6 +644,11 @@
           <t>2023-03-02</t>
         </is>
       </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -774,6 +779,9 @@
       <c r="AP2" t="n">
         <v>715768</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>715493</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -904,6 +912,9 @@
       <c r="AP3" t="n">
         <v>900037</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>913673</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1034,6 +1045,9 @@
       <c r="AP4" t="n">
         <v>1431906</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>1442005</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1164,6 +1178,9 @@
       <c r="AP5" t="n">
         <v>394034</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>399240</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1294,6 +1311,9 @@
       <c r="AP6" t="n">
         <v>4180708</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>4197021</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1424,6 +1444,9 @@
       <c r="AP7" t="n">
         <v>1438258</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>1452202</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1554,6 +1577,9 @@
       <c r="AP8" t="n">
         <v>10875240</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>10888325</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1684,6 +1710,9 @@
       <c r="AP9" t="n">
         <v>2123347</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>2135047</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1814,6 +1843,9 @@
       <c r="AP10" t="n">
         <v>313197</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>316648</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1944,6 +1976,9 @@
       <c r="AP11" t="n">
         <v>436529</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>440753</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2074,6 +2109,9 @@
       <c r="AP12" t="n">
         <v>1426410</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>1438832</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2204,6 +2242,9 @@
       <c r="AP13" t="n">
         <v>398504</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>402935</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2334,6 +2375,9 @@
       <c r="AP14" t="n">
         <v>937389</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>988319</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2464,6 +2508,9 @@
       <c r="AP15" t="n">
         <v>7676252</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>7689492</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2594,6 +2641,9 @@
       <c r="AP16" t="n">
         <v>1269882</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>1270678</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2724,6 +2774,9 @@
       <c r="AP17" t="n">
         <v>481933</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>491996</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2854,6 +2907,9 @@
       <c r="AP18" t="n">
         <v>1315722</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>1321098</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2984,6 +3040,9 @@
       <c r="AP19" t="n">
         <v>505856</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>507278</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3114,6 +3173,9 @@
       <c r="AP20" t="n">
         <v>3062589</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>3066680</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3244,6 +3306,9 @@
       <c r="AP21" t="n">
         <v>1756725</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>1775798</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3374,6 +3439,9 @@
       <c r="AP22" t="n">
         <v>413897</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>416998</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3503,6 +3571,9 @@
       </c>
       <c r="AP23" t="n">
         <v>9321435</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>9342010</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ23"/>
+  <dimension ref="A1:AS23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,16 @@
           <t>2023-03-03</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-04</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -782,6 +792,12 @@
       <c r="AQ2" t="n">
         <v>715493</v>
       </c>
+      <c r="AR2" t="n">
+        <v>714498</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>714068</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -915,6 +931,12 @@
       <c r="AQ3" t="n">
         <v>913673</v>
       </c>
+      <c r="AR3" t="n">
+        <v>901120</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>901780</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1048,6 +1070,12 @@
       <c r="AQ4" t="n">
         <v>1442005</v>
       </c>
+      <c r="AR4" t="n">
+        <v>1448837</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1452986</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1181,6 +1209,12 @@
       <c r="AQ5" t="n">
         <v>399240</v>
       </c>
+      <c r="AR5" t="n">
+        <v>402708</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>405385</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1314,6 +1348,12 @@
       <c r="AQ6" t="n">
         <v>4197021</v>
       </c>
+      <c r="AR6" t="n">
+        <v>4208802</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4215050</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1447,6 +1487,12 @@
       <c r="AQ7" t="n">
         <v>1452202</v>
       </c>
+      <c r="AR7" t="n">
+        <v>1459008</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1465616</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1580,6 +1626,12 @@
       <c r="AQ8" t="n">
         <v>10888325</v>
       </c>
+      <c r="AR8" t="n">
+        <v>10903691</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>10907842</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1713,6 +1765,12 @@
       <c r="AQ9" t="n">
         <v>2135047</v>
       </c>
+      <c r="AR9" t="n">
+        <v>2149159</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2158015</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1846,6 +1904,12 @@
       <c r="AQ10" t="n">
         <v>316648</v>
       </c>
+      <c r="AR10" t="n">
+        <v>318842</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>321751</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1979,6 +2043,12 @@
       <c r="AQ11" t="n">
         <v>440753</v>
       </c>
+      <c r="AR11" t="n">
+        <v>446409</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>446492</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2112,6 +2182,12 @@
       <c r="AQ12" t="n">
         <v>1438832</v>
       </c>
+      <c r="AR12" t="n">
+        <v>1446781</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1450866</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2245,6 +2321,12 @@
       <c r="AQ13" t="n">
         <v>402935</v>
       </c>
+      <c r="AR13" t="n">
+        <v>406343</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>407949</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2378,6 +2460,12 @@
       <c r="AQ14" t="n">
         <v>988319</v>
       </c>
+      <c r="AR14" t="n">
+        <v>1021543</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1033984</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2511,6 +2599,12 @@
       <c r="AQ15" t="n">
         <v>7689492</v>
       </c>
+      <c r="AR15" t="n">
+        <v>7698475</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>7700457</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2644,6 +2738,12 @@
       <c r="AQ16" t="n">
         <v>1270678</v>
       </c>
+      <c r="AR16" t="n">
+        <v>1270037</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1269644</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2777,6 +2877,12 @@
       <c r="AQ17" t="n">
         <v>491996</v>
       </c>
+      <c r="AR17" t="n">
+        <v>498846</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>496639</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2910,6 +3016,12 @@
       <c r="AQ18" t="n">
         <v>1321098</v>
       </c>
+      <c r="AR18" t="n">
+        <v>1328049</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1331880</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3043,6 +3155,12 @@
       <c r="AQ19" t="n">
         <v>507278</v>
       </c>
+      <c r="AR19" t="n">
+        <v>508587</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>510317</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3176,6 +3294,12 @@
       <c r="AQ20" t="n">
         <v>3066680</v>
       </c>
+      <c r="AR20" t="n">
+        <v>3069053</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>3070263</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3309,6 +3433,12 @@
       <c r="AQ21" t="n">
         <v>1775798</v>
       </c>
+      <c r="AR21" t="n">
+        <v>1789484</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1798017</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3442,6 +3572,12 @@
       <c r="AQ22" t="n">
         <v>416998</v>
       </c>
+      <c r="AR22" t="n">
+        <v>420393</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>421344</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3574,6 +3710,12 @@
       </c>
       <c r="AQ23" t="n">
         <v>9342010</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>9353966</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>9364656</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:AT23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,6 +659,11 @@
           <t>2023-03-05</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -798,6 +803,9 @@
       <c r="AS2" t="n">
         <v>714068</v>
       </c>
+      <c r="AT2" t="n">
+        <v>713607</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -937,6 +945,9 @@
       <c r="AS3" t="n">
         <v>901780</v>
       </c>
+      <c r="AT3" t="n">
+        <v>895595</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1076,6 +1087,9 @@
       <c r="AS4" t="n">
         <v>1452986</v>
       </c>
+      <c r="AT4" t="n">
+        <v>1457629</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1215,6 +1229,9 @@
       <c r="AS5" t="n">
         <v>405385</v>
       </c>
+      <c r="AT5" t="n">
+        <v>409503</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1354,6 +1371,9 @@
       <c r="AS6" t="n">
         <v>4215050</v>
       </c>
+      <c r="AT6" t="n">
+        <v>4220682</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1493,6 +1513,9 @@
       <c r="AS7" t="n">
         <v>1465616</v>
       </c>
+      <c r="AT7" t="n">
+        <v>1470627</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1632,6 +1655,9 @@
       <c r="AS8" t="n">
         <v>10907842</v>
       </c>
+      <c r="AT8" t="n">
+        <v>10908168</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1771,6 +1797,9 @@
       <c r="AS9" t="n">
         <v>2158015</v>
       </c>
+      <c r="AT9" t="n">
+        <v>2164503</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1910,6 +1939,9 @@
       <c r="AS10" t="n">
         <v>321751</v>
       </c>
+      <c r="AT10" t="n">
+        <v>334352</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2049,6 +2081,9 @@
       <c r="AS11" t="n">
         <v>446492</v>
       </c>
+      <c r="AT11" t="n">
+        <v>450055</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2188,6 +2223,9 @@
       <c r="AS12" t="n">
         <v>1450866</v>
       </c>
+      <c r="AT12" t="n">
+        <v>1455149</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2327,6 +2365,9 @@
       <c r="AS13" t="n">
         <v>407949</v>
       </c>
+      <c r="AT13" t="n">
+        <v>410911</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2466,6 +2507,9 @@
       <c r="AS14" t="n">
         <v>1033984</v>
       </c>
+      <c r="AT14" t="n">
+        <v>1057349</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2605,6 +2649,9 @@
       <c r="AS15" t="n">
         <v>7700457</v>
       </c>
+      <c r="AT15" t="n">
+        <v>7701228</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2744,6 +2791,9 @@
       <c r="AS16" t="n">
         <v>1269644</v>
       </c>
+      <c r="AT16" t="n">
+        <v>1271842</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2883,6 +2933,9 @@
       <c r="AS17" t="n">
         <v>496639</v>
       </c>
+      <c r="AT17" t="n">
+        <v>499305</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3022,6 +3075,9 @@
       <c r="AS18" t="n">
         <v>1331880</v>
       </c>
+      <c r="AT18" t="n">
+        <v>1336468</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3161,6 +3217,9 @@
       <c r="AS19" t="n">
         <v>510317</v>
       </c>
+      <c r="AT19" t="n">
+        <v>511621</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3300,6 +3359,9 @@
       <c r="AS20" t="n">
         <v>3070263</v>
       </c>
+      <c r="AT20" t="n">
+        <v>3072364</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3439,6 +3501,9 @@
       <c r="AS21" t="n">
         <v>1798017</v>
       </c>
+      <c r="AT21" t="n">
+        <v>1807404</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3578,6 +3643,9 @@
       <c r="AS22" t="n">
         <v>421344</v>
       </c>
+      <c r="AT22" t="n">
+        <v>421918</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3716,6 +3784,9 @@
       </c>
       <c r="AS23" t="n">
         <v>9364656</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>9375483</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -1,43 +1,270 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-01-29</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-04</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-11</t>
+  </si>
+  <si>
+    <t>2023-02-12</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-18</t>
+  </si>
+  <si>
+    <t>2023-02-19</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-25</t>
+  </si>
+  <si>
+    <t>2023-02-26</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2023-03-04</t>
+  </si>
+  <si>
+    <t>2023-03-05</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-07</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Aline Wirley</t>
+  </si>
+  <si>
+    <t>Cezar Black</t>
+  </si>
+  <si>
+    <t>Bruna Griphao</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Larissa</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Domitila Barros</t>
+  </si>
+  <si>
+    <t>Antonio ‘Cara de Sapato’ Jr</t>
+  </si>
+  <si>
+    <t>Sarah Aline</t>
+  </si>
+  <si>
+    <t>Fred Nicácio</t>
+  </si>
+  <si>
+    <t>Key Alves</t>
+  </si>
+  <si>
+    <t>Marília</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Marvvila</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Gabriel Santana</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>MC Guimê</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -46,111 +273,117 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -174,80 +407,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -279,20 +454,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -304,7 +475,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -325,16 +496,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,23 +505,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -414,3382 +574,4191 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AT23"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AU23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="47" width="8.85156" style="1" customWidth="1"/>
+    <col min="48" max="16384" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-13</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-23</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-24</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-26</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-27</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-28</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-29</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-30</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-31</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-02</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-03</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-04</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-05</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-06</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-07</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-09</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-10</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-11</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-12</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-18</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-19</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-20</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-22</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-23</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-24</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-25</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-26</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-28</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-02</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-04</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-05</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-06</t>
-        </is>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s" s="4">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3">
         <v>129000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3">
         <v>517771</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3">
         <v>525191</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="3">
         <v>528738</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3">
         <v>534073</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="3">
         <v>537056</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="3">
         <v>542791</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="3">
         <v>544192</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="3">
         <v>551325</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="3">
         <v>602904</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="3">
         <v>714975</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="3">
         <v>706257</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="3">
         <v>705839</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="3">
         <v>709473</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="3">
         <v>709380</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="3">
         <v>710405</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="3">
         <v>709641</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="3">
         <v>711357</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="3">
         <v>711852</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="3">
         <v>712472</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="3">
         <v>712248</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="3">
         <v>711934</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="3">
         <v>711337</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="3">
         <v>710804</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="3">
         <v>711324</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="3">
         <v>711005</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="3">
         <v>711356</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="3">
         <v>713042</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="3">
         <v>713272</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="3">
         <v>713672</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="3">
         <v>714720</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="3">
         <v>713304</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="3">
         <v>713925</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="3">
         <v>715981</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="3">
         <v>714830</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="3">
         <v>713125</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="3">
         <v>714987</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="3">
         <v>715191</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="3">
         <v>715430</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="3">
         <v>715768</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="3">
         <v>715493</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="3">
         <v>714498</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="3">
         <v>714068</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="3">
         <v>713607</v>
       </c>
+      <c r="AU2" s="3">
+        <v>713553</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Paula</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s" s="6">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5">
         <v>61600</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="5">
         <v>583662</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="5">
         <v>574485</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="5">
         <v>576005</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5">
         <v>578455</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="5">
         <v>581277</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="5">
         <v>580020</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="5">
         <v>580215</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="5">
         <v>580975</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="5">
         <v>581447</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="5">
         <v>588798</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="5">
         <v>591258</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="5">
         <v>592511</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="5">
         <v>592925</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="5">
         <v>592873</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="5">
         <v>592483</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="5">
         <v>590866</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="5">
         <v>587285</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="5">
         <v>592246</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="5">
         <v>591977</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="5">
         <v>592324</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="5">
         <v>592073</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="5">
         <v>599427</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="5">
         <v>598994</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="5">
         <v>601187</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="5">
         <v>613187</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="5">
         <v>615901</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="5">
         <v>619681</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="5">
         <v>667436</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="5">
         <v>671305</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="5">
         <v>674404</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="5">
         <v>704777</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="5">
         <v>798937</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="5">
         <v>815442</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="5">
         <v>816107</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="5">
         <v>821547</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="5">
         <v>832933</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="5">
         <v>863973</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="5">
         <v>890212</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="5">
         <v>900037</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="5">
         <v>913673</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="5">
         <v>901120</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="5">
         <v>901780</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="5">
         <v>895595</v>
       </c>
+      <c r="AU3" s="5">
+        <v>316</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Aline Wirley</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5">
         <v>853000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="5">
         <v>1154476</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="5">
         <v>1171498</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5">
         <v>1177577</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5">
         <v>1187481</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="5">
         <v>1196889</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="5">
         <v>1207849</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="5">
         <v>1214407</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="5">
         <v>1220327</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="5">
         <v>1225508</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="5">
         <v>1232892</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="5">
         <v>1241118</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="5">
         <v>1245677</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="5">
         <v>1253297</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="5">
         <v>1255118</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="5">
         <v>1263051</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="5">
         <v>1266719</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="5">
         <v>1271776</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="5">
         <v>1278783</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="5">
         <v>1281561</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="5">
         <v>1286702</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="5">
         <v>1289372</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="5">
         <v>1295862</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="5">
         <v>1299116</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="5">
         <v>1301394</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="5">
         <v>1309670</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="5">
         <v>1324168</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="5">
         <v>1334400</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="5">
         <v>1348399</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="5">
         <v>1359397</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="5">
         <v>1365013</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="5">
         <v>1372111</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="5">
         <v>1380053</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="5">
         <v>1387547</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="5">
         <v>1394641</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="5">
         <v>1398506</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="5">
         <v>1409678</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="5">
         <v>1418534</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="5">
         <v>1423634</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="5">
         <v>1431906</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="5">
         <v>1442005</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="5">
         <v>1448837</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="5">
         <v>1452986</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="5">
         <v>1457629</v>
       </c>
+      <c r="AU4" s="5">
+        <v>1471751</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cezar Black</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5">
         <v>10400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="5">
         <v>214521</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="5">
         <v>231003</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="5">
         <v>236469</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="5">
         <v>242114</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="5">
         <v>246366</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="5">
         <v>251820</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="5">
         <v>256077</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="5">
         <v>260895</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="5">
         <v>263256</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="5">
         <v>268248</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="5">
         <v>272657</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="5">
         <v>275136</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="5">
         <v>277936</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="5">
         <v>278593</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="5">
         <v>281924</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="5">
         <v>282575</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="5">
         <v>284547</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="5">
         <v>286399</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="5">
         <v>290469</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="5">
         <v>291444</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="5">
         <v>291856</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="5">
         <v>294565</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="5">
         <v>301081</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="5">
         <v>302142</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="5">
         <v>310808</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="5">
         <v>317553</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="5">
         <v>329768</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="5">
         <v>338684</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="5">
         <v>343661</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="5">
         <v>345946</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="5">
         <v>350420</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="5">
         <v>358552</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="5">
         <v>362479</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="5">
         <v>367040</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="5">
         <v>372570</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="5">
         <v>377742</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="5">
         <v>383300</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="5">
         <v>387753</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="5">
         <v>394034</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="5">
         <v>399240</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="5">
         <v>402708</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="5">
         <v>405385</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="5">
         <v>409503</v>
       </c>
+      <c r="AU5" s="5">
+        <v>422219</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bruna Griphao</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s" s="6">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5">
         <v>2700000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="5">
         <v>3565299</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="5">
         <v>3596131</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="5">
         <v>3609772</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="5">
         <v>3629895</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="5">
         <v>3650419</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="5">
         <v>3670505</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="5">
         <v>3686190</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="5">
         <v>3699286</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="5">
         <v>3710134</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="5">
         <v>3731407</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="5">
         <v>3753661</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="5">
         <v>3771190</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="5">
         <v>3789167</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="5">
         <v>3793561</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="5">
         <v>3808437</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="5">
         <v>3819378</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="5">
         <v>3828938</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="5">
         <v>3847909</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="5">
         <v>3862497</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="5">
         <v>3884075</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="5">
         <v>3895890</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="5">
         <v>3923780</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="5">
         <v>3935378</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="5">
         <v>3941202</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="5">
         <v>3993453</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="5">
         <v>4012569</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="5">
         <v>4024766</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="5">
         <v>4035547</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="5">
         <v>4041927</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="5">
         <v>4046754</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="5">
         <v>4054247</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="5">
         <v>4073031</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="5">
         <v>4094362</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="5">
         <v>4106921</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="5">
         <v>4117164</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="5">
         <v>4148126</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="5">
         <v>4161909</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="5">
         <v>4168330</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="5">
         <v>4180708</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="5">
         <v>4197021</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="5">
         <v>4208802</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="5">
         <v>4215050</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="5">
         <v>4220682</v>
       </c>
+      <c r="AU6" s="5">
+        <v>4224192</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gustavo</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5">
         <v>252000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="5">
         <v>953586</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="5">
         <v>991588</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="5">
         <v>1017062</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="5">
         <v>1047848</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="5">
         <v>1071210</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="5">
         <v>1098843</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="5">
         <v>1120515</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="5">
         <v>1148099</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="5">
         <v>1160677</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="5">
         <v>1178714</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="5">
         <v>1197122</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="5">
         <v>1241672</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="5">
         <v>1260289</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="5">
         <v>1264564</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="5">
         <v>1279989</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="5">
         <v>1289356</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="5">
         <v>1299888</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" s="5">
         <v>1313993</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7" s="5">
         <v>1319600</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7" s="5">
         <v>1319976</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7" s="5">
         <v>1320920</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7" s="5">
         <v>1316541</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7" s="5">
         <v>1314848</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="5">
         <v>1315605</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="5">
         <v>1317289</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="5">
         <v>1319324</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="5">
         <v>1320589</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="5">
         <v>1321543</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="5">
         <v>1321040</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="5">
         <v>1319683</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="5">
         <v>1317224</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="5">
         <v>1312883</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="5">
         <v>1301565</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="5">
         <v>1301958</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="5">
         <v>1364733</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="5">
         <v>1400298</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="5">
         <v>1418447</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="5">
         <v>1425283</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="5">
         <v>1438258</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="5">
         <v>1452202</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="5">
         <v>1459008</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="5">
         <v>1465616</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="5">
         <v>1470627</v>
       </c>
+      <c r="AU7" s="5">
+        <v>1485252</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fred</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s" s="6">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5">
         <v>9300000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="5">
         <v>10191505</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="5">
         <v>10232234</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="5">
         <v>10247431</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="5">
         <v>10278614</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="5">
         <v>10309471</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="5">
         <v>10362792</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="5">
         <v>10406596</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="5">
         <v>10440067</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="5">
         <v>10468351</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="5">
         <v>10505839</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="5">
         <v>10532159</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="5">
         <v>10550078</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="5">
         <v>10569519</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="5">
         <v>10573170</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="5">
         <v>10598647</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="5">
         <v>10622104</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="5">
         <v>10637786</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" s="5">
         <v>10659314</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8" s="5">
         <v>10667409</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8" s="5">
         <v>10674811</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8" s="5">
         <v>10675710</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8" s="5">
         <v>10685206</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8" s="5">
         <v>10685811</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="5">
         <v>10690091</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="5">
         <v>10697384</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="5">
         <v>10704213</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="5">
         <v>10712336</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="5">
         <v>10716380</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="5">
         <v>10724135</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="5">
         <v>10730217</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="5">
         <v>10731249</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="5">
         <v>10752484</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="5">
         <v>10796744</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="5">
         <v>10816465</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="5">
         <v>10806951</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="5">
         <v>10851444</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="5">
         <v>10862005</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="5">
         <v>10867602</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8" s="5">
         <v>10875240</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8" s="5">
         <v>10888325</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8" s="5">
         <v>10903691</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8" s="5">
         <v>10907842</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8" s="5">
         <v>10908168</v>
       </c>
+      <c r="AU8" s="5">
+        <v>10874858</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Larissa</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5">
         <v>113000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5">
         <v>1232390</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="5">
         <v>1291677</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5">
         <v>1316218</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5">
         <v>1377855</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="5">
         <v>1428076</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="5">
         <v>1502536</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="5">
         <v>1554173</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="5">
         <v>1589294</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="5">
         <v>1618003</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="5">
         <v>1661130</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="5">
         <v>1691773</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="5">
         <v>1710209</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="5">
         <v>1740884</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="5">
         <v>1746488</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="5">
         <v>1766593</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="5">
         <v>1789150</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="5">
         <v>1816081</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="5">
         <v>1863701</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="5">
         <v>1882914</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="5">
         <v>1896359</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="5">
         <v>1902379</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="5">
         <v>1921930</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="5">
         <v>1931265</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="5">
         <v>1935499</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="5">
         <v>1952884</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="5">
         <v>1963723</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="5">
         <v>1972500</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="5">
         <v>1994811</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="5">
         <v>2019454</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="5">
         <v>2027854</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="5">
         <v>2039790</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="5">
         <v>2054124</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="5">
         <v>2063934</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" s="5">
         <v>2073538</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" s="5">
         <v>2082385</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" s="5">
         <v>2094451</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" s="5">
         <v>2107733</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="5">
         <v>2114587</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="5">
         <v>2123347</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="5">
         <v>2135047</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9" s="5">
         <v>2149159</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9" s="5">
         <v>2158015</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9" s="5">
         <v>2164503</v>
       </c>
+      <c r="AU9" s="5">
+        <v>2162019</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ricardo</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5">
         <v>2541</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="5">
         <v>198552</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="5">
         <v>206493</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5">
         <v>209570</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5">
         <v>214887</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="5">
         <v>220371</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="5">
         <v>223909</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="5">
         <v>228821</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="5">
         <v>232725</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="5">
         <v>234343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="5">
         <v>236735</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="5">
         <v>238455</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="5">
         <v>238272</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="5">
         <v>238983</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="5">
         <v>238794</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="5">
         <v>238125</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="5">
         <v>237437</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="5">
         <v>238534</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" s="5">
         <v>240155</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10" s="5">
         <v>240750</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10" s="5">
         <v>241352</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10" s="5">
         <v>241594</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10" s="5">
         <v>243568</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10" s="5">
         <v>244844</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10" s="5">
         <v>246013</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10" s="5">
         <v>248967</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10" s="5">
         <v>250833</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10" s="5">
         <v>260051</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10" s="5">
         <v>265091</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10" s="5">
         <v>270050</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10" s="5">
         <v>271925</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10" s="5">
         <v>276948</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10" s="5">
         <v>282109</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10" s="5">
         <v>287212</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10" s="5">
         <v>290667</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10" s="5">
         <v>294504</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10" s="5">
         <v>299208</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10" s="5">
         <v>304795</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10" s="5">
         <v>308699</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10" s="5">
         <v>313197</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10" s="5">
         <v>316648</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10" s="5">
         <v>318842</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10" s="5">
         <v>321751</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10" s="5">
         <v>334352</v>
       </c>
+      <c r="AU10" s="5">
+        <v>583246</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Domitila Barros</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="C11" s="5">
         <v>214000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="5">
         <v>309931</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="5">
         <v>315388</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="5">
         <v>317308</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5">
         <v>319741</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="5">
         <v>322945</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="5">
         <v>325774</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="5">
         <v>327376</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="5">
         <v>447125</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="5">
         <v>393556</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="5">
         <v>388803</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="5">
         <v>382882</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="5">
         <v>384156</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="5">
         <v>385316</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="5">
         <v>386065</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="5">
         <v>387974</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="5">
         <v>388677</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="5">
         <v>392228</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="5">
         <v>394638</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="5">
         <v>394666</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="5">
         <v>396007</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="5">
         <v>395893</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="5">
         <v>395354</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="5">
         <v>392185</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="5">
         <v>391817</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" s="5">
         <v>392961</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="5">
         <v>411861</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="5">
         <v>400609</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="5">
         <v>401355</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="5">
         <v>402681</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="5">
         <v>410051</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="5">
         <v>409284</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="5">
         <v>411541</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="5">
         <v>416352</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="5">
         <v>417990</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="5">
         <v>421443</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="5">
         <v>425841</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="5">
         <v>429978</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="5">
         <v>434895</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="5">
         <v>436529</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="5">
         <v>440753</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="5">
         <v>446409</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="5">
         <v>446492</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="5">
         <v>450055</v>
       </c>
+      <c r="AU11" s="5">
+        <v>485278</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Antonio ‘Cara de Sapato’ Jr</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5">
         <v>167000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5">
         <v>407478</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5">
         <v>436671</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5">
         <v>448175</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5">
         <v>466757</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="5">
         <v>491573</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="5">
         <v>516648</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="5">
         <v>534738</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="5">
         <v>550781</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="5">
         <v>566122</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="5">
         <v>584647</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="5">
         <v>621983</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="5">
         <v>643134</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="5">
         <v>667507</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="5">
         <v>676452</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="5">
         <v>736233</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="5">
         <v>763295</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="5">
         <v>799447</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="5">
         <v>836501</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="5">
         <v>862165</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="5">
         <v>894442</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="5">
         <v>914864</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="5">
         <v>974306</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="5">
         <v>1002404</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="5">
         <v>1021605</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="5">
         <v>1087230</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="5">
         <v>1109373</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="5">
         <v>1128353</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="5">
         <v>1152218</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="5">
         <v>1167658</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="5">
         <v>1177258</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="5">
         <v>1196262</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="5">
         <v>1219318</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="5">
         <v>1254668</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="5">
         <v>1278574</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="5">
         <v>1310176</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="5">
         <v>1349920</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="5">
         <v>1381576</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="5">
         <v>1406951</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="5">
         <v>1426410</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="5">
         <v>1438832</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="5">
         <v>1446781</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="5">
         <v>1450866</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="5">
         <v>1455149</v>
       </c>
+      <c r="AU12" s="5">
+        <v>1465061</v>
+      </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sarah Aline</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s" s="6">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5">
         <v>10700</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5">
         <v>166064</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="5">
         <v>181527</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="5">
         <v>186740</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5">
         <v>194312</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="5">
         <v>206436</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="5">
         <v>218204</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="5">
         <v>225062</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="5">
         <v>231811</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="5">
         <v>237066</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="5">
         <v>243922</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="5">
         <v>256158</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="5">
         <v>261369</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="5">
         <v>273799</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="5">
         <v>276173</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="5">
         <v>283219</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="5">
         <v>286903</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="5">
         <v>293428</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="5">
         <v>301813</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="5">
         <v>305573</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="5">
         <v>309628</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="5">
         <v>311809</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="5">
         <v>319962</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="5">
         <v>324538</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="5">
         <v>327051</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="5">
         <v>336583</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="5">
         <v>342428</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="5">
         <v>346974</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="5">
         <v>350820</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="5">
         <v>354301</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="5">
         <v>356973</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="5">
         <v>360753</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="5">
         <v>364196</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="5">
         <v>371545</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="5">
         <v>376022</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="5">
         <v>381428</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="5">
         <v>386039</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="5">
         <v>390403</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="5">
         <v>394128</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="5">
         <v>398504</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="5">
         <v>402935</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="5">
         <v>406343</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="5">
         <v>407949</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="5">
         <v>410911</v>
       </c>
+      <c r="AU13" s="5">
+        <v>452784</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Fred Nicácio</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5">
         <v>342000</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="5">
         <v>511058</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="5">
         <v>528127</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="5">
         <v>544503</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5">
         <v>554848</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="5">
         <v>571521</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="5">
         <v>582432</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="5">
         <v>586142</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="5">
         <v>590058</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="5">
         <v>594857</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="5">
         <v>603344</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="5">
         <v>609724</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="5">
         <v>614202</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="5">
         <v>619995</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="5">
         <v>621403</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="5">
         <v>626512</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="5">
         <v>629301</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="5">
         <v>632961</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="5">
         <v>636762</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="5">
         <v>637082</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="5">
         <v>637881</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="5">
         <v>638751</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="5">
         <v>644105</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="5">
         <v>645948</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="5">
         <v>647499</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="5">
         <v>652294</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="5">
         <v>656042</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="5">
         <v>659085</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="5">
         <v>661325</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="5">
         <v>664363</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="5">
         <v>671194</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="5">
         <v>678557</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="5">
         <v>686910</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="5">
         <v>697626</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="5">
         <v>712084</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="5">
         <v>722677</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="5">
         <v>736617</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="5">
         <v>760362</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="5">
         <v>859748</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="5">
         <v>937389</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="5">
         <v>988319</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="5">
         <v>1021543</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="5">
         <v>1033984</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="5">
         <v>1057349</v>
       </c>
+      <c r="AU14" s="5">
+        <v>1093202</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Key Alves</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5">
         <v>7000000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5">
         <v>7656395</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="5">
         <v>7696363</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="5">
         <v>7719232</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5">
         <v>7739270</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="5">
         <v>7753221</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="5">
         <v>7694020</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="5">
         <v>7705006</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="5">
         <v>7727024</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="5">
         <v>7741007</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="5">
         <v>7768419</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="5">
         <v>7838691</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="5">
         <v>7919422</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="5">
         <v>7922786</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="5">
         <v>7913974</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="5">
         <v>7916159</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="5">
         <v>7914749</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="5">
         <v>7916466</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="5">
         <v>7920702</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="5">
         <v>7919131</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="5">
         <v>7919433</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="5">
         <v>7917721</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="5">
         <v>7905862</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="5">
         <v>7905834</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="5">
         <v>7903903</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="5">
         <v>7900622</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="5">
         <v>7896612</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="5">
         <v>7893273</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="5">
         <v>7892476</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="5">
         <v>7827029</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="5">
         <v>7789848</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="5">
         <v>7692693</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="5">
         <v>7684807</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="5">
         <v>7662263</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="5">
         <v>7656091</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="5">
         <v>7654513</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="5">
         <v>7669327</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="5">
         <v>7673511</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="5">
         <v>7674376</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="5">
         <v>7676252</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="5">
         <v>7689492</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="5">
         <v>7698475</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="5">
         <v>7700457</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="5">
         <v>7701228</v>
       </c>
+      <c r="AU15" s="5">
+        <v>7708961</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Marília</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s" s="6">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5">
         <v>797000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="5">
         <v>1053148</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="5">
         <v>1074407</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="5">
         <v>1089861</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5">
         <v>1105375</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="5">
         <v>1137312</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="5">
         <v>1191073</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="5">
         <v>1199787</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="5">
         <v>1203668</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="5">
         <v>1206697</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="5">
         <v>1216417</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="5">
         <v>1225914</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="5">
         <v>1228911</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="5">
         <v>1229107</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="5">
         <v>1229662</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="5">
         <v>1231947</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" s="5">
         <v>1231939</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="5">
         <v>1234851</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" s="5">
         <v>1243908</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16" s="5">
         <v>1246090</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16" s="5">
         <v>1248044</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16" s="5">
         <v>1248741</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16" s="5">
         <v>1248860</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16" s="5">
         <v>1249957</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="5">
         <v>1249221</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="5">
         <v>1252050</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="5">
         <v>1254109</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="5">
         <v>1254201</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="5">
         <v>1255893</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="5">
         <v>1256543</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="5">
         <v>1256734</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="5">
         <v>1257305</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="5">
         <v>1258445</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="5">
         <v>1260914</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="5">
         <v>1263780</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="5">
         <v>1262463</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="5">
         <v>1264359</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="5">
         <v>1266316</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="5">
         <v>1267195</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="5">
         <v>1269882</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="5">
         <v>1270678</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="5">
         <v>1270037</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="5">
         <v>1269644</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="5">
         <v>1271842</v>
       </c>
+      <c r="AU16" s="5">
+        <v>1270425</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Cristian</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s" s="6">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5">
         <v>6855</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="5">
         <v>92682</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="5">
         <v>98043</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="5">
         <v>100840</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="5">
         <v>112523</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="5">
         <v>117808</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="5">
         <v>123775</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="5">
         <v>128001</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="5">
         <v>135488</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="5">
         <v>138169</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="5">
         <v>144020</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="5">
         <v>148791</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="5">
         <v>157611</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="5">
         <v>171614</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="5">
         <v>174592</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="5">
         <v>186222</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="5">
         <v>213942</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="5">
         <v>275591</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" s="5">
         <v>272903</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17" s="5">
         <v>274260</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17" s="5">
         <v>276798</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17" s="5">
         <v>278376</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17" s="5">
         <v>315890</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17" s="5">
         <v>329510</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="5">
         <v>333668</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="5">
         <v>343526</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="5">
         <v>350489</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="5">
         <v>357781</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="5">
         <v>366869</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="5">
         <v>377285</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="5">
         <v>381285</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="5">
         <v>441077</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="5">
         <v>454195</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="5">
         <v>458304</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="5">
         <v>452138</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="5">
         <v>461238</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="5">
         <v>468966</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="5">
         <v>475503</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="5">
         <v>483413</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="5">
         <v>481933</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="5">
         <v>491996</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="5">
         <v>498846</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="5">
         <v>496639</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="5">
         <v>499305</v>
       </c>
+      <c r="AU17" s="5">
+        <v>504538</v>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Marvvila</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="C18" s="5">
         <v>654000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="5">
         <v>870969</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5">
         <v>905118</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="5">
         <v>915868</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5">
         <v>934313</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="5">
         <v>955542</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="5">
         <v>979016</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="5">
         <v>998288</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="5">
         <v>1021044</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="5">
         <v>1045084</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="5">
         <v>1065411</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="5">
         <v>1093432</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="5">
         <v>1105761</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="5">
         <v>1126343</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="5">
         <v>1131182</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="5">
         <v>1147801</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="5">
         <v>1161202</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="5">
         <v>1175381</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" s="5">
         <v>1196827</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" s="5">
         <v>1208042</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18" s="5">
         <v>1220493</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18" s="5">
         <v>1225399</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18" s="5">
         <v>1237944</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18" s="5">
         <v>1243542</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="5">
         <v>1246319</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="5">
         <v>1255336</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="5">
         <v>1260126</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="5">
         <v>1264835</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="5">
         <v>1270500</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="5">
         <v>1274006</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="5">
         <v>1276019</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="5">
         <v>1280083</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="5">
         <v>1285346</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="5">
         <v>1291544</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="5">
         <v>1293008</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="5">
         <v>1297889</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="5">
         <v>1302803</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="5">
         <v>1307107</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="5">
         <v>1310491</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="5">
         <v>1315722</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="5">
         <v>1321098</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="5">
         <v>1328049</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="5">
         <v>1331880</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="5">
         <v>1336468</v>
       </c>
+      <c r="AU18" s="5">
+        <v>1346739</v>
+      </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Tina</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5">
         <v>7376</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="5">
         <v>163201</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="5">
         <v>177683</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="5">
         <v>184119</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5">
         <v>195192</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="5">
         <v>212577</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="5">
         <v>235450</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="5">
         <v>243619</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="5">
         <v>250150</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="5">
         <v>254622</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="5">
         <v>260723</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="5">
         <v>267207</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="5">
         <v>270394</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="5">
         <v>274524</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="5">
         <v>276526</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="5">
         <v>286003</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" s="5">
         <v>290827</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="5">
         <v>359918</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" s="5">
         <v>414396</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19" s="5">
         <v>424388</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19" s="5">
         <v>430222</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19" s="5">
         <v>439720</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19" s="5">
         <v>455641</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19" s="5">
         <v>459264</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="5">
         <v>461416</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="5">
         <v>468203</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="5">
         <v>472054</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="5">
         <v>476564</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="5">
         <v>480911</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="5">
         <v>483667</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="5">
         <v>485642</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="5">
         <v>488163</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="5">
         <v>491078</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="5">
         <v>493502</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="5">
         <v>495795</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="5">
         <v>497485</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="5">
         <v>500409</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="5">
         <v>502459</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="5">
         <v>504143</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="5">
         <v>505856</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="5">
         <v>507278</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="5">
         <v>508587</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="5">
         <v>510317</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="5">
         <v>511621</v>
       </c>
+      <c r="AU19" s="5">
+        <v>515943</v>
+      </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Gabriel Santana</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s" s="6">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5">
         <v>2200000</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="5">
         <v>2833398</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="5">
         <v>2852688</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="5">
         <v>2861236</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="5">
         <v>2874061</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="5">
         <v>2884001</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="5">
         <v>2894793</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="5">
         <v>2903908</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="5">
         <v>2911457</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="5">
         <v>2917186</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="5">
         <v>2925178</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="5">
         <v>2932285</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="5">
         <v>2938003</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="5">
         <v>2949523</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="5">
         <v>2952968</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="5">
         <v>2961228</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20" s="5">
         <v>2965184</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20" s="5">
         <v>2970706</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20" s="5">
         <v>2974758</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20" s="5">
         <v>2977919</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20" s="5">
         <v>2981009</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20" s="5">
         <v>2983376</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20" s="5">
         <v>2989092</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20" s="5">
         <v>2992581</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="5">
         <v>2994421</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="5">
         <v>3001715</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="5">
         <v>3004418</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="5">
         <v>3007786</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="5">
         <v>3011040</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="5">
         <v>3012530</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="5">
         <v>3014200</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="5">
         <v>3016315</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="5">
         <v>3022349</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="5">
         <v>3031096</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="5">
         <v>3029690</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="5">
         <v>3037066</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="5">
         <v>3047817</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="5">
         <v>3052707</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="5">
         <v>3057674</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20" s="5">
         <v>3062589</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20" s="5">
         <v>3066680</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR20" s="5">
         <v>3069053</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS20" s="5">
         <v>3070263</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AT20" s="5">
         <v>3072364</v>
       </c>
+      <c r="AU20" s="5">
+        <v>3080637</v>
+      </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Amanda</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s" s="6">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5">
         <v>13800</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5">
         <v>225509</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="5">
         <v>249003</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="5">
         <v>261948</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="5">
         <v>287020</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="5">
         <v>321130</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="5">
         <v>353696</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="5">
         <v>375905</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="5">
         <v>403912</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="5">
         <v>422912</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="5">
         <v>442448</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="5">
         <v>471500</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="5">
         <v>490982</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="5">
         <v>568383</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="5">
         <v>587816</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="5">
         <v>724937</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="5">
         <v>777534</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="5">
         <v>832676</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="5">
         <v>892650</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="5">
         <v>927302</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="5">
         <v>986511</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="5">
         <v>1039730</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="5">
         <v>1192922</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="5">
         <v>1235672</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="5">
         <v>1267425</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="5">
         <v>1358141</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="5">
         <v>1396578</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="5">
         <v>1426169</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="5">
         <v>1460826</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="5">
         <v>1486675</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="5">
         <v>1503879</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="5">
         <v>1536808</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="5">
         <v>1578638</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="5">
         <v>1607848</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21" s="5">
         <v>1634824</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21" s="5">
         <v>1662040</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21" s="5">
         <v>1696016</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21" s="5">
         <v>1724546</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="5">
         <v>1738058</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="5">
         <v>1756725</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="5">
         <v>1775798</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AR21" s="5">
         <v>1789484</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AS21" s="5">
         <v>1798017</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AT21" s="5">
         <v>1807404</v>
       </c>
+      <c r="AU21" s="5">
+        <v>1825288</v>
+      </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Bruno</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s" s="6">
+        <v>67</v>
+      </c>
+      <c r="C22" s="5">
         <v>1625</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="5">
         <v>148249</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="5">
         <v>151241</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="5">
         <v>152917</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="5">
         <v>156285</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="5">
         <v>158796</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="5">
         <v>161498</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="5">
         <v>163379</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="5">
         <v>166426</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="5">
         <v>169407</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="5">
         <v>174755</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="5">
         <v>180832</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="5">
         <v>182804</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="5">
         <v>184405</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="5">
         <v>184451</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22" s="5">
         <v>185409</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22" s="5">
         <v>185251</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" s="5">
         <v>186058</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22" s="5">
         <v>187191</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22" s="5">
         <v>187684</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22" s="5">
         <v>187882</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22" s="5">
         <v>188066</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22" s="5">
         <v>197847</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z22" s="5">
         <v>201200</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA22" s="5">
         <v>203741</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22" s="5">
         <v>207836</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22" s="5">
         <v>282277</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22" s="5">
         <v>342698</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE22" s="5">
         <v>367157</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22" s="5">
         <v>376481</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22" s="5">
         <v>382048</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH22" s="5">
         <v>388587</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI22" s="5">
         <v>394227</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ22" s="5">
         <v>397784</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK22" s="5">
         <v>401224</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL22" s="5">
         <v>403262</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM22" s="5">
         <v>406955</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN22" s="5">
         <v>410016</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AO22" s="5">
         <v>411641</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AP22" s="5">
         <v>413897</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AQ22" s="5">
         <v>416998</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AR22" s="5">
         <v>420393</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AS22" s="5">
         <v>421344</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AT22" s="5">
         <v>421918</v>
       </c>
+      <c r="AU22" s="5">
+        <v>423287</v>
+      </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MC Guimê</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s" s="6">
+        <v>68</v>
+      </c>
+      <c r="C23" s="5">
         <v>8200000</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="5">
         <v>8591948</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="5">
         <v>8602569</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="5">
         <v>8606705</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="5">
         <v>8611439</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="5">
         <v>8616220</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="5">
         <v>8620432</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="5">
         <v>8625669</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="5">
         <v>8630809</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="5">
         <v>8633838</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="5">
         <v>8639586</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="5">
         <v>8647941</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" s="5">
         <v>8653460</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23" s="5">
         <v>8659830</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" s="5">
         <v>8662092</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23" s="5">
         <v>8668207</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23" s="5">
         <v>8672033</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23" s="5">
         <v>8677077</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23" s="5">
         <v>8686517</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23" s="5">
         <v>8691419</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23" s="5">
         <v>8696388</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23" s="5">
         <v>8699552</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23" s="5">
         <v>8715673</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="Z23" s="5">
         <v>8714952</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AA23" s="5">
         <v>8718333</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB23" s="5">
         <v>8732450</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC23" s="5">
         <v>8742471</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AD23" s="5">
         <v>8750425</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AE23" s="5">
         <v>8760050</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF23" s="5">
         <v>8767343</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG23" s="5">
         <v>8771322</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH23" s="5">
         <v>8802255</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI23" s="5">
         <v>8836483</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AJ23" s="5">
         <v>8968368</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AK23" s="5">
         <v>9036643</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL23" s="5">
         <v>9174930</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AM23" s="5">
         <v>9245017</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AN23" s="5">
         <v>9283040</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AO23" s="5">
         <v>9294468</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AP23" s="5">
         <v>9321435</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AQ23" s="5">
         <v>9342010</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AR23" s="5">
         <v>9353966</v>
       </c>
-      <c r="AS23" t="n">
+      <c r="AS23" s="5">
         <v>9364656</v>
       </c>
-      <c r="AT23" t="n">
+      <c r="AT23" s="5">
         <v>9375483</v>
+      </c>
+      <c r="AU23" s="5">
+        <v>9402209</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV23"/>
+  <dimension ref="A1:AW23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,6 +674,11 @@
           <t>2023-03-09</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -822,6 +827,9 @@
       <c r="AV2" t="n">
         <v>713096</v>
       </c>
+      <c r="AW2" t="n">
+        <v>712554</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -970,6 +978,9 @@
       <c r="AV3" t="n">
         <v>328</v>
       </c>
+      <c r="AW3" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1118,6 +1129,9 @@
       <c r="AV4" t="n">
         <v>1482936</v>
       </c>
+      <c r="AW4" t="n">
+        <v>1485963</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1266,6 +1280,9 @@
       <c r="AV5" t="n">
         <v>431904</v>
       </c>
+      <c r="AW5" t="n">
+        <v>434464</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1414,6 +1431,9 @@
       <c r="AV6" t="n">
         <v>4230557</v>
       </c>
+      <c r="AW6" t="n">
+        <v>4233328</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1562,6 +1582,9 @@
       <c r="AV7" t="n">
         <v>1554003</v>
       </c>
+      <c r="AW7" t="n">
+        <v>1570634</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1710,6 +1733,9 @@
       <c r="AV8" t="n">
         <v>10870474</v>
       </c>
+      <c r="AW8" t="n">
+        <v>10873982</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1858,6 +1884,9 @@
       <c r="AV9" t="n">
         <v>2165440</v>
       </c>
+      <c r="AW9" t="n">
+        <v>2167884</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2006,6 +2035,9 @@
       <c r="AV10" t="n">
         <v>625805</v>
       </c>
+      <c r="AW10" t="n">
+        <v>629749</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2154,6 +2186,9 @@
       <c r="AV11" t="n">
         <v>552943</v>
       </c>
+      <c r="AW11" t="n">
+        <v>558780</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2302,6 +2337,9 @@
       <c r="AV12" t="n">
         <v>1472398</v>
       </c>
+      <c r="AW12" t="n">
+        <v>1474149</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2450,6 +2488,9 @@
       <c r="AV13" t="n">
         <v>471838</v>
       </c>
+      <c r="AW13" t="n">
+        <v>474770</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2598,6 +2639,9 @@
       <c r="AV14" t="n">
         <v>1112694</v>
       </c>
+      <c r="AW14" t="n">
+        <v>1115760</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2746,6 +2790,9 @@
       <c r="AV15" t="n">
         <v>7834114</v>
       </c>
+      <c r="AW15" t="n">
+        <v>7891778</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2894,6 +2941,9 @@
       <c r="AV16" t="n">
         <v>1270737</v>
       </c>
+      <c r="AW16" t="n">
+        <v>1270947</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3042,6 +3092,9 @@
       <c r="AV17" t="n">
         <v>507364</v>
       </c>
+      <c r="AW17" t="n">
+        <v>507799</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3190,6 +3243,9 @@
       <c r="AV18" t="n">
         <v>1355440</v>
       </c>
+      <c r="AW18" t="n">
+        <v>1358202</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3338,6 +3394,9 @@
       <c r="AV19" t="n">
         <v>518862</v>
       </c>
+      <c r="AW19" t="n">
+        <v>519390</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3486,6 +3545,9 @@
       <c r="AV20" t="n">
         <v>3087635</v>
       </c>
+      <c r="AW20" t="n">
+        <v>3088899</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3634,6 +3696,9 @@
       <c r="AV21" t="n">
         <v>1836890</v>
       </c>
+      <c r="AW21" t="n">
+        <v>1839472</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3782,6 +3847,9 @@
       <c r="AV22" t="n">
         <v>424580</v>
       </c>
+      <c r="AW22" t="n">
+        <v>424546</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3929,6 +3997,9 @@
       </c>
       <c r="AV23" t="n">
         <v>9416454</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>9419360</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW23"/>
+  <dimension ref="A1:AX23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +679,11 @@
           <t>2023-03-10</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -830,6 +835,9 @@
       <c r="AW2" t="n">
         <v>712554</v>
       </c>
+      <c r="AX2" t="n">
+        <v>709612</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -981,6 +989,9 @@
       <c r="AW3" t="n">
         <v>328</v>
       </c>
+      <c r="AX3" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1132,6 +1143,9 @@
       <c r="AW4" t="n">
         <v>1485963</v>
       </c>
+      <c r="AX4" t="n">
+        <v>1508155</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1283,6 +1297,9 @@
       <c r="AW5" t="n">
         <v>434464</v>
       </c>
+      <c r="AX5" t="n">
+        <v>472370</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1434,6 +1451,9 @@
       <c r="AW6" t="n">
         <v>4233328</v>
       </c>
+      <c r="AX6" t="n">
+        <v>4252224</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1585,6 +1605,9 @@
       <c r="AW7" t="n">
         <v>1570634</v>
       </c>
+      <c r="AX7" t="n">
+        <v>1630908</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1736,6 +1759,9 @@
       <c r="AW8" t="n">
         <v>10873982</v>
       </c>
+      <c r="AX8" t="n">
+        <v>10872080</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1887,6 +1913,9 @@
       <c r="AW9" t="n">
         <v>2167884</v>
       </c>
+      <c r="AX9" t="n">
+        <v>2171277</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2038,6 +2067,9 @@
       <c r="AW10" t="n">
         <v>629749</v>
       </c>
+      <c r="AX10" t="n">
+        <v>708026</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2189,6 +2221,9 @@
       <c r="AW11" t="n">
         <v>558780</v>
       </c>
+      <c r="AX11" t="n">
+        <v>604896</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2340,6 +2375,9 @@
       <c r="AW12" t="n">
         <v>1474149</v>
       </c>
+      <c r="AX12" t="n">
+        <v>1492459</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2491,6 +2529,9 @@
       <c r="AW13" t="n">
         <v>474770</v>
       </c>
+      <c r="AX13" t="n">
+        <v>503531</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2642,6 +2683,9 @@
       <c r="AW14" t="n">
         <v>1115760</v>
       </c>
+      <c r="AX14" t="n">
+        <v>1134654</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2793,6 +2837,9 @@
       <c r="AW15" t="n">
         <v>7891778</v>
       </c>
+      <c r="AX15" t="n">
+        <v>8101127</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2944,6 +2991,9 @@
       <c r="AW16" t="n">
         <v>1270947</v>
       </c>
+      <c r="AX16" t="n">
+        <v>1284575</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3095,6 +3145,9 @@
       <c r="AW17" t="n">
         <v>507799</v>
       </c>
+      <c r="AX17" t="n">
+        <v>511305</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3246,6 +3299,9 @@
       <c r="AW18" t="n">
         <v>1358202</v>
       </c>
+      <c r="AX18" t="n">
+        <v>1378770</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3397,6 +3453,9 @@
       <c r="AW19" t="n">
         <v>519390</v>
       </c>
+      <c r="AX19" t="n">
+        <v>522604</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3548,6 +3607,9 @@
       <c r="AW20" t="n">
         <v>3088899</v>
       </c>
+      <c r="AX20" t="n">
+        <v>3100778</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3699,6 +3761,9 @@
       <c r="AW21" t="n">
         <v>1839472</v>
       </c>
+      <c r="AX21" t="n">
+        <v>1872345</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3850,6 +3915,9 @@
       <c r="AW22" t="n">
         <v>424546</v>
       </c>
+      <c r="AX22" t="n">
+        <v>424229</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4000,6 +4068,9 @@
       </c>
       <c r="AW23" t="n">
         <v>9419360</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>9439324</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX23"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,6 +684,11 @@
           <t>2023-03-14</t>
         </is>
       </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -838,6 +843,9 @@
       <c r="AX2" t="n">
         <v>709612</v>
       </c>
+      <c r="AY2" t="n">
+        <v>709135</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -992,6 +1000,9 @@
       <c r="AX3" t="n">
         <v>337</v>
       </c>
+      <c r="AY3" t="n">
+        <v>340</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1146,6 +1157,9 @@
       <c r="AX4" t="n">
         <v>1508155</v>
       </c>
+      <c r="AY4" t="n">
+        <v>1517241</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1300,6 +1314,9 @@
       <c r="AX5" t="n">
         <v>472370</v>
       </c>
+      <c r="AY5" t="n">
+        <v>484216</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1454,6 +1471,9 @@
       <c r="AX6" t="n">
         <v>4252224</v>
       </c>
+      <c r="AY6" t="n">
+        <v>4268230</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1608,6 +1628,9 @@
       <c r="AX7" t="n">
         <v>1630908</v>
       </c>
+      <c r="AY7" t="n">
+        <v>1638958</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1762,6 +1785,9 @@
       <c r="AX8" t="n">
         <v>10872080</v>
       </c>
+      <c r="AY8" t="n">
+        <v>10880077</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1916,6 +1942,9 @@
       <c r="AX9" t="n">
         <v>2171277</v>
       </c>
+      <c r="AY9" t="n">
+        <v>2309795</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2070,6 +2099,9 @@
       <c r="AX10" t="n">
         <v>708026</v>
       </c>
+      <c r="AY10" t="n">
+        <v>753550</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2224,6 +2256,9 @@
       <c r="AX11" t="n">
         <v>604896</v>
       </c>
+      <c r="AY11" t="n">
+        <v>622405</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2378,6 +2413,9 @@
       <c r="AX12" t="n">
         <v>1492459</v>
       </c>
+      <c r="AY12" t="n">
+        <v>1500958</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2532,6 +2570,9 @@
       <c r="AX13" t="n">
         <v>503531</v>
       </c>
+      <c r="AY13" t="n">
+        <v>519852</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2686,6 +2727,9 @@
       <c r="AX14" t="n">
         <v>1134654</v>
       </c>
+      <c r="AY14" t="n">
+        <v>1140200</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2840,6 +2884,9 @@
       <c r="AX15" t="n">
         <v>8101127</v>
       </c>
+      <c r="AY15" t="n">
+        <v>8191815</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2994,6 +3041,9 @@
       <c r="AX16" t="n">
         <v>1284575</v>
       </c>
+      <c r="AY16" t="n">
+        <v>1285541</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3148,6 +3198,9 @@
       <c r="AX17" t="n">
         <v>511305</v>
       </c>
+      <c r="AY17" t="n">
+        <v>512726</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3302,6 +3355,9 @@
       <c r="AX18" t="n">
         <v>1378770</v>
       </c>
+      <c r="AY18" t="n">
+        <v>1385343</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3456,6 +3512,9 @@
       <c r="AX19" t="n">
         <v>522604</v>
       </c>
+      <c r="AY19" t="n">
+        <v>523413</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3610,6 +3669,9 @@
       <c r="AX20" t="n">
         <v>3100778</v>
       </c>
+      <c r="AY20" t="n">
+        <v>3105462</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3764,6 +3826,9 @@
       <c r="AX21" t="n">
         <v>1872345</v>
       </c>
+      <c r="AY21" t="n">
+        <v>1885198</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3918,6 +3983,9 @@
       <c r="AX22" t="n">
         <v>424229</v>
       </c>
+      <c r="AY22" t="n">
+        <v>424000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4071,6 +4139,9 @@
       </c>
       <c r="AX23" t="n">
         <v>9439324</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>9449087</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY23"/>
+  <dimension ref="A1:AZ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,6 +689,11 @@
           <t>2023-03-15</t>
         </is>
       </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -846,6 +851,9 @@
       <c r="AY2" t="n">
         <v>709135</v>
       </c>
+      <c r="AZ2" t="n">
+        <v>709167</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1003,6 +1011,9 @@
       <c r="AY3" t="n">
         <v>340</v>
       </c>
+      <c r="AZ3" t="n">
+        <v>340</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1160,6 +1171,9 @@
       <c r="AY4" t="n">
         <v>1517241</v>
       </c>
+      <c r="AZ4" t="n">
+        <v>1543460</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1317,6 +1331,9 @@
       <c r="AY5" t="n">
         <v>484216</v>
       </c>
+      <c r="AZ5" t="n">
+        <v>500639</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1474,6 +1491,9 @@
       <c r="AY6" t="n">
         <v>4268230</v>
       </c>
+      <c r="AZ6" t="n">
+        <v>4312862</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1631,6 +1651,9 @@
       <c r="AY7" t="n">
         <v>1638958</v>
       </c>
+      <c r="AZ7" t="n">
+        <v>1651583</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1788,6 +1811,9 @@
       <c r="AY8" t="n">
         <v>10880077</v>
       </c>
+      <c r="AZ8" t="n">
+        <v>10896592</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1945,6 +1971,9 @@
       <c r="AY9" t="n">
         <v>2309795</v>
       </c>
+      <c r="AZ9" t="n">
+        <v>2413915</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2102,6 +2131,9 @@
       <c r="AY10" t="n">
         <v>753550</v>
       </c>
+      <c r="AZ10" t="n">
+        <v>799400</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2259,6 +2291,9 @@
       <c r="AY11" t="n">
         <v>622405</v>
       </c>
+      <c r="AZ11" t="n">
+        <v>646067</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2416,6 +2451,9 @@
       <c r="AY12" t="n">
         <v>1500958</v>
       </c>
+      <c r="AZ12" t="n">
+        <v>1602995</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2573,6 +2611,9 @@
       <c r="AY13" t="n">
         <v>519852</v>
       </c>
+      <c r="AZ13" t="n">
+        <v>533536</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2730,6 +2771,9 @@
       <c r="AY14" t="n">
         <v>1140200</v>
       </c>
+      <c r="AZ14" t="n">
+        <v>1146164</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2887,6 +2931,9 @@
       <c r="AY15" t="n">
         <v>8191815</v>
       </c>
+      <c r="AZ15" t="n">
+        <v>8327021</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3044,6 +3091,9 @@
       <c r="AY16" t="n">
         <v>1285541</v>
       </c>
+      <c r="AZ16" t="n">
+        <v>1286968</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3201,6 +3251,9 @@
       <c r="AY17" t="n">
         <v>512726</v>
       </c>
+      <c r="AZ17" t="n">
+        <v>517449</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3358,6 +3411,9 @@
       <c r="AY18" t="n">
         <v>1385343</v>
       </c>
+      <c r="AZ18" t="n">
+        <v>1403667</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3515,6 +3571,9 @@
       <c r="AY19" t="n">
         <v>523413</v>
       </c>
+      <c r="AZ19" t="n">
+        <v>525288</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3672,6 +3731,9 @@
       <c r="AY20" t="n">
         <v>3105462</v>
       </c>
+      <c r="AZ20" t="n">
+        <v>3116774</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3829,6 +3891,9 @@
       <c r="AY21" t="n">
         <v>1885198</v>
       </c>
+      <c r="AZ21" t="n">
+        <v>1966015</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3986,6 +4051,9 @@
       <c r="AY22" t="n">
         <v>424000</v>
       </c>
+      <c r="AZ22" t="n">
+        <v>424338</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4142,6 +4210,9 @@
       </c>
       <c r="AY23" t="n">
         <v>9449087</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>9623775</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ23"/>
+  <dimension ref="A1:BA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,6 +694,11 @@
           <t>2023-03-17</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -854,6 +859,9 @@
       <c r="AZ2" t="n">
         <v>709167</v>
       </c>
+      <c r="BA2" t="n">
+        <v>730213</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1014,6 +1022,9 @@
       <c r="AZ3" t="n">
         <v>340</v>
       </c>
+      <c r="BA3" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1174,6 +1185,9 @@
       <c r="AZ4" t="n">
         <v>1543460</v>
       </c>
+      <c r="BA4" t="n">
+        <v>1599519</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1334,6 +1348,9 @@
       <c r="AZ5" t="n">
         <v>500639</v>
       </c>
+      <c r="BA5" t="n">
+        <v>531014</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1494,6 +1511,9 @@
       <c r="AZ6" t="n">
         <v>4312862</v>
       </c>
+      <c r="BA6" t="n">
+        <v>4397085</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1654,6 +1674,9 @@
       <c r="AZ7" t="n">
         <v>1651583</v>
       </c>
+      <c r="BA7" t="n">
+        <v>1665750</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1814,6 +1837,9 @@
       <c r="AZ8" t="n">
         <v>10896592</v>
       </c>
+      <c r="BA8" t="n">
+        <v>10933275</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1974,6 +2000,9 @@
       <c r="AZ9" t="n">
         <v>2413915</v>
       </c>
+      <c r="BA9" t="n">
+        <v>2503379</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2134,6 +2163,9 @@
       <c r="AZ10" t="n">
         <v>799400</v>
       </c>
+      <c r="BA10" t="n">
+        <v>857601</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2294,6 +2326,9 @@
       <c r="AZ11" t="n">
         <v>646067</v>
       </c>
+      <c r="BA11" t="n">
+        <v>689228</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2454,6 +2489,9 @@
       <c r="AZ12" t="n">
         <v>1602995</v>
       </c>
+      <c r="BA12" t="n">
+        <v>1970304</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2614,6 +2652,9 @@
       <c r="AZ13" t="n">
         <v>533536</v>
       </c>
+      <c r="BA13" t="n">
+        <v>560189</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2774,6 +2815,9 @@
       <c r="AZ14" t="n">
         <v>1146164</v>
       </c>
+      <c r="BA14" t="n">
+        <v>1158567</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2934,6 +2978,9 @@
       <c r="AZ15" t="n">
         <v>8327021</v>
       </c>
+      <c r="BA15" t="n">
+        <v>8482303</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3094,6 +3141,9 @@
       <c r="AZ16" t="n">
         <v>1286968</v>
       </c>
+      <c r="BA16" t="n">
+        <v>1287938</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3254,6 +3304,9 @@
       <c r="AZ17" t="n">
         <v>517449</v>
       </c>
+      <c r="BA17" t="n">
+        <v>524305</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3414,6 +3467,9 @@
       <c r="AZ18" t="n">
         <v>1403667</v>
       </c>
+      <c r="BA18" t="n">
+        <v>1432699</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3574,6 +3630,9 @@
       <c r="AZ19" t="n">
         <v>525288</v>
       </c>
+      <c r="BA19" t="n">
+        <v>529080</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3734,6 +3793,9 @@
       <c r="AZ20" t="n">
         <v>3116774</v>
       </c>
+      <c r="BA20" t="n">
+        <v>3141536</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3894,6 +3956,9 @@
       <c r="AZ21" t="n">
         <v>1966015</v>
       </c>
+      <c r="BA21" t="n">
+        <v>2099226</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4054,6 +4119,9 @@
       <c r="AZ22" t="n">
         <v>424338</v>
       </c>
+      <c r="BA22" t="n">
+        <v>425529</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4213,6 +4281,9 @@
       </c>
       <c r="AZ23" t="n">
         <v>9623775</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>10180885</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA23"/>
+  <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,6 +699,11 @@
           <t>2023-03-18</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -862,6 +867,9 @@
       <c r="BA2" t="n">
         <v>730213</v>
       </c>
+      <c r="BB2" t="n">
+        <v>762953</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1025,6 +1033,9 @@
       <c r="BA3" t="n">
         <v>342</v>
       </c>
+      <c r="BB3" t="n">
+        <v>407</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1188,6 +1199,9 @@
       <c r="BA4" t="n">
         <v>1599519</v>
       </c>
+      <c r="BB4" t="n">
+        <v>1613868</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1351,6 +1365,9 @@
       <c r="BA5" t="n">
         <v>531014</v>
       </c>
+      <c r="BB5" t="n">
+        <v>547180</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1514,6 +1531,9 @@
       <c r="BA6" t="n">
         <v>4397085</v>
       </c>
+      <c r="BB6" t="n">
+        <v>4432898</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1677,6 +1697,9 @@
       <c r="BA7" t="n">
         <v>1665750</v>
       </c>
+      <c r="BB7" t="n">
+        <v>1675832</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1840,6 +1863,9 @@
       <c r="BA8" t="n">
         <v>10933275</v>
       </c>
+      <c r="BB8" t="n">
+        <v>10940457</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2003,6 +2029,9 @@
       <c r="BA9" t="n">
         <v>2503379</v>
       </c>
+      <c r="BB9" t="n">
+        <v>2547182</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2166,6 +2195,9 @@
       <c r="BA10" t="n">
         <v>857601</v>
       </c>
+      <c r="BB10" t="n">
+        <v>887538</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2329,6 +2361,9 @@
       <c r="BA11" t="n">
         <v>689228</v>
       </c>
+      <c r="BB11" t="n">
+        <v>712045</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2492,6 +2527,9 @@
       <c r="BA12" t="n">
         <v>1970304</v>
       </c>
+      <c r="BB12" t="n">
+        <v>2092497</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2655,6 +2693,9 @@
       <c r="BA13" t="n">
         <v>560189</v>
       </c>
+      <c r="BB13" t="n">
+        <v>571356</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2818,6 +2859,9 @@
       <c r="BA14" t="n">
         <v>1158567</v>
       </c>
+      <c r="BB14" t="n">
+        <v>1170196</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2981,6 +3025,9 @@
       <c r="BA15" t="n">
         <v>8482303</v>
       </c>
+      <c r="BB15" t="n">
+        <v>8637449</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3144,6 +3191,9 @@
       <c r="BA16" t="n">
         <v>1287938</v>
       </c>
+      <c r="BB16" t="n">
+        <v>1289509</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3307,6 +3357,9 @@
       <c r="BA17" t="n">
         <v>524305</v>
       </c>
+      <c r="BB17" t="n">
+        <v>527138</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3470,6 +3523,9 @@
       <c r="BA18" t="n">
         <v>1432699</v>
       </c>
+      <c r="BB18" t="n">
+        <v>1446460</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3633,6 +3689,9 @@
       <c r="BA19" t="n">
         <v>529080</v>
       </c>
+      <c r="BB19" t="n">
+        <v>535941</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3796,6 +3855,9 @@
       <c r="BA20" t="n">
         <v>3141536</v>
       </c>
+      <c r="BB20" t="n">
+        <v>3153479</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3959,6 +4021,9 @@
       <c r="BA21" t="n">
         <v>2099226</v>
       </c>
+      <c r="BB21" t="n">
+        <v>2156903</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4122,6 +4187,9 @@
       <c r="BA22" t="n">
         <v>425529</v>
       </c>
+      <c r="BB22" t="n">
+        <v>425294</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4284,6 +4352,9 @@
       </c>
       <c r="BA23" t="n">
         <v>10180885</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>10241781</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -1,43 +1,294 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-01-29</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2023-02-03</t>
+  </si>
+  <si>
+    <t>2023-02-04</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>2023-02-10</t>
+  </si>
+  <si>
+    <t>2023-02-11</t>
+  </si>
+  <si>
+    <t>2023-02-12</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-18</t>
+  </si>
+  <si>
+    <t>2023-02-19</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-02-25</t>
+  </si>
+  <si>
+    <t>2023-02-26</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2023-03-04</t>
+  </si>
+  <si>
+    <t>2023-03-05</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-07</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>2023-03-17</t>
+  </si>
+  <si>
+    <t>2023-03-18</t>
+  </si>
+  <si>
+    <t>2023-03-21</t>
+  </si>
+  <si>
+    <t>2023-03-22</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Aline Wirley</t>
+  </si>
+  <si>
+    <t>Cezar Black</t>
+  </si>
+  <si>
+    <t>Bruna Griphao</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Larissa</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Domitila Barros</t>
+  </si>
+  <si>
+    <t>Antonio ‘Cara de Sapato’ Jr</t>
+  </si>
+  <si>
+    <t>Sarah Aline</t>
+  </si>
+  <si>
+    <t>Fred Nicácio</t>
+  </si>
+  <si>
+    <t>Key Alves</t>
+  </si>
+  <si>
+    <t>Marília</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Marvvila</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Gabriel Santana</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>MC Guimê</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -46,111 +297,117 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -174,80 +431,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -279,20 +478,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -304,7 +499,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -325,16 +520,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,23 +529,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -414,3950 +598,4743 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BB23"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:BC23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="55" width="8.85156" style="1" customWidth="1"/>
+    <col min="56" max="16384" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-13</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-23</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-24</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-26</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-27</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-28</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-29</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-30</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2023-01-31</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-02</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-03</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-04</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-05</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-06</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-07</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-09</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-10</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-11</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-12</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-13</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-14</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-15</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-16</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-18</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-19</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-20</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-22</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-23</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-24</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-25</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-26</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>2023-02-28</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-02</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-04</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-05</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-06</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-07</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-10</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-14</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-15</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-18</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>2023-03-21</t>
-        </is>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s" s="4">
+        <v>55</v>
+      </c>
+      <c r="C2" s="3">
         <v>129000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3">
         <v>517771</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3">
         <v>525191</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="3">
         <v>528738</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3">
         <v>534073</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="3">
         <v>537056</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="3">
         <v>542791</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="3">
         <v>544192</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="3">
         <v>551325</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="3">
         <v>602904</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="3">
         <v>714975</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="3">
         <v>706257</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="3">
         <v>705839</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="3">
         <v>709473</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="3">
         <v>709380</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="3">
         <v>710405</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="3">
         <v>709641</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="3">
         <v>711357</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="3">
         <v>711852</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="3">
         <v>712472</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="3">
         <v>712248</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="3">
         <v>711934</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="3">
         <v>711337</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="3">
         <v>710804</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="3">
         <v>711324</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="3">
         <v>711005</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="3">
         <v>711356</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="3">
         <v>713042</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="3">
         <v>713272</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="3">
         <v>713672</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="3">
         <v>714720</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="3">
         <v>713304</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="3">
         <v>713925</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="3">
         <v>715981</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="3">
         <v>714830</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="3">
         <v>713125</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="3">
         <v>714987</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="3">
         <v>715191</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="3">
         <v>715430</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="3">
         <v>715768</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="3">
         <v>715493</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="3">
         <v>714498</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="3">
         <v>714068</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="3">
         <v>713607</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="3">
         <v>713553</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="3">
         <v>713096</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="3">
         <v>712554</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2" s="3">
         <v>709612</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2" s="3">
         <v>709135</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2" s="3">
         <v>709167</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2" s="3">
         <v>730213</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2" s="3">
         <v>762953</v>
       </c>
+      <c r="BC2" s="3">
+        <v>807826</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Paula</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5">
         <v>61600</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="5">
         <v>583662</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="5">
         <v>574485</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="5">
         <v>576005</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5">
         <v>578455</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="5">
         <v>581277</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="5">
         <v>580020</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="5">
         <v>580215</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="5">
         <v>580975</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="5">
         <v>581447</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="5">
         <v>588798</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="5">
         <v>591258</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="5">
         <v>592511</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="5">
         <v>592925</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="5">
         <v>592873</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="5">
         <v>592483</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="5">
         <v>590866</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="5">
         <v>587285</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="5">
         <v>592246</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="5">
         <v>591977</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="5">
         <v>592324</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="5">
         <v>592073</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="5">
         <v>599427</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="5">
         <v>598994</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="5">
         <v>601187</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="5">
         <v>613187</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="5">
         <v>615901</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="5">
         <v>619681</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="5">
         <v>667436</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="5">
         <v>671305</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="5">
         <v>674404</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="5">
         <v>704777</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="5">
         <v>798937</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="5">
         <v>815442</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="5">
         <v>816107</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="5">
         <v>821547</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="5">
         <v>832933</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="5">
         <v>863973</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="5">
         <v>890212</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="5">
         <v>900037</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="5">
         <v>913673</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="5">
         <v>901120</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="5">
         <v>901780</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="5">
         <v>895595</v>
       </c>
-      <c r="AU3" t="n">
-        <v>316</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>328</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>328</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>337</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>340</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>340</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>342</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>407</v>
+      <c r="AU3" s="5">
+        <v>895595</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>895595</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>895595</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>895595</v>
+      </c>
+      <c r="AY3" s="5">
+        <v>895595</v>
+      </c>
+      <c r="AZ3" s="5">
+        <v>895595</v>
+      </c>
+      <c r="BA3" s="5">
+        <v>895595</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>895595</v>
+      </c>
+      <c r="BC3" s="5">
+        <v>993844</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Aline Wirley</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5">
         <v>853000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="5">
         <v>1154476</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="5">
         <v>1171498</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5">
         <v>1177577</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5">
         <v>1187481</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="5">
         <v>1196889</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="5">
         <v>1207849</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="5">
         <v>1214407</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="5">
         <v>1220327</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="5">
         <v>1225508</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="5">
         <v>1232892</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="5">
         <v>1241118</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="5">
         <v>1245677</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="5">
         <v>1253297</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="5">
         <v>1255118</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="5">
         <v>1263051</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="5">
         <v>1266719</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="5">
         <v>1271776</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="5">
         <v>1278783</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="5">
         <v>1281561</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="5">
         <v>1286702</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="5">
         <v>1289372</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="5">
         <v>1295862</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="5">
         <v>1299116</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="5">
         <v>1301394</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="5">
         <v>1309670</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="5">
         <v>1324168</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="5">
         <v>1334400</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="5">
         <v>1348399</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="5">
         <v>1359397</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="5">
         <v>1365013</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="5">
         <v>1372111</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="5">
         <v>1380053</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="5">
         <v>1387547</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="5">
         <v>1394641</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="5">
         <v>1398506</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="5">
         <v>1409678</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="5">
         <v>1418534</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="5">
         <v>1423634</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="5">
         <v>1431906</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="5">
         <v>1442005</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="5">
         <v>1448837</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="5">
         <v>1452986</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="5">
         <v>1457629</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="5">
         <v>1471751</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="5">
         <v>1482936</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="5">
         <v>1485963</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4" s="5">
         <v>1508155</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4" s="5">
         <v>1517241</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4" s="5">
         <v>1543460</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4" s="5">
         <v>1599519</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4" s="5">
         <v>1613868</v>
       </c>
+      <c r="BC4" s="5">
+        <v>1622615</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cezar Black</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s" s="6">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5">
         <v>10400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="5">
         <v>214521</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="5">
         <v>231003</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="5">
         <v>236469</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="5">
         <v>242114</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="5">
         <v>246366</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="5">
         <v>251820</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="5">
         <v>256077</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="5">
         <v>260895</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="5">
         <v>263256</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="5">
         <v>268248</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="5">
         <v>272657</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="5">
         <v>275136</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="5">
         <v>277936</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="5">
         <v>278593</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="5">
         <v>281924</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="5">
         <v>282575</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="5">
         <v>284547</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="5">
         <v>286399</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="5">
         <v>290469</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="5">
         <v>291444</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="5">
         <v>291856</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="5">
         <v>294565</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="5">
         <v>301081</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="5">
         <v>302142</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="5">
         <v>310808</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="5">
         <v>317553</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="5">
         <v>329768</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="5">
         <v>338684</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="5">
         <v>343661</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="5">
         <v>345946</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="5">
         <v>350420</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="5">
         <v>358552</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="5">
         <v>362479</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="5">
         <v>367040</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="5">
         <v>372570</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="5">
         <v>377742</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="5">
         <v>383300</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="5">
         <v>387753</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="5">
         <v>394034</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="5">
         <v>399240</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="5">
         <v>402708</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="5">
         <v>405385</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="5">
         <v>409503</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="5">
         <v>422219</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="5">
         <v>431904</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="5">
         <v>434464</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5" s="5">
         <v>472370</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5" s="5">
         <v>484216</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5" s="5">
         <v>500639</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5" s="5">
         <v>531014</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5" s="5">
         <v>547180</v>
       </c>
+      <c r="BC5" s="5">
+        <v>553552</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bruna Griphao</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5">
         <v>2700000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="5">
         <v>3565299</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="5">
         <v>3596131</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="5">
         <v>3609772</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="5">
         <v>3629895</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="5">
         <v>3650419</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="5">
         <v>3670505</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="5">
         <v>3686190</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="5">
         <v>3699286</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="5">
         <v>3710134</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="5">
         <v>3731407</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="5">
         <v>3753661</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="5">
         <v>3771190</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="5">
         <v>3789167</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="5">
         <v>3793561</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="5">
         <v>3808437</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="5">
         <v>3819378</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="5">
         <v>3828938</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="5">
         <v>3847909</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="5">
         <v>3862497</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="5">
         <v>3884075</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="5">
         <v>3895890</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="5">
         <v>3923780</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="5">
         <v>3935378</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="5">
         <v>3941202</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="5">
         <v>3993453</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="5">
         <v>4012569</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="5">
         <v>4024766</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="5">
         <v>4035547</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="5">
         <v>4041927</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="5">
         <v>4046754</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="5">
         <v>4054247</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="5">
         <v>4073031</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="5">
         <v>4094362</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="5">
         <v>4106921</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="5">
         <v>4117164</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="5">
         <v>4148126</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="5">
         <v>4161909</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="5">
         <v>4168330</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="5">
         <v>4180708</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="5">
         <v>4197021</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="5">
         <v>4208802</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="5">
         <v>4215050</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="5">
         <v>4220682</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="5">
         <v>4224192</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="5">
         <v>4230557</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="5">
         <v>4233328</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6" s="5">
         <v>4252224</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6" s="5">
         <v>4268230</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6" s="5">
         <v>4312862</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6" s="5">
         <v>4397085</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6" s="5">
         <v>4432898</v>
       </c>
+      <c r="BC6" s="5">
+        <v>4449448</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gustavo</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5">
         <v>252000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="5">
         <v>953586</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="5">
         <v>991588</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="5">
         <v>1017062</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="5">
         <v>1047848</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="5">
         <v>1071210</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="5">
         <v>1098843</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="5">
         <v>1120515</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="5">
         <v>1148099</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="5">
         <v>1160677</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="5">
         <v>1178714</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="5">
         <v>1197122</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="5">
         <v>1241672</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="5">
         <v>1260289</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="5">
         <v>1264564</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="5">
         <v>1279989</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="5">
         <v>1289356</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="5">
         <v>1299888</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" s="5">
         <v>1313993</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7" s="5">
         <v>1319600</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7" s="5">
         <v>1319976</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7" s="5">
         <v>1320920</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7" s="5">
         <v>1316541</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7" s="5">
         <v>1314848</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="5">
         <v>1315605</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="5">
         <v>1317289</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="5">
         <v>1319324</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="5">
         <v>1320589</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="5">
         <v>1321543</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="5">
         <v>1321040</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="5">
         <v>1319683</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="5">
         <v>1317224</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="5">
         <v>1312883</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="5">
         <v>1301565</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="5">
         <v>1301958</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="5">
         <v>1364733</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="5">
         <v>1400298</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="5">
         <v>1418447</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="5">
         <v>1425283</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="5">
         <v>1438258</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="5">
         <v>1452202</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="5">
         <v>1459008</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="5">
         <v>1465616</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="5">
         <v>1470627</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="5">
         <v>1485252</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="5">
         <v>1554003</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="5">
         <v>1570634</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7" s="5">
         <v>1630908</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7" s="5">
         <v>1638958</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7" s="5">
         <v>1651583</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7" s="5">
         <v>1665750</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7" s="5">
         <v>1675832</v>
       </c>
+      <c r="BC7" s="5">
+        <v>1678070</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fred</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s" s="6">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5">
         <v>9300000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="5">
         <v>10191505</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="5">
         <v>10232234</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="5">
         <v>10247431</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="5">
         <v>10278614</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="5">
         <v>10309471</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="5">
         <v>10362792</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="5">
         <v>10406596</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="5">
         <v>10440067</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="5">
         <v>10468351</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="5">
         <v>10505839</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="5">
         <v>10532159</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="5">
         <v>10550078</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="5">
         <v>10569519</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="5">
         <v>10573170</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="5">
         <v>10598647</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="5">
         <v>10622104</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="5">
         <v>10637786</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" s="5">
         <v>10659314</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8" s="5">
         <v>10667409</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8" s="5">
         <v>10674811</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8" s="5">
         <v>10675710</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8" s="5">
         <v>10685206</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8" s="5">
         <v>10685811</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="5">
         <v>10690091</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="5">
         <v>10697384</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="5">
         <v>10704213</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="5">
         <v>10712336</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="5">
         <v>10716380</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="5">
         <v>10724135</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="5">
         <v>10730217</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="5">
         <v>10731249</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="5">
         <v>10752484</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="5">
         <v>10796744</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="5">
         <v>10816465</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="5">
         <v>10806951</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="5">
         <v>10851444</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="5">
         <v>10862005</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="5">
         <v>10867602</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8" s="5">
         <v>10875240</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8" s="5">
         <v>10888325</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8" s="5">
         <v>10903691</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8" s="5">
         <v>10907842</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8" s="5">
         <v>10908168</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8" s="5">
         <v>10874858</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8" s="5">
         <v>10870474</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8" s="5">
         <v>10873982</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8" s="5">
         <v>10872080</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8" s="5">
         <v>10880077</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8" s="5">
         <v>10896592</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8" s="5">
         <v>10933275</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8" s="5">
         <v>10940457</v>
       </c>
+      <c r="BC8" s="5">
+        <v>10998545</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Larissa</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s" s="6">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5">
         <v>113000</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5">
         <v>1232390</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="5">
         <v>1291677</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5">
         <v>1316218</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5">
         <v>1377855</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="5">
         <v>1428076</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="5">
         <v>1502536</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="5">
         <v>1554173</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="5">
         <v>1589294</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="5">
         <v>1618003</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="5">
         <v>1661130</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="5">
         <v>1691773</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="5">
         <v>1710209</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="5">
         <v>1740884</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="5">
         <v>1746488</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="5">
         <v>1766593</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="5">
         <v>1789150</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="5">
         <v>1816081</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="5">
         <v>1863701</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="5">
         <v>1882914</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="5">
         <v>1896359</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="5">
         <v>1902379</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="5">
         <v>1921930</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="5">
         <v>1931265</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="5">
         <v>1935499</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="5">
         <v>1952884</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="5">
         <v>1963723</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="5">
         <v>1972500</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="5">
         <v>1994811</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="5">
         <v>2019454</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="5">
         <v>2027854</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="5">
         <v>2039790</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="5">
         <v>2054124</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="5">
         <v>2063934</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" s="5">
         <v>2073538</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" s="5">
         <v>2082385</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" s="5">
         <v>2094451</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" s="5">
         <v>2107733</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="5">
         <v>2114587</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="5">
         <v>2123347</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="5">
         <v>2135047</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9" s="5">
         <v>2149159</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9" s="5">
         <v>2158015</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9" s="5">
         <v>2164503</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9" s="5">
         <v>2162019</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9" s="5">
         <v>2165440</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9" s="5">
         <v>2167884</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9" s="5">
         <v>2171277</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9" s="5">
         <v>2309795</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9" s="5">
         <v>2413915</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9" s="5">
         <v>2503379</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9" s="5">
         <v>2547182</v>
       </c>
+      <c r="BC9" s="5">
+        <v>2564096</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ricardo</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="C10" s="5">
         <v>2541</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="5">
         <v>198552</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="5">
         <v>206493</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5">
         <v>209570</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5">
         <v>214887</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="5">
         <v>220371</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="5">
         <v>223909</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="5">
         <v>228821</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="5">
         <v>232725</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="5">
         <v>234343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="5">
         <v>236735</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="5">
         <v>238455</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="5">
         <v>238272</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="5">
         <v>238983</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="5">
         <v>238794</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="5">
         <v>238125</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="5">
         <v>237437</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="5">
         <v>238534</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" s="5">
         <v>240155</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10" s="5">
         <v>240750</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10" s="5">
         <v>241352</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10" s="5">
         <v>241594</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10" s="5">
         <v>243568</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10" s="5">
         <v>244844</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10" s="5">
         <v>246013</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10" s="5">
         <v>248967</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10" s="5">
         <v>250833</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10" s="5">
         <v>260051</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10" s="5">
         <v>265091</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10" s="5">
         <v>270050</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10" s="5">
         <v>271925</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10" s="5">
         <v>276948</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10" s="5">
         <v>282109</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10" s="5">
         <v>287212</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10" s="5">
         <v>290667</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10" s="5">
         <v>294504</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10" s="5">
         <v>299208</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10" s="5">
         <v>304795</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10" s="5">
         <v>308699</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10" s="5">
         <v>313197</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10" s="5">
         <v>316648</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10" s="5">
         <v>318842</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10" s="5">
         <v>321751</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10" s="5">
         <v>334352</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10" s="5">
         <v>583246</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10" s="5">
         <v>625805</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10" s="5">
         <v>629749</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10" s="5">
         <v>708026</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10" s="5">
         <v>753550</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10" s="5">
         <v>799400</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10" s="5">
         <v>857601</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10" s="5">
         <v>887538</v>
       </c>
+      <c r="BC10" s="5">
+        <v>899997</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Domitila Barros</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="C11" s="5">
         <v>214000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="5">
         <v>309931</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="5">
         <v>315388</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="5">
         <v>317308</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5">
         <v>319741</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="5">
         <v>322945</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="5">
         <v>325774</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="5">
         <v>327376</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="5">
         <v>447125</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="5">
         <v>393556</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="5">
         <v>388803</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="5">
         <v>382882</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="5">
         <v>384156</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="5">
         <v>385316</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="5">
         <v>386065</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="5">
         <v>387974</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="5">
         <v>388677</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="5">
         <v>392228</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="5">
         <v>394638</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="5">
         <v>394666</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="5">
         <v>396007</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="5">
         <v>395893</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="5">
         <v>395354</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="5">
         <v>392185</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="5">
         <v>391817</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" s="5">
         <v>392961</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="5">
         <v>411861</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="5">
         <v>400609</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="5">
         <v>401355</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="5">
         <v>402681</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="5">
         <v>410051</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="5">
         <v>409284</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="5">
         <v>411541</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="5">
         <v>416352</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="5">
         <v>417990</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="5">
         <v>421443</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="5">
         <v>425841</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="5">
         <v>429978</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="5">
         <v>434895</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="5">
         <v>436529</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="5">
         <v>440753</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="5">
         <v>446409</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="5">
         <v>446492</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="5">
         <v>450055</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11" s="5">
         <v>485278</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11" s="5">
         <v>552943</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11" s="5">
         <v>558780</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11" s="5">
         <v>604896</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11" s="5">
         <v>622405</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11" s="5">
         <v>646067</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11" s="5">
         <v>689228</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11" s="5">
         <v>712045</v>
       </c>
+      <c r="BC11" s="5">
+        <v>775676</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Antonio ‘Cara de Sapato’ Jr</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s" s="6">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5">
         <v>167000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5">
         <v>407478</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5">
         <v>436671</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5">
         <v>448175</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5">
         <v>466757</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="5">
         <v>491573</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="5">
         <v>516648</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="5">
         <v>534738</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="5">
         <v>550781</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="5">
         <v>566122</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="5">
         <v>584647</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="5">
         <v>621983</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="5">
         <v>643134</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="5">
         <v>667507</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="5">
         <v>676452</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="5">
         <v>736233</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="5">
         <v>763295</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="5">
         <v>799447</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="5">
         <v>836501</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="5">
         <v>862165</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="5">
         <v>894442</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="5">
         <v>914864</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="5">
         <v>974306</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="5">
         <v>1002404</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="5">
         <v>1021605</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="5">
         <v>1087230</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="5">
         <v>1109373</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="5">
         <v>1128353</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="5">
         <v>1152218</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="5">
         <v>1167658</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="5">
         <v>1177258</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="5">
         <v>1196262</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="5">
         <v>1219318</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="5">
         <v>1254668</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="5">
         <v>1278574</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="5">
         <v>1310176</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="5">
         <v>1349920</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="5">
         <v>1381576</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="5">
         <v>1406951</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="5">
         <v>1426410</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="5">
         <v>1438832</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="5">
         <v>1446781</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="5">
         <v>1450866</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="5">
         <v>1455149</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="5">
         <v>1465061</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="5">
         <v>1472398</v>
       </c>
-      <c r="AW12" t="n">
+      <c r="AW12" s="5">
         <v>1474149</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AX12" s="5">
         <v>1492459</v>
       </c>
-      <c r="AY12" t="n">
+      <c r="AY12" s="5">
         <v>1500958</v>
       </c>
-      <c r="AZ12" t="n">
+      <c r="AZ12" s="5">
         <v>1602995</v>
       </c>
-      <c r="BA12" t="n">
+      <c r="BA12" s="5">
         <v>1970304</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BB12" s="5">
         <v>2092497</v>
       </c>
+      <c r="BC12" s="5">
+        <v>2104424</v>
+      </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sarah Aline</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s" s="6">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5">
         <v>10700</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5">
         <v>166064</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="5">
         <v>181527</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="5">
         <v>186740</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5">
         <v>194312</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="5">
         <v>206436</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="5">
         <v>218204</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="5">
         <v>225062</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="5">
         <v>231811</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="5">
         <v>237066</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="5">
         <v>243922</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="5">
         <v>256158</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="5">
         <v>261369</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="5">
         <v>273799</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="5">
         <v>276173</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="5">
         <v>283219</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="5">
         <v>286903</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="5">
         <v>293428</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="5">
         <v>301813</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="5">
         <v>305573</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="5">
         <v>309628</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="5">
         <v>311809</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="5">
         <v>319962</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="5">
         <v>324538</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="5">
         <v>327051</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="5">
         <v>336583</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="5">
         <v>342428</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="5">
         <v>346974</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="5">
         <v>350820</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="5">
         <v>354301</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="5">
         <v>356973</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="5">
         <v>360753</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="5">
         <v>364196</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="5">
         <v>371545</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="5">
         <v>376022</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="5">
         <v>381428</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="5">
         <v>386039</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="5">
         <v>390403</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="5">
         <v>394128</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="5">
         <v>398504</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="5">
         <v>402935</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="5">
         <v>406343</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="5">
         <v>407949</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="5">
         <v>410911</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="5">
         <v>452784</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="5">
         <v>471838</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW13" s="5">
         <v>474770</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX13" s="5">
         <v>503531</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY13" s="5">
         <v>519852</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ13" s="5">
         <v>533536</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA13" s="5">
         <v>560189</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB13" s="5">
         <v>571356</v>
       </c>
+      <c r="BC13" s="5">
+        <v>582291</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Fred Nicácio</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s" s="6">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5">
         <v>342000</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="5">
         <v>511058</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="5">
         <v>528127</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="5">
         <v>544503</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5">
         <v>554848</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="5">
         <v>571521</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="5">
         <v>582432</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="5">
         <v>586142</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="5">
         <v>590058</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="5">
         <v>594857</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="5">
         <v>603344</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="5">
         <v>609724</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="5">
         <v>614202</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="5">
         <v>619995</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="5">
         <v>621403</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="5">
         <v>626512</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="5">
         <v>629301</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="5">
         <v>632961</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="5">
         <v>636762</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="5">
         <v>637082</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="5">
         <v>637881</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="5">
         <v>638751</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="5">
         <v>644105</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="5">
         <v>645948</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="5">
         <v>647499</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="5">
         <v>652294</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="5">
         <v>656042</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="5">
         <v>659085</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="5">
         <v>661325</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="5">
         <v>664363</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="5">
         <v>671194</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="5">
         <v>678557</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="5">
         <v>686910</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="5">
         <v>697626</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="5">
         <v>712084</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="5">
         <v>722677</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="5">
         <v>736617</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="5">
         <v>760362</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="5">
         <v>859748</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="5">
         <v>937389</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="5">
         <v>988319</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="5">
         <v>1021543</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="5">
         <v>1033984</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="5">
         <v>1057349</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="5">
         <v>1093202</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="5">
         <v>1112694</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="5">
         <v>1115760</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX14" s="5">
         <v>1134654</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY14" s="5">
         <v>1140200</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ14" s="5">
         <v>1146164</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BA14" s="5">
         <v>1158567</v>
       </c>
-      <c r="BB14" t="n">
+      <c r="BB14" s="5">
         <v>1170196</v>
       </c>
+      <c r="BC14" s="5">
+        <v>1175825</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Key Alves</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s" s="6">
+        <v>68</v>
+      </c>
+      <c r="C15" s="5">
         <v>7000000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5">
         <v>7656395</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="5">
         <v>7696363</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="5">
         <v>7719232</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5">
         <v>7739270</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="5">
         <v>7753221</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="5">
         <v>7694020</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="5">
         <v>7705006</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="5">
         <v>7727024</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="5">
         <v>7741007</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="5">
         <v>7768419</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="5">
         <v>7838691</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="5">
         <v>7919422</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="5">
         <v>7922786</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="5">
         <v>7913974</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="5">
         <v>7916159</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="5">
         <v>7914749</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="5">
         <v>7916466</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="5">
         <v>7920702</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="5">
         <v>7919131</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="5">
         <v>7919433</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="5">
         <v>7917721</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="5">
         <v>7905862</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="5">
         <v>7905834</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="5">
         <v>7903903</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="5">
         <v>7900622</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="5">
         <v>7896612</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="5">
         <v>7893273</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="5">
         <v>7892476</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="5">
         <v>7827029</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="5">
         <v>7789848</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="5">
         <v>7692693</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="5">
         <v>7684807</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="5">
         <v>7662263</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="5">
         <v>7656091</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="5">
         <v>7654513</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="5">
         <v>7669327</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="5">
         <v>7673511</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="5">
         <v>7674376</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="5">
         <v>7676252</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="5">
         <v>7689492</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="5">
         <v>7698475</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="5">
         <v>7700457</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="5">
         <v>7701228</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="5">
         <v>7708961</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="5">
         <v>7834114</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="5">
         <v>7891778</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX15" s="5">
         <v>8101127</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY15" s="5">
         <v>8191815</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="AZ15" s="5">
         <v>8327021</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BA15" s="5">
         <v>8482303</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BB15" s="5">
         <v>8637449</v>
       </c>
+      <c r="BC15" s="5">
+        <v>8695532</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Marília</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s" s="6">
+        <v>69</v>
+      </c>
+      <c r="C16" s="5">
         <v>797000</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="5">
         <v>1053148</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="5">
         <v>1074407</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="5">
         <v>1089861</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5">
         <v>1105375</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="5">
         <v>1137312</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="5">
         <v>1191073</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="5">
         <v>1199787</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="5">
         <v>1203668</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="5">
         <v>1206697</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="5">
         <v>1216417</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="5">
         <v>1225914</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="5">
         <v>1228911</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="5">
         <v>1229107</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="5">
         <v>1229662</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="5">
         <v>1231947</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" s="5">
         <v>1231939</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="5">
         <v>1234851</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" s="5">
         <v>1243908</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16" s="5">
         <v>1246090</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16" s="5">
         <v>1248044</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16" s="5">
         <v>1248741</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16" s="5">
         <v>1248860</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16" s="5">
         <v>1249957</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="5">
         <v>1249221</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="5">
         <v>1252050</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="5">
         <v>1254109</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="5">
         <v>1254201</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="5">
         <v>1255893</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="5">
         <v>1256543</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="5">
         <v>1256734</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="5">
         <v>1257305</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="5">
         <v>1258445</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="5">
         <v>1260914</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="5">
         <v>1263780</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="5">
         <v>1262463</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="5">
         <v>1264359</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="5">
         <v>1266316</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="5">
         <v>1267195</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="5">
         <v>1269882</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="5">
         <v>1270678</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="5">
         <v>1270037</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="5">
         <v>1269644</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="5">
         <v>1271842</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="5">
         <v>1270425</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="5">
         <v>1270737</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="5">
         <v>1270947</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AX16" s="5">
         <v>1284575</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AY16" s="5">
         <v>1285541</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="AZ16" s="5">
         <v>1286968</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BA16" s="5">
         <v>1287938</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BB16" s="5">
         <v>1289509</v>
       </c>
+      <c r="BC16" s="5">
+        <v>1289512</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Cristian</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s" s="6">
+        <v>70</v>
+      </c>
+      <c r="C17" s="5">
         <v>6855</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="5">
         <v>92682</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="5">
         <v>98043</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="5">
         <v>100840</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="5">
         <v>112523</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="5">
         <v>117808</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="5">
         <v>123775</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="5">
         <v>128001</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="5">
         <v>135488</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="5">
         <v>138169</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="5">
         <v>144020</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="5">
         <v>148791</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="5">
         <v>157611</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="5">
         <v>171614</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="5">
         <v>174592</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="5">
         <v>186222</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S17" s="5">
         <v>213942</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="5">
         <v>275591</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" s="5">
         <v>272903</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17" s="5">
         <v>274260</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17" s="5">
         <v>276798</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17" s="5">
         <v>278376</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17" s="5">
         <v>315890</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z17" s="5">
         <v>329510</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="5">
         <v>333668</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="5">
         <v>343526</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="5">
         <v>350489</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="5">
         <v>357781</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="5">
         <v>366869</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="5">
         <v>377285</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="5">
         <v>381285</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="5">
         <v>441077</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="5">
         <v>454195</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="5">
         <v>458304</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="5">
         <v>452138</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="5">
         <v>461238</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="5">
         <v>468966</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="5">
         <v>475503</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="5">
         <v>483413</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="5">
         <v>481933</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="5">
         <v>491996</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="5">
         <v>498846</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="5">
         <v>496639</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="5">
         <v>499305</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="5">
         <v>504538</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="5">
         <v>507364</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="5">
         <v>507799</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX17" s="5">
         <v>511305</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY17" s="5">
         <v>512726</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ17" s="5">
         <v>517449</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA17" s="5">
         <v>524305</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB17" s="5">
         <v>527138</v>
       </c>
+      <c r="BC17" s="5">
+        <v>528746</v>
+      </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Marvvila</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s" s="6">
+        <v>71</v>
+      </c>
+      <c r="C18" s="5">
         <v>654000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="5">
         <v>870969</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5">
         <v>905118</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="5">
         <v>915868</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5">
         <v>934313</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="5">
         <v>955542</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="5">
         <v>979016</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="5">
         <v>998288</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="5">
         <v>1021044</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="5">
         <v>1045084</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="5">
         <v>1065411</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="5">
         <v>1093432</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="5">
         <v>1105761</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="5">
         <v>1126343</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="5">
         <v>1131182</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="5">
         <v>1147801</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S18" s="5">
         <v>1161202</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="5">
         <v>1175381</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U18" s="5">
         <v>1196827</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V18" s="5">
         <v>1208042</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W18" s="5">
         <v>1220493</v>
       </c>
-      <c r="X18" t="n">
+      <c r="X18" s="5">
         <v>1225399</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y18" s="5">
         <v>1237944</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z18" s="5">
         <v>1243542</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="5">
         <v>1246319</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="5">
         <v>1255336</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="5">
         <v>1260126</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="5">
         <v>1264835</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="5">
         <v>1270500</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="5">
         <v>1274006</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="5">
         <v>1276019</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="5">
         <v>1280083</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="5">
         <v>1285346</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="5">
         <v>1291544</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="5">
         <v>1293008</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="5">
         <v>1297889</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="5">
         <v>1302803</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="5">
         <v>1307107</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="5">
         <v>1310491</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="5">
         <v>1315722</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="5">
         <v>1321098</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="5">
         <v>1328049</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="5">
         <v>1331880</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="5">
         <v>1336468</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="5">
         <v>1346739</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="5">
         <v>1355440</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="5">
         <v>1358202</v>
       </c>
-      <c r="AX18" t="n">
+      <c r="AX18" s="5">
         <v>1378770</v>
       </c>
-      <c r="AY18" t="n">
+      <c r="AY18" s="5">
         <v>1385343</v>
       </c>
-      <c r="AZ18" t="n">
+      <c r="AZ18" s="5">
         <v>1403667</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BA18" s="5">
         <v>1432699</v>
       </c>
-      <c r="BB18" t="n">
+      <c r="BB18" s="5">
         <v>1446460</v>
       </c>
+      <c r="BC18" s="5">
+        <v>1453062</v>
+      </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Tina</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s" s="6">
+        <v>72</v>
+      </c>
+      <c r="C19" s="5">
         <v>7376</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="5">
         <v>163201</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="5">
         <v>177683</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="5">
         <v>184119</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5">
         <v>195192</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="5">
         <v>212577</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="5">
         <v>235450</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="5">
         <v>243619</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="5">
         <v>250150</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="5">
         <v>254622</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="5">
         <v>260723</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="5">
         <v>267207</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="5">
         <v>270394</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="5">
         <v>274524</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="5">
         <v>276526</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="5">
         <v>286003</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" s="5">
         <v>290827</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="5">
         <v>359918</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U19" s="5">
         <v>414396</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V19" s="5">
         <v>424388</v>
       </c>
-      <c r="W19" t="n">
+      <c r="W19" s="5">
         <v>430222</v>
       </c>
-      <c r="X19" t="n">
+      <c r="X19" s="5">
         <v>439720</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y19" s="5">
         <v>455641</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z19" s="5">
         <v>459264</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="5">
         <v>461416</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="5">
         <v>468203</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="5">
         <v>472054</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="5">
         <v>476564</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="5">
         <v>480911</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="5">
         <v>483667</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="5">
         <v>485642</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="5">
         <v>488163</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="5">
         <v>491078</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="5">
         <v>493502</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="5">
         <v>495795</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="5">
         <v>497485</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="5">
         <v>500409</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="5">
         <v>502459</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="5">
         <v>504143</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="5">
         <v>505856</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="5">
         <v>507278</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="5">
         <v>508587</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="5">
         <v>510317</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="5">
         <v>511621</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="5">
         <v>515943</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="5">
         <v>518862</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="5">
         <v>519390</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AX19" s="5">
         <v>522604</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY19" s="5">
         <v>523413</v>
       </c>
-      <c r="AZ19" t="n">
+      <c r="AZ19" s="5">
         <v>525288</v>
       </c>
-      <c r="BA19" t="n">
+      <c r="BA19" s="5">
         <v>529080</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BB19" s="5">
         <v>535941</v>
       </c>
+      <c r="BC19" s="5">
+        <v>538029</v>
+      </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Gabriel Santana</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="C20" s="5">
         <v>2200000</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="5">
         <v>2833398</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="5">
         <v>2852688</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="5">
         <v>2861236</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="5">
         <v>2874061</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="5">
         <v>2884001</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="5">
         <v>2894793</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="5">
         <v>2903908</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="5">
         <v>2911457</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="5">
         <v>2917186</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="5">
         <v>2925178</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="5">
         <v>2932285</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="5">
         <v>2938003</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="5">
         <v>2949523</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="5">
         <v>2952968</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="5">
         <v>2961228</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20" s="5">
         <v>2965184</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20" s="5">
         <v>2970706</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U20" s="5">
         <v>2974758</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V20" s="5">
         <v>2977919</v>
       </c>
-      <c r="W20" t="n">
+      <c r="W20" s="5">
         <v>2981009</v>
       </c>
-      <c r="X20" t="n">
+      <c r="X20" s="5">
         <v>2983376</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y20" s="5">
         <v>2989092</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z20" s="5">
         <v>2992581</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="5">
         <v>2994421</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="5">
         <v>3001715</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="5">
         <v>3004418</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="5">
         <v>3007786</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="5">
         <v>3011040</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="5">
         <v>3012530</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="5">
         <v>3014200</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="5">
         <v>3016315</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="5">
         <v>3022349</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="5">
         <v>3031096</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="5">
         <v>3029690</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="5">
         <v>3037066</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="5">
         <v>3047817</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="5">
         <v>3052707</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="5">
         <v>3057674</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20" s="5">
         <v>3062589</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20" s="5">
         <v>3066680</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR20" s="5">
         <v>3069053</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS20" s="5">
         <v>3070263</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AT20" s="5">
         <v>3072364</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AU20" s="5">
         <v>3080637</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AV20" s="5">
         <v>3087635</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AW20" s="5">
         <v>3088899</v>
       </c>
-      <c r="AX20" t="n">
+      <c r="AX20" s="5">
         <v>3100778</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="AY20" s="5">
         <v>3105462</v>
       </c>
-      <c r="AZ20" t="n">
+      <c r="AZ20" s="5">
         <v>3116774</v>
       </c>
-      <c r="BA20" t="n">
+      <c r="BA20" s="5">
         <v>3141536</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="BB20" s="5">
         <v>3153479</v>
       </c>
+      <c r="BC20" s="5">
+        <v>3162310</v>
+      </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Amanda</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="C21" s="5">
         <v>13800</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5">
         <v>225509</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="5">
         <v>249003</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="5">
         <v>261948</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="5">
         <v>287020</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="5">
         <v>321130</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="5">
         <v>353696</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="5">
         <v>375905</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="5">
         <v>403912</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="5">
         <v>422912</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="5">
         <v>442448</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="5">
         <v>471500</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="5">
         <v>490982</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="5">
         <v>568383</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="5">
         <v>587816</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="5">
         <v>724937</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="5">
         <v>777534</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="5">
         <v>832676</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="5">
         <v>892650</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="5">
         <v>927302</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="5">
         <v>986511</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="5">
         <v>1039730</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="5">
         <v>1192922</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="5">
         <v>1235672</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="5">
         <v>1267425</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="5">
         <v>1358141</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="5">
         <v>1396578</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="5">
         <v>1426169</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="5">
         <v>1460826</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="5">
         <v>1486675</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="5">
         <v>1503879</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="5">
         <v>1536808</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="5">
         <v>1578638</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="5">
         <v>1607848</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21" s="5">
         <v>1634824</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21" s="5">
         <v>1662040</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21" s="5">
         <v>1696016</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21" s="5">
         <v>1724546</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="5">
         <v>1738058</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="5">
         <v>1756725</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="5">
         <v>1775798</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AR21" s="5">
         <v>1789484</v>
       </c>
-      <c r="AS21" t="n">
+      <c r="AS21" s="5">
         <v>1798017</v>
       </c>
-      <c r="AT21" t="n">
+      <c r="AT21" s="5">
         <v>1807404</v>
       </c>
-      <c r="AU21" t="n">
+      <c r="AU21" s="5">
         <v>1825288</v>
       </c>
-      <c r="AV21" t="n">
+      <c r="AV21" s="5">
         <v>1836890</v>
       </c>
-      <c r="AW21" t="n">
+      <c r="AW21" s="5">
         <v>1839472</v>
       </c>
-      <c r="AX21" t="n">
+      <c r="AX21" s="5">
         <v>1872345</v>
       </c>
-      <c r="AY21" t="n">
+      <c r="AY21" s="5">
         <v>1885198</v>
       </c>
-      <c r="AZ21" t="n">
+      <c r="AZ21" s="5">
         <v>1966015</v>
       </c>
-      <c r="BA21" t="n">
+      <c r="BA21" s="5">
         <v>2099226</v>
       </c>
-      <c r="BB21" t="n">
+      <c r="BB21" s="5">
         <v>2156903</v>
       </c>
+      <c r="BC21" s="5">
+        <v>2168152</v>
+      </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Bruno</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s" s="6">
+        <v>75</v>
+      </c>
+      <c r="C22" s="5">
         <v>1625</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="5">
         <v>148249</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="5">
         <v>151241</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="5">
         <v>152917</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="5">
         <v>156285</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="5">
         <v>158796</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="5">
         <v>161498</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="5">
         <v>163379</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="5">
         <v>166426</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="5">
         <v>169407</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="5">
         <v>174755</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="5">
         <v>180832</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="5">
         <v>182804</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="5">
         <v>184405</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="5">
         <v>184451</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22" s="5">
         <v>185409</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22" s="5">
         <v>185251</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" s="5">
         <v>186058</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U22" s="5">
         <v>187191</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V22" s="5">
         <v>187684</v>
       </c>
-      <c r="W22" t="n">
+      <c r="W22" s="5">
         <v>187882</v>
       </c>
-      <c r="X22" t="n">
+      <c r="X22" s="5">
         <v>188066</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Y22" s="5">
         <v>197847</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="Z22" s="5">
         <v>201200</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AA22" s="5">
         <v>203741</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AB22" s="5">
         <v>207836</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AC22" s="5">
         <v>282277</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AD22" s="5">
         <v>342698</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AE22" s="5">
         <v>367157</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22" s="5">
         <v>376481</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22" s="5">
         <v>382048</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH22" s="5">
         <v>388587</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI22" s="5">
         <v>394227</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ22" s="5">
         <v>397784</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK22" s="5">
         <v>401224</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL22" s="5">
         <v>403262</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM22" s="5">
         <v>406955</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN22" s="5">
         <v>410016</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AO22" s="5">
         <v>411641</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AP22" s="5">
         <v>413897</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AQ22" s="5">
         <v>416998</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AR22" s="5">
         <v>420393</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AS22" s="5">
         <v>421344</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AT22" s="5">
         <v>421918</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AU22" s="5">
         <v>423287</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AV22" s="5">
         <v>424580</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AW22" s="5">
         <v>424546</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AX22" s="5">
         <v>424229</v>
       </c>
-      <c r="AY22" t="n">
+      <c r="AY22" s="5">
         <v>424000</v>
       </c>
-      <c r="AZ22" t="n">
+      <c r="AZ22" s="5">
         <v>424338</v>
       </c>
-      <c r="BA22" t="n">
+      <c r="BA22" s="5">
         <v>425529</v>
       </c>
-      <c r="BB22" t="n">
+      <c r="BB22" s="5">
         <v>425294</v>
       </c>
+      <c r="BC22" s="5">
+        <v>425498</v>
+      </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MC Guimê</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s" s="6">
+        <v>76</v>
+      </c>
+      <c r="C23" s="5">
         <v>8200000</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="5">
         <v>8591948</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="5">
         <v>8602569</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="5">
         <v>8606705</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="5">
         <v>8611439</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="5">
         <v>8616220</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="5">
         <v>8620432</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="5">
         <v>8625669</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="5">
         <v>8630809</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="5">
         <v>8633838</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="5">
         <v>8639586</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="5">
         <v>8647941</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" s="5">
         <v>8653460</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23" s="5">
         <v>8659830</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" s="5">
         <v>8662092</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23" s="5">
         <v>8668207</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23" s="5">
         <v>8672033</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T23" s="5">
         <v>8677077</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U23" s="5">
         <v>8686517</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V23" s="5">
         <v>8691419</v>
       </c>
-      <c r="W23" t="n">
+      <c r="W23" s="5">
         <v>8696388</v>
       </c>
-      <c r="X23" t="n">
+      <c r="X23" s="5">
         <v>8699552</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Y23" s="5">
         <v>8715673</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="Z23" s="5">
         <v>8714952</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AA23" s="5">
         <v>8718333</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB23" s="5">
         <v>8732450</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AC23" s="5">
         <v>8742471</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AD23" s="5">
         <v>8750425</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AE23" s="5">
         <v>8760050</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF23" s="5">
         <v>8767343</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG23" s="5">
         <v>8771322</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH23" s="5">
         <v>8802255</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI23" s="5">
         <v>8836483</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AJ23" s="5">
         <v>8968368</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AK23" s="5">
         <v>9036643</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL23" s="5">
         <v>9174930</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AM23" s="5">
         <v>9245017</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AN23" s="5">
         <v>9283040</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AO23" s="5">
         <v>9294468</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AP23" s="5">
         <v>9321435</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AQ23" s="5">
         <v>9342010</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AR23" s="5">
         <v>9353966</v>
       </c>
-      <c r="AS23" t="n">
+      <c r="AS23" s="5">
         <v>9364656</v>
       </c>
-      <c r="AT23" t="n">
+      <c r="AT23" s="5">
         <v>9375483</v>
       </c>
-      <c r="AU23" t="n">
+      <c r="AU23" s="5">
         <v>9402209</v>
       </c>
-      <c r="AV23" t="n">
+      <c r="AV23" s="5">
         <v>9416454</v>
       </c>
-      <c r="AW23" t="n">
+      <c r="AW23" s="5">
         <v>9419360</v>
       </c>
-      <c r="AX23" t="n">
+      <c r="AX23" s="5">
         <v>9439324</v>
       </c>
-      <c r="AY23" t="n">
+      <c r="AY23" s="5">
         <v>9449087</v>
       </c>
-      <c r="AZ23" t="n">
+      <c r="AZ23" s="5">
         <v>9623775</v>
       </c>
-      <c r="BA23" t="n">
+      <c r="BA23" s="5">
         <v>10180885</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BB23" s="5">
         <v>10241781</v>
+      </c>
+      <c r="BC23" s="5">
+        <v>10253734</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +714,11 @@
           <t>2023-03-24</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -886,6 +891,9 @@
       <c r="BD2" t="n">
         <v>810742</v>
       </c>
+      <c r="BE2" t="n">
+        <v>812395</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1058,6 +1066,9 @@
       <c r="BD3" t="n">
         <v>1008740</v>
       </c>
+      <c r="BE3" t="n">
+        <v>1012477</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1230,6 +1241,9 @@
       <c r="BD4" t="n">
         <v>1652481</v>
       </c>
+      <c r="BE4" t="n">
+        <v>1670620</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1402,6 +1416,9 @@
       <c r="BD5" t="n">
         <v>612429</v>
       </c>
+      <c r="BE5" t="n">
+        <v>647050</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1574,6 +1591,9 @@
       <c r="BD6" t="n">
         <v>4497237</v>
       </c>
+      <c r="BE6" t="n">
+        <v>4535782</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1746,6 +1766,9 @@
       <c r="BD7" t="n">
         <v>1677780</v>
       </c>
+      <c r="BE7" t="n">
+        <v>1673640</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1918,6 +1941,9 @@
       <c r="BD8" t="n">
         <v>11169515</v>
       </c>
+      <c r="BE8" t="n">
+        <v>11225426</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2090,6 +2116,9 @@
       <c r="BD9" t="n">
         <v>2612593</v>
       </c>
+      <c r="BE9" t="n">
+        <v>2639785</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2262,6 +2291,9 @@
       <c r="BD10" t="n">
         <v>961368</v>
       </c>
+      <c r="BE10" t="n">
+        <v>998886</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2434,6 +2466,9 @@
       <c r="BD11" t="n">
         <v>1395536</v>
       </c>
+      <c r="BE11" t="n">
+        <v>1433169</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2606,6 +2641,9 @@
       <c r="BD12" t="n">
         <v>2166214</v>
       </c>
+      <c r="BE12" t="n">
+        <v>2196763</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2778,6 +2816,9 @@
       <c r="BD13" t="n">
         <v>623730</v>
       </c>
+      <c r="BE13" t="n">
+        <v>658758</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2950,6 +2991,9 @@
       <c r="BD14" t="n">
         <v>1195503</v>
       </c>
+      <c r="BE14" t="n">
+        <v>1199872</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3122,6 +3166,9 @@
       <c r="BD15" t="n">
         <v>8772061</v>
       </c>
+      <c r="BE15" t="n">
+        <v>8964760</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3294,6 +3341,9 @@
       <c r="BD16" t="n">
         <v>1289673</v>
       </c>
+      <c r="BE16" t="n">
+        <v>1289668</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3466,6 +3516,9 @@
       <c r="BD17" t="n">
         <v>537087</v>
       </c>
+      <c r="BE17" t="n">
+        <v>540310</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3638,6 +3691,9 @@
       <c r="BD18" t="n">
         <v>1471739</v>
       </c>
+      <c r="BE18" t="n">
+        <v>1484368</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3810,6 +3866,9 @@
       <c r="BD19" t="n">
         <v>559892</v>
       </c>
+      <c r="BE19" t="n">
+        <v>572428</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3982,6 +4041,9 @@
       <c r="BD20" t="n">
         <v>3190671</v>
       </c>
+      <c r="BE20" t="n">
+        <v>3208329</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4154,6 +4216,9 @@
       <c r="BD21" t="n">
         <v>2236438</v>
       </c>
+      <c r="BE21" t="n">
+        <v>2293080</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4326,6 +4391,9 @@
       <c r="BD22" t="n">
         <v>426030</v>
       </c>
+      <c r="BE22" t="n">
+        <v>425391</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4497,6 +4565,9 @@
       </c>
       <c r="BD23" t="n">
         <v>10255382</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>10266187</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE23"/>
+  <dimension ref="A1:BF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,6 +719,11 @@
           <t>2023-03-26</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -894,6 +899,9 @@
       <c r="BE2" t="n">
         <v>812395</v>
       </c>
+      <c r="BF2" t="n">
+        <v>809467</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1069,6 +1077,9 @@
       <c r="BE3" t="n">
         <v>1012477</v>
       </c>
+      <c r="BF3" t="n">
+        <v>1009522</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1244,6 +1255,9 @@
       <c r="BE4" t="n">
         <v>1670620</v>
       </c>
+      <c r="BF4" t="n">
+        <v>1698148</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1419,6 +1433,9 @@
       <c r="BE5" t="n">
         <v>647050</v>
       </c>
+      <c r="BF5" t="n">
+        <v>663936</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1594,6 +1611,9 @@
       <c r="BE6" t="n">
         <v>4535782</v>
       </c>
+      <c r="BF6" t="n">
+        <v>4582351</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1769,6 +1789,9 @@
       <c r="BE7" t="n">
         <v>1673640</v>
       </c>
+      <c r="BF7" t="n">
+        <v>1665085</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1944,6 +1967,9 @@
       <c r="BE8" t="n">
         <v>11225426</v>
       </c>
+      <c r="BF8" t="n">
+        <v>11267692</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2119,6 +2145,9 @@
       <c r="BE9" t="n">
         <v>2639785</v>
       </c>
+      <c r="BF9" t="n">
+        <v>2648450</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2294,6 +2323,9 @@
       <c r="BE10" t="n">
         <v>998886</v>
       </c>
+      <c r="BF10" t="n">
+        <v>1010004</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2469,6 +2501,9 @@
       <c r="BE11" t="n">
         <v>1433169</v>
       </c>
+      <c r="BF11" t="n">
+        <v>1450745</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2644,6 +2679,9 @@
       <c r="BE12" t="n">
         <v>2196763</v>
       </c>
+      <c r="BF12" t="n">
+        <v>2204166</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2819,6 +2857,9 @@
       <c r="BE13" t="n">
         <v>658758</v>
       </c>
+      <c r="BF13" t="n">
+        <v>684421</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2994,6 +3035,9 @@
       <c r="BE14" t="n">
         <v>1199872</v>
       </c>
+      <c r="BF14" t="n">
+        <v>1203106</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3169,6 +3213,9 @@
       <c r="BE15" t="n">
         <v>8964760</v>
       </c>
+      <c r="BF15" t="n">
+        <v>9092879</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3344,6 +3391,9 @@
       <c r="BE16" t="n">
         <v>1289668</v>
       </c>
+      <c r="BF16" t="n">
+        <v>1290579</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3519,6 +3569,9 @@
       <c r="BE17" t="n">
         <v>540310</v>
       </c>
+      <c r="BF17" t="n">
+        <v>539008</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3694,6 +3747,9 @@
       <c r="BE18" t="n">
         <v>1484368</v>
       </c>
+      <c r="BF18" t="n">
+        <v>1496435</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3869,6 +3925,9 @@
       <c r="BE19" t="n">
         <v>572428</v>
       </c>
+      <c r="BF19" t="n">
+        <v>576913</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4044,6 +4103,9 @@
       <c r="BE20" t="n">
         <v>3208329</v>
       </c>
+      <c r="BF20" t="n">
+        <v>3348344</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4219,6 +4281,9 @@
       <c r="BE21" t="n">
         <v>2293080</v>
       </c>
+      <c r="BF21" t="n">
+        <v>2325166</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4394,6 +4459,9 @@
       <c r="BE22" t="n">
         <v>425391</v>
       </c>
+      <c r="BF22" t="n">
+        <v>424875</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4568,6 +4636,9 @@
       </c>
       <c r="BE23" t="n">
         <v>10266187</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>10265322</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF23"/>
+  <dimension ref="A1:BG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,6 +724,11 @@
           <t>2023-03-29</t>
         </is>
       </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -902,6 +907,9 @@
       <c r="BF2" t="n">
         <v>809467</v>
       </c>
+      <c r="BG2" t="n">
+        <v>810210</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1080,6 +1088,9 @@
       <c r="BF3" t="n">
         <v>1009522</v>
       </c>
+      <c r="BG3" t="n">
+        <v>1009128</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1258,6 +1269,9 @@
       <c r="BF4" t="n">
         <v>1698148</v>
       </c>
+      <c r="BG4" t="n">
+        <v>1701175</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1436,6 +1450,9 @@
       <c r="BF5" t="n">
         <v>663936</v>
       </c>
+      <c r="BG5" t="n">
+        <v>666758</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1614,6 +1631,9 @@
       <c r="BF6" t="n">
         <v>4582351</v>
       </c>
+      <c r="BG6" t="n">
+        <v>4589097</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1792,6 +1812,9 @@
       <c r="BF7" t="n">
         <v>1665085</v>
       </c>
+      <c r="BG7" t="n">
+        <v>1664313</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1970,6 +1993,9 @@
       <c r="BF8" t="n">
         <v>11267692</v>
       </c>
+      <c r="BG8" t="n">
+        <v>11273734</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2148,6 +2174,9 @@
       <c r="BF9" t="n">
         <v>2648450</v>
       </c>
+      <c r="BG9" t="n">
+        <v>2651247</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2326,6 +2355,9 @@
       <c r="BF10" t="n">
         <v>1010004</v>
       </c>
+      <c r="BG10" t="n">
+        <v>1013161</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2504,6 +2536,9 @@
       <c r="BF11" t="n">
         <v>1450745</v>
       </c>
+      <c r="BG11" t="n">
+        <v>1454084</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2682,6 +2717,9 @@
       <c r="BF12" t="n">
         <v>2204166</v>
       </c>
+      <c r="BG12" t="n">
+        <v>2207036</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2860,6 +2898,9 @@
       <c r="BF13" t="n">
         <v>684421</v>
       </c>
+      <c r="BG13" t="n">
+        <v>695519</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3038,6 +3079,9 @@
       <c r="BF14" t="n">
         <v>1203106</v>
       </c>
+      <c r="BG14" t="n">
+        <v>1204436</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3216,6 +3260,9 @@
       <c r="BF15" t="n">
         <v>9092879</v>
       </c>
+      <c r="BG15" t="n">
+        <v>9089051</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3394,6 +3441,9 @@
       <c r="BF16" t="n">
         <v>1290579</v>
       </c>
+      <c r="BG16" t="n">
+        <v>1290758</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3572,6 +3622,9 @@
       <c r="BF17" t="n">
         <v>539008</v>
       </c>
+      <c r="BG17" t="n">
+        <v>539482</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3750,6 +3803,9 @@
       <c r="BF18" t="n">
         <v>1496435</v>
       </c>
+      <c r="BG18" t="n">
+        <v>1499371</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3928,6 +3984,9 @@
       <c r="BF19" t="n">
         <v>576913</v>
       </c>
+      <c r="BG19" t="n">
+        <v>577751</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4106,6 +4165,9 @@
       <c r="BF20" t="n">
         <v>3348344</v>
       </c>
+      <c r="BG20" t="n">
+        <v>3369217</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4284,6 +4346,9 @@
       <c r="BF21" t="n">
         <v>2325166</v>
       </c>
+      <c r="BG21" t="n">
+        <v>2328397</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4462,6 +4527,9 @@
       <c r="BF22" t="n">
         <v>424875</v>
       </c>
+      <c r="BG22" t="n">
+        <v>423928</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4639,6 +4707,9 @@
       </c>
       <c r="BF23" t="n">
         <v>10265322</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>10267550</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG23"/>
+  <dimension ref="A1:BH23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,6 +729,11 @@
           <t>2023-03-30</t>
         </is>
       </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -910,6 +915,9 @@
       <c r="BG2" t="n">
         <v>810210</v>
       </c>
+      <c r="BH2" t="n">
+        <v>809969</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1091,6 +1099,9 @@
       <c r="BG3" t="n">
         <v>1009128</v>
       </c>
+      <c r="BH3" t="n">
+        <v>1007354</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1272,6 +1283,9 @@
       <c r="BG4" t="n">
         <v>1701175</v>
       </c>
+      <c r="BH4" t="n">
+        <v>1762514</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1453,6 +1467,9 @@
       <c r="BG5" t="n">
         <v>666758</v>
       </c>
+      <c r="BH5" t="n">
+        <v>702801</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1634,6 +1651,9 @@
       <c r="BG6" t="n">
         <v>4589097</v>
       </c>
+      <c r="BH6" t="n">
+        <v>4633089</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1815,6 +1835,9 @@
       <c r="BG7" t="n">
         <v>1664313</v>
       </c>
+      <c r="BH7" t="n">
+        <v>1661027</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1996,6 +2019,9 @@
       <c r="BG8" t="n">
         <v>11273734</v>
       </c>
+      <c r="BH8" t="n">
+        <v>11292852</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2177,6 +2203,9 @@
       <c r="BG9" t="n">
         <v>2651247</v>
       </c>
+      <c r="BH9" t="n">
+        <v>2652936</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2358,6 +2387,9 @@
       <c r="BG10" t="n">
         <v>1013161</v>
       </c>
+      <c r="BH10" t="n">
+        <v>1019867</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2539,6 +2571,9 @@
       <c r="BG11" t="n">
         <v>1454084</v>
       </c>
+      <c r="BH11" t="n">
+        <v>1469710</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2720,6 +2755,9 @@
       <c r="BG12" t="n">
         <v>2207036</v>
       </c>
+      <c r="BH12" t="n">
+        <v>2214981</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2901,6 +2939,9 @@
       <c r="BG13" t="n">
         <v>695519</v>
       </c>
+      <c r="BH13" t="n">
+        <v>714927</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3082,6 +3123,9 @@
       <c r="BG14" t="n">
         <v>1204436</v>
       </c>
+      <c r="BH14" t="n">
+        <v>1205840</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3263,6 +3307,9 @@
       <c r="BG15" t="n">
         <v>9089051</v>
       </c>
+      <c r="BH15" t="n">
+        <v>9231194</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3444,6 +3491,9 @@
       <c r="BG16" t="n">
         <v>1290758</v>
       </c>
+      <c r="BH16" t="n">
+        <v>1284869</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3625,6 +3675,9 @@
       <c r="BG17" t="n">
         <v>539482</v>
       </c>
+      <c r="BH17" t="n">
+        <v>539639</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3806,6 +3859,9 @@
       <c r="BG18" t="n">
         <v>1499371</v>
       </c>
+      <c r="BH18" t="n">
+        <v>1523534</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3987,6 +4043,9 @@
       <c r="BG19" t="n">
         <v>577751</v>
       </c>
+      <c r="BH19" t="n">
+        <v>580478</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4168,6 +4227,9 @@
       <c r="BG20" t="n">
         <v>3369217</v>
       </c>
+      <c r="BH20" t="n">
+        <v>3418180</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4349,6 +4411,9 @@
       <c r="BG21" t="n">
         <v>2328397</v>
       </c>
+      <c r="BH21" t="n">
+        <v>2357322</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4530,6 +4595,9 @@
       <c r="BG22" t="n">
         <v>423928</v>
       </c>
+      <c r="BH22" t="n">
+        <v>422930</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4710,6 +4778,9 @@
       </c>
       <c r="BG23" t="n">
         <v>10267550</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>10279112</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -916,7 +916,7 @@
         <v>810210</v>
       </c>
       <c r="BH2" t="n">
-        <v>809969</v>
+        <v>809740</v>
       </c>
     </row>
     <row r="3">
@@ -1100,7 +1100,7 @@
         <v>1009128</v>
       </c>
       <c r="BH3" t="n">
-        <v>1007354</v>
+        <v>1008383</v>
       </c>
     </row>
     <row r="4">
@@ -1284,7 +1284,7 @@
         <v>1701175</v>
       </c>
       <c r="BH4" t="n">
-        <v>1762514</v>
+        <v>1766703</v>
       </c>
     </row>
     <row r="5">
@@ -1468,7 +1468,7 @@
         <v>666758</v>
       </c>
       <c r="BH5" t="n">
-        <v>702801</v>
+        <v>708638</v>
       </c>
     </row>
     <row r="6">
@@ -1652,7 +1652,7 @@
         <v>4589097</v>
       </c>
       <c r="BH6" t="n">
-        <v>4633089</v>
+        <v>4640359</v>
       </c>
     </row>
     <row r="7">
@@ -1836,7 +1836,7 @@
         <v>1664313</v>
       </c>
       <c r="BH7" t="n">
-        <v>1661027</v>
+        <v>1677928</v>
       </c>
     </row>
     <row r="8">
@@ -2020,7 +2020,7 @@
         <v>11273734</v>
       </c>
       <c r="BH8" t="n">
-        <v>11292852</v>
+        <v>11294671</v>
       </c>
     </row>
     <row r="9">
@@ -2204,7 +2204,7 @@
         <v>2651247</v>
       </c>
       <c r="BH9" t="n">
-        <v>2652936</v>
+        <v>2657317</v>
       </c>
     </row>
     <row r="10">
@@ -2388,7 +2388,7 @@
         <v>1013161</v>
       </c>
       <c r="BH10" t="n">
-        <v>1019867</v>
+        <v>1018822</v>
       </c>
     </row>
     <row r="11">
@@ -2572,7 +2572,7 @@
         <v>1454084</v>
       </c>
       <c r="BH11" t="n">
-        <v>1469710</v>
+        <v>1469508</v>
       </c>
     </row>
     <row r="12">
@@ -2756,7 +2756,7 @@
         <v>2207036</v>
       </c>
       <c r="BH12" t="n">
-        <v>2214981</v>
+        <v>2215588</v>
       </c>
     </row>
     <row r="13">
@@ -2940,7 +2940,7 @@
         <v>695519</v>
       </c>
       <c r="BH13" t="n">
-        <v>714927</v>
+        <v>724994</v>
       </c>
     </row>
     <row r="14">
@@ -3124,7 +3124,7 @@
         <v>1204436</v>
       </c>
       <c r="BH14" t="n">
-        <v>1205840</v>
+        <v>1205874</v>
       </c>
     </row>
     <row r="15">
@@ -3308,7 +3308,7 @@
         <v>9089051</v>
       </c>
       <c r="BH15" t="n">
-        <v>9231194</v>
+        <v>9336891</v>
       </c>
     </row>
     <row r="16">
@@ -3492,7 +3492,7 @@
         <v>1290758</v>
       </c>
       <c r="BH16" t="n">
-        <v>1284869</v>
+        <v>1285718</v>
       </c>
     </row>
     <row r="17">
@@ -3676,7 +3676,7 @@
         <v>539482</v>
       </c>
       <c r="BH17" t="n">
-        <v>539639</v>
+        <v>534174</v>
       </c>
     </row>
     <row r="18">
@@ -3860,7 +3860,7 @@
         <v>1499371</v>
       </c>
       <c r="BH18" t="n">
-        <v>1523534</v>
+        <v>1530222</v>
       </c>
     </row>
     <row r="19">
@@ -4044,7 +4044,7 @@
         <v>577751</v>
       </c>
       <c r="BH19" t="n">
-        <v>580478</v>
+        <v>580939</v>
       </c>
     </row>
     <row r="20">
@@ -4228,7 +4228,7 @@
         <v>3369217</v>
       </c>
       <c r="BH20" t="n">
-        <v>3418180</v>
+        <v>3426246</v>
       </c>
     </row>
     <row r="21">
@@ -4412,7 +4412,7 @@
         <v>2328397</v>
       </c>
       <c r="BH21" t="n">
-        <v>2357322</v>
+        <v>2358814</v>
       </c>
     </row>
     <row r="22">
@@ -4596,7 +4596,7 @@
         <v>423928</v>
       </c>
       <c r="BH22" t="n">
-        <v>422930</v>
+        <v>422195</v>
       </c>
     </row>
     <row r="23">
@@ -4780,7 +4780,7 @@
         <v>10267550</v>
       </c>
       <c r="BH23" t="n">
-        <v>10279112</v>
+        <v>10277604</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH23"/>
+  <dimension ref="A1:BI23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,6 +734,11 @@
           <t>2023-04-04</t>
         </is>
       </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -918,6 +923,9 @@
       <c r="BH2" t="n">
         <v>809740</v>
       </c>
+      <c r="BI2" t="n">
+        <v>809870</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1102,6 +1110,9 @@
       <c r="BH3" t="n">
         <v>1008383</v>
       </c>
+      <c r="BI3" t="n">
+        <v>1008382</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1286,6 +1297,9 @@
       <c r="BH4" t="n">
         <v>1766703</v>
       </c>
+      <c r="BI4" t="n">
+        <v>1784448</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1470,6 +1484,9 @@
       <c r="BH5" t="n">
         <v>708638</v>
       </c>
+      <c r="BI5" t="n">
+        <v>719827</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1654,6 +1671,9 @@
       <c r="BH6" t="n">
         <v>4640359</v>
       </c>
+      <c r="BI6" t="n">
+        <v>4651414</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1838,6 +1858,9 @@
       <c r="BH7" t="n">
         <v>1677928</v>
       </c>
+      <c r="BI7" t="n">
+        <v>1694567</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2022,6 +2045,9 @@
       <c r="BH8" t="n">
         <v>11294671</v>
       </c>
+      <c r="BI8" t="n">
+        <v>11300575</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2206,6 +2232,9 @@
       <c r="BH9" t="n">
         <v>2657317</v>
       </c>
+      <c r="BI9" t="n">
+        <v>2654391</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2390,6 +2419,9 @@
       <c r="BH10" t="n">
         <v>1018822</v>
       </c>
+      <c r="BI10" t="n">
+        <v>1021121</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2574,6 +2606,9 @@
       <c r="BH11" t="n">
         <v>1469508</v>
       </c>
+      <c r="BI11" t="n">
+        <v>1474120</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2758,6 +2793,9 @@
       <c r="BH12" t="n">
         <v>2215588</v>
       </c>
+      <c r="BI12" t="n">
+        <v>2216687</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2942,6 +2980,9 @@
       <c r="BH13" t="n">
         <v>724994</v>
       </c>
+      <c r="BI13" t="n">
+        <v>739293</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3126,6 +3167,9 @@
       <c r="BH14" t="n">
         <v>1205874</v>
       </c>
+      <c r="BI14" t="n">
+        <v>1206626</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3310,6 +3354,9 @@
       <c r="BH15" t="n">
         <v>9336891</v>
       </c>
+      <c r="BI15" t="n">
+        <v>9507294</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3494,6 +3541,9 @@
       <c r="BH16" t="n">
         <v>1285718</v>
       </c>
+      <c r="BI16" t="n">
+        <v>1285394</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3678,6 +3728,9 @@
       <c r="BH17" t="n">
         <v>534174</v>
       </c>
+      <c r="BI17" t="n">
+        <v>531632</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3862,6 +3915,9 @@
       <c r="BH18" t="n">
         <v>1530222</v>
       </c>
+      <c r="BI18" t="n">
+        <v>1596976</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4046,6 +4102,9 @@
       <c r="BH19" t="n">
         <v>580939</v>
       </c>
+      <c r="BI19" t="n">
+        <v>581863</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4230,6 +4289,9 @@
       <c r="BH20" t="n">
         <v>3426246</v>
       </c>
+      <c r="BI20" t="n">
+        <v>3432830</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4414,6 +4476,9 @@
       <c r="BH21" t="n">
         <v>2358814</v>
       </c>
+      <c r="BI21" t="n">
+        <v>2399106</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4598,6 +4663,9 @@
       <c r="BH22" t="n">
         <v>422195</v>
       </c>
+      <c r="BI22" t="n">
+        <v>421273</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4781,6 +4849,9 @@
       </c>
       <c r="BH23" t="n">
         <v>10277604</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>10272209</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI23"/>
+  <dimension ref="A1:BJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,11 @@
           <t>2023-04-07</t>
         </is>
       </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -926,6 +931,9 @@
       <c r="BI2" t="n">
         <v>809870</v>
       </c>
+      <c r="BJ2" t="n">
+        <v>809225</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1113,6 +1121,9 @@
       <c r="BI3" t="n">
         <v>1008382</v>
       </c>
+      <c r="BJ3" t="n">
+        <v>1005728</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1300,6 +1311,9 @@
       <c r="BI4" t="n">
         <v>1784448</v>
       </c>
+      <c r="BJ4" t="n">
+        <v>1791020</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1487,6 +1501,9 @@
       <c r="BI5" t="n">
         <v>719827</v>
       </c>
+      <c r="BJ5" t="n">
+        <v>747881</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1674,6 +1691,9 @@
       <c r="BI6" t="n">
         <v>4651414</v>
       </c>
+      <c r="BJ6" t="n">
+        <v>4656644</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1861,6 +1881,9 @@
       <c r="BI7" t="n">
         <v>1694567</v>
       </c>
+      <c r="BJ7" t="n">
+        <v>1711969</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2048,6 +2071,9 @@
       <c r="BI8" t="n">
         <v>11300575</v>
       </c>
+      <c r="BJ8" t="n">
+        <v>11307272</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2235,6 +2261,9 @@
       <c r="BI9" t="n">
         <v>2654391</v>
       </c>
+      <c r="BJ9" t="n">
+        <v>2652006</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2422,6 +2451,9 @@
       <c r="BI10" t="n">
         <v>1021121</v>
       </c>
+      <c r="BJ10" t="n">
+        <v>1014049</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2609,6 +2641,9 @@
       <c r="BI11" t="n">
         <v>1474120</v>
       </c>
+      <c r="BJ11" t="n">
+        <v>1472421</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2796,6 +2831,9 @@
       <c r="BI12" t="n">
         <v>2216687</v>
       </c>
+      <c r="BJ12" t="n">
+        <v>2214662</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2983,6 +3021,9 @@
       <c r="BI13" t="n">
         <v>739293</v>
       </c>
+      <c r="BJ13" t="n">
+        <v>751884</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3170,6 +3211,9 @@
       <c r="BI14" t="n">
         <v>1206626</v>
       </c>
+      <c r="BJ14" t="n">
+        <v>1203460</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3357,6 +3401,9 @@
       <c r="BI15" t="n">
         <v>9507294</v>
       </c>
+      <c r="BJ15" t="n">
+        <v>9596580</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3544,6 +3591,9 @@
       <c r="BI16" t="n">
         <v>1285394</v>
       </c>
+      <c r="BJ16" t="n">
+        <v>1288068</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3731,6 +3781,9 @@
       <c r="BI17" t="n">
         <v>531632</v>
       </c>
+      <c r="BJ17" t="n">
+        <v>530557</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3918,6 +3971,9 @@
       <c r="BI18" t="n">
         <v>1596976</v>
       </c>
+      <c r="BJ18" t="n">
+        <v>1627913</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4105,6 +4161,9 @@
       <c r="BI19" t="n">
         <v>581863</v>
       </c>
+      <c r="BJ19" t="n">
+        <v>581397</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4292,6 +4351,9 @@
       <c r="BI20" t="n">
         <v>3432830</v>
       </c>
+      <c r="BJ20" t="n">
+        <v>3440815</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4479,6 +4541,9 @@
       <c r="BI21" t="n">
         <v>2399106</v>
       </c>
+      <c r="BJ21" t="n">
+        <v>2398649</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4666,6 +4731,9 @@
       <c r="BI22" t="n">
         <v>421273</v>
       </c>
+      <c r="BJ22" t="n">
+        <v>419066</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4852,6 +4920,9 @@
       </c>
       <c r="BI23" t="n">
         <v>10272209</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>10271172</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ23"/>
+  <dimension ref="A1:BK23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,11 @@
           <t>2023-04-10</t>
         </is>
       </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -934,6 +939,9 @@
       <c r="BJ2" t="n">
         <v>809225</v>
       </c>
+      <c r="BK2" t="n">
+        <v>809638</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1124,6 +1132,9 @@
       <c r="BJ3" t="n">
         <v>1005728</v>
       </c>
+      <c r="BK3" t="n">
+        <v>1006726</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1314,6 +1325,9 @@
       <c r="BJ4" t="n">
         <v>1791020</v>
       </c>
+      <c r="BK4" t="n">
+        <v>1793591</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1504,6 +1518,9 @@
       <c r="BJ5" t="n">
         <v>747881</v>
       </c>
+      <c r="BK5" t="n">
+        <v>921375</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1694,6 +1711,9 @@
       <c r="BJ6" t="n">
         <v>4656644</v>
       </c>
+      <c r="BK6" t="n">
+        <v>4665074</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1884,6 +1904,9 @@
       <c r="BJ7" t="n">
         <v>1711969</v>
       </c>
+      <c r="BK7" t="n">
+        <v>1714756</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2074,6 +2097,9 @@
       <c r="BJ8" t="n">
         <v>11307272</v>
       </c>
+      <c r="BK8" t="n">
+        <v>11320104</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2264,6 +2290,9 @@
       <c r="BJ9" t="n">
         <v>2652006</v>
       </c>
+      <c r="BK9" t="n">
+        <v>2666699</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2454,6 +2483,9 @@
       <c r="BJ10" t="n">
         <v>1014049</v>
       </c>
+      <c r="BK10" t="n">
+        <v>1007816</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2644,6 +2676,9 @@
       <c r="BJ11" t="n">
         <v>1472421</v>
       </c>
+      <c r="BK11" t="n">
+        <v>1479113</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2834,6 +2869,9 @@
       <c r="BJ12" t="n">
         <v>2214662</v>
       </c>
+      <c r="BK12" t="n">
+        <v>2215713</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3024,6 +3062,9 @@
       <c r="BJ13" t="n">
         <v>751884</v>
       </c>
+      <c r="BK13" t="n">
+        <v>769562</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3214,6 +3255,9 @@
       <c r="BJ14" t="n">
         <v>1203460</v>
       </c>
+      <c r="BK14" t="n">
+        <v>1211942</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3404,6 +3448,9 @@
       <c r="BJ15" t="n">
         <v>9596580</v>
       </c>
+      <c r="BK15" t="n">
+        <v>9731332</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3594,6 +3641,9 @@
       <c r="BJ16" t="n">
         <v>1288068</v>
       </c>
+      <c r="BK16" t="n">
+        <v>1287511</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3784,6 +3834,9 @@
       <c r="BJ17" t="n">
         <v>530557</v>
       </c>
+      <c r="BK17" t="n">
+        <v>530501</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3974,6 +4027,9 @@
       <c r="BJ18" t="n">
         <v>1627913</v>
       </c>
+      <c r="BK18" t="n">
+        <v>1646826</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4164,6 +4220,9 @@
       <c r="BJ19" t="n">
         <v>581397</v>
       </c>
+      <c r="BK19" t="n">
+        <v>582401</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4354,6 +4413,9 @@
       <c r="BJ20" t="n">
         <v>3440815</v>
       </c>
+      <c r="BK20" t="n">
+        <v>3448429</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4544,6 +4606,9 @@
       <c r="BJ21" t="n">
         <v>2398649</v>
       </c>
+      <c r="BK21" t="n">
+        <v>2408020</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4734,6 +4799,9 @@
       <c r="BJ22" t="n">
         <v>419066</v>
       </c>
+      <c r="BK22" t="n">
+        <v>420621</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4923,6 +4991,9 @@
       </c>
       <c r="BJ23" t="n">
         <v>10271172</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>10274636</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK23"/>
+  <dimension ref="A1:BL23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,6 +749,11 @@
           <t>2023-04-12</t>
         </is>
       </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -942,6 +947,9 @@
       <c r="BK2" t="n">
         <v>809638</v>
       </c>
+      <c r="BL2" t="n">
+        <v>809454</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1135,6 +1143,9 @@
       <c r="BK3" t="n">
         <v>1006726</v>
       </c>
+      <c r="BL3" t="n">
+        <v>1006283</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1328,6 +1339,9 @@
       <c r="BK4" t="n">
         <v>1793591</v>
       </c>
+      <c r="BL4" t="n">
+        <v>1789556</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1521,6 +1535,9 @@
       <c r="BK5" t="n">
         <v>921375</v>
       </c>
+      <c r="BL5" t="n">
+        <v>1079042</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1714,6 +1731,9 @@
       <c r="BK6" t="n">
         <v>4665074</v>
       </c>
+      <c r="BL6" t="n">
+        <v>4663824</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1907,6 +1927,9 @@
       <c r="BK7" t="n">
         <v>1714756</v>
       </c>
+      <c r="BL7" t="n">
+        <v>1714939</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2100,6 +2123,9 @@
       <c r="BK8" t="n">
         <v>11320104</v>
       </c>
+      <c r="BL8" t="n">
+        <v>11321862</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2293,6 +2319,9 @@
       <c r="BK9" t="n">
         <v>2666699</v>
       </c>
+      <c r="BL9" t="n">
+        <v>2669470</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2486,6 +2515,9 @@
       <c r="BK10" t="n">
         <v>1007816</v>
       </c>
+      <c r="BL10" t="n">
+        <v>1007350</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2679,6 +2711,9 @@
       <c r="BK11" t="n">
         <v>1479113</v>
       </c>
+      <c r="BL11" t="n">
+        <v>1482636</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2872,6 +2907,9 @@
       <c r="BK12" t="n">
         <v>2215713</v>
       </c>
+      <c r="BL12" t="n">
+        <v>2216278</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3065,6 +3103,9 @@
       <c r="BK13" t="n">
         <v>769562</v>
       </c>
+      <c r="BL13" t="n">
+        <v>776630</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3258,6 +3299,9 @@
       <c r="BK14" t="n">
         <v>1211942</v>
       </c>
+      <c r="BL14" t="n">
+        <v>1218251</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3451,6 +3495,9 @@
       <c r="BK15" t="n">
         <v>9731332</v>
       </c>
+      <c r="BL15" t="n">
+        <v>9796076</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3644,6 +3691,9 @@
       <c r="BK16" t="n">
         <v>1287511</v>
       </c>
+      <c r="BL16" t="n">
+        <v>1287560</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3837,6 +3887,9 @@
       <c r="BK17" t="n">
         <v>530501</v>
       </c>
+      <c r="BL17" t="n">
+        <v>530461</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4030,6 +4083,9 @@
       <c r="BK18" t="n">
         <v>1646826</v>
       </c>
+      <c r="BL18" t="n">
+        <v>1652917</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4223,6 +4279,9 @@
       <c r="BK19" t="n">
         <v>582401</v>
       </c>
+      <c r="BL19" t="n">
+        <v>582614</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4416,6 +4475,9 @@
       <c r="BK20" t="n">
         <v>3448429</v>
       </c>
+      <c r="BL20" t="n">
+        <v>3451642</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4609,6 +4671,9 @@
       <c r="BK21" t="n">
         <v>2408020</v>
       </c>
+      <c r="BL21" t="n">
+        <v>2402502</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4802,6 +4867,9 @@
       <c r="BK22" t="n">
         <v>420621</v>
       </c>
+      <c r="BL22" t="n">
+        <v>420495</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4994,6 +5062,9 @@
       </c>
       <c r="BK23" t="n">
         <v>10274636</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>10274953</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL23"/>
+  <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,6 +754,11 @@
           <t>2023-04-13</t>
         </is>
       </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -950,6 +955,9 @@
       <c r="BL2" t="n">
         <v>809454</v>
       </c>
+      <c r="BM2" t="n">
+        <v>810121</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1146,6 +1154,9 @@
       <c r="BL3" t="n">
         <v>1006283</v>
       </c>
+      <c r="BM3" t="n">
+        <v>1004161</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1342,6 +1353,9 @@
       <c r="BL4" t="n">
         <v>1789556</v>
       </c>
+      <c r="BM4" t="n">
+        <v>1783401</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1538,6 +1552,9 @@
       <c r="BL5" t="n">
         <v>1079042</v>
       </c>
+      <c r="BM5" t="n">
+        <v>1313084</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1734,6 +1751,9 @@
       <c r="BL6" t="n">
         <v>4663824</v>
       </c>
+      <c r="BM6" t="n">
+        <v>4664327</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1930,6 +1950,9 @@
       <c r="BL7" t="n">
         <v>1714939</v>
       </c>
+      <c r="BM7" t="n">
+        <v>1714042</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2126,6 +2149,9 @@
       <c r="BL8" t="n">
         <v>11321862</v>
       </c>
+      <c r="BM8" t="n">
+        <v>11328824</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2322,6 +2348,9 @@
       <c r="BL9" t="n">
         <v>2669470</v>
       </c>
+      <c r="BM9" t="n">
+        <v>2679156</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2518,6 +2547,9 @@
       <c r="BL10" t="n">
         <v>1007350</v>
       </c>
+      <c r="BM10" t="n">
+        <v>1010700</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2714,6 +2746,9 @@
       <c r="BL11" t="n">
         <v>1482636</v>
       </c>
+      <c r="BM11" t="n">
+        <v>1501426</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2910,6 +2945,9 @@
       <c r="BL12" t="n">
         <v>2216278</v>
       </c>
+      <c r="BM12" t="n">
+        <v>2217969</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3106,6 +3144,9 @@
       <c r="BL13" t="n">
         <v>776630</v>
       </c>
+      <c r="BM13" t="n">
+        <v>825073</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3302,6 +3343,9 @@
       <c r="BL14" t="n">
         <v>1218251</v>
       </c>
+      <c r="BM14" t="n">
+        <v>1227762</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3498,6 +3542,9 @@
       <c r="BL15" t="n">
         <v>9796076</v>
       </c>
+      <c r="BM15" t="n">
+        <v>9949898</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3694,6 +3741,9 @@
       <c r="BL16" t="n">
         <v>1287560</v>
       </c>
+      <c r="BM16" t="n">
+        <v>1286683</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3890,6 +3940,9 @@
       <c r="BL17" t="n">
         <v>530461</v>
       </c>
+      <c r="BM17" t="n">
+        <v>531221</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4086,6 +4139,9 @@
       <c r="BL18" t="n">
         <v>1652917</v>
       </c>
+      <c r="BM18" t="n">
+        <v>1668904</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4282,6 +4338,9 @@
       <c r="BL19" t="n">
         <v>582614</v>
       </c>
+      <c r="BM19" t="n">
+        <v>594750</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4478,6 +4537,9 @@
       <c r="BL20" t="n">
         <v>3451642</v>
       </c>
+      <c r="BM20" t="n">
+        <v>3460644</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4674,6 +4736,9 @@
       <c r="BL21" t="n">
         <v>2402502</v>
       </c>
+      <c r="BM21" t="n">
+        <v>2392273</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4870,6 +4935,9 @@
       <c r="BL22" t="n">
         <v>420495</v>
       </c>
+      <c r="BM22" t="n">
+        <v>420290</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5065,6 +5133,9 @@
       </c>
       <c r="BL23" t="n">
         <v>10274953</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>10278231</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM23"/>
+  <dimension ref="A1:BN23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,6 +759,11 @@
           <t>2023-04-16</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -958,6 +963,9 @@
       <c r="BM2" t="n">
         <v>810121</v>
       </c>
+      <c r="BN2" t="n">
+        <v>809593</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1157,6 +1165,9 @@
       <c r="BM3" t="n">
         <v>1004161</v>
       </c>
+      <c r="BN3" t="n">
+        <v>1003772</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1356,6 +1367,9 @@
       <c r="BM4" t="n">
         <v>1783401</v>
       </c>
+      <c r="BN4" t="n">
+        <v>1783765</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1555,6 +1569,9 @@
       <c r="BM5" t="n">
         <v>1313084</v>
       </c>
+      <c r="BN5" t="n">
+        <v>1334522</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1754,6 +1771,9 @@
       <c r="BM6" t="n">
         <v>4664327</v>
       </c>
+      <c r="BN6" t="n">
+        <v>4661228</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1953,6 +1973,9 @@
       <c r="BM7" t="n">
         <v>1714042</v>
       </c>
+      <c r="BN7" t="n">
+        <v>1711522</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2152,6 +2175,9 @@
       <c r="BM8" t="n">
         <v>11328824</v>
       </c>
+      <c r="BN8" t="n">
+        <v>11329989</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2351,6 +2377,9 @@
       <c r="BM9" t="n">
         <v>2679156</v>
       </c>
+      <c r="BN9" t="n">
+        <v>2674569</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2550,6 +2579,9 @@
       <c r="BM10" t="n">
         <v>1010700</v>
       </c>
+      <c r="BN10" t="n">
+        <v>1014692</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2749,6 +2781,9 @@
       <c r="BM11" t="n">
         <v>1501426</v>
       </c>
+      <c r="BN11" t="n">
+        <v>1511434</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2948,6 +2983,9 @@
       <c r="BM12" t="n">
         <v>2217969</v>
       </c>
+      <c r="BN12" t="n">
+        <v>2215251</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3147,6 +3185,9 @@
       <c r="BM13" t="n">
         <v>825073</v>
       </c>
+      <c r="BN13" t="n">
+        <v>926671</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3346,6 +3387,9 @@
       <c r="BM14" t="n">
         <v>1227762</v>
       </c>
+      <c r="BN14" t="n">
+        <v>1231188</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3545,6 +3589,9 @@
       <c r="BM15" t="n">
         <v>9949898</v>
       </c>
+      <c r="BN15" t="n">
+        <v>9914471</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3744,6 +3791,9 @@
       <c r="BM16" t="n">
         <v>1286683</v>
       </c>
+      <c r="BN16" t="n">
+        <v>1283894</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3943,6 +3993,9 @@
       <c r="BM17" t="n">
         <v>531221</v>
       </c>
+      <c r="BN17" t="n">
+        <v>532680</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4142,6 +4195,9 @@
       <c r="BM18" t="n">
         <v>1668904</v>
       </c>
+      <c r="BN18" t="n">
+        <v>1675889</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4341,6 +4397,9 @@
       <c r="BM19" t="n">
         <v>594750</v>
       </c>
+      <c r="BN19" t="n">
+        <v>594963</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4540,6 +4599,9 @@
       <c r="BM20" t="n">
         <v>3460644</v>
       </c>
+      <c r="BN20" t="n">
+        <v>3462135</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4739,6 +4801,9 @@
       <c r="BM21" t="n">
         <v>2392273</v>
       </c>
+      <c r="BN21" t="n">
+        <v>2389534</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4938,6 +5003,9 @@
       <c r="BM22" t="n">
         <v>420290</v>
       </c>
+      <c r="BN22" t="n">
+        <v>420130</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5136,6 +5204,9 @@
       </c>
       <c r="BM23" t="n">
         <v>10278231</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>10278019</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN23"/>
+  <dimension ref="A1:BO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,11 @@
           <t>2023-04-17</t>
         </is>
       </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -966,6 +971,9 @@
       <c r="BN2" t="n">
         <v>809593</v>
       </c>
+      <c r="BO2" t="n">
+        <v>804916</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1168,6 +1176,9 @@
       <c r="BN3" t="n">
         <v>1003772</v>
       </c>
+      <c r="BO3" t="n">
+        <v>999663</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1370,6 +1381,9 @@
       <c r="BN4" t="n">
         <v>1783765</v>
       </c>
+      <c r="BO4" t="n">
+        <v>1802127</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1572,6 +1586,9 @@
       <c r="BN5" t="n">
         <v>1334522</v>
       </c>
+      <c r="BO5" t="n">
+        <v>1441790</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1774,6 +1791,9 @@
       <c r="BN6" t="n">
         <v>4661228</v>
       </c>
+      <c r="BO6" t="n">
+        <v>4655395</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1976,6 +1996,9 @@
       <c r="BN7" t="n">
         <v>1711522</v>
       </c>
+      <c r="BO7" t="n">
+        <v>1700798</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2178,6 +2201,9 @@
       <c r="BN8" t="n">
         <v>11329989</v>
       </c>
+      <c r="BO8" t="n">
+        <v>11339319</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2380,6 +2406,9 @@
       <c r="BN9" t="n">
         <v>2674569</v>
       </c>
+      <c r="BO9" t="n">
+        <v>2676810</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2582,6 +2611,9 @@
       <c r="BN10" t="n">
         <v>1014692</v>
       </c>
+      <c r="BO10" t="n">
+        <v>1127937</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2784,6 +2816,9 @@
       <c r="BN11" t="n">
         <v>1511434</v>
       </c>
+      <c r="BO11" t="n">
+        <v>1656390</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2986,6 +3021,9 @@
       <c r="BN12" t="n">
         <v>2215251</v>
       </c>
+      <c r="BO12" t="n">
+        <v>2214662</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3188,6 +3226,9 @@
       <c r="BN13" t="n">
         <v>926671</v>
       </c>
+      <c r="BO13" t="n">
+        <v>1122936</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3390,6 +3431,9 @@
       <c r="BN14" t="n">
         <v>1231188</v>
       </c>
+      <c r="BO14" t="n">
+        <v>1247414</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3592,6 +3636,9 @@
       <c r="BN15" t="n">
         <v>9914471</v>
       </c>
+      <c r="BO15" t="n">
+        <v>9885460</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3794,6 +3841,9 @@
       <c r="BN16" t="n">
         <v>1283894</v>
       </c>
+      <c r="BO16" t="n">
+        <v>1286555</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3996,6 +4046,9 @@
       <c r="BN17" t="n">
         <v>532680</v>
       </c>
+      <c r="BO17" t="n">
+        <v>529885</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4198,6 +4251,9 @@
       <c r="BN18" t="n">
         <v>1675889</v>
       </c>
+      <c r="BO18" t="n">
+        <v>1723959</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4400,6 +4456,9 @@
       <c r="BN19" t="n">
         <v>594963</v>
       </c>
+      <c r="BO19" t="n">
+        <v>602927</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4602,6 +4661,9 @@
       <c r="BN20" t="n">
         <v>3462135</v>
       </c>
+      <c r="BO20" t="n">
+        <v>3472057</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4804,6 +4866,9 @@
       <c r="BN21" t="n">
         <v>2389534</v>
       </c>
+      <c r="BO21" t="n">
+        <v>2393464</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5006,6 +5071,9 @@
       <c r="BN22" t="n">
         <v>420130</v>
       </c>
+      <c r="BO22" t="n">
+        <v>423046</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5207,6 +5275,9 @@
       </c>
       <c r="BN23" t="n">
         <v>10278019</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>10272554</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO23"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,6 +769,11 @@
           <t>2023-04-22</t>
         </is>
       </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -974,6 +979,9 @@
       <c r="BO2" t="n">
         <v>804916</v>
       </c>
+      <c r="BP2" t="n">
+        <v>803334</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1179,6 +1187,9 @@
       <c r="BO3" t="n">
         <v>999663</v>
       </c>
+      <c r="BP3" t="n">
+        <v>995611</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1384,6 +1395,9 @@
       <c r="BO4" t="n">
         <v>1802127</v>
       </c>
+      <c r="BP4" t="n">
+        <v>1911941</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1589,6 +1603,9 @@
       <c r="BO5" t="n">
         <v>1441790</v>
       </c>
+      <c r="BP5" t="n">
+        <v>1454247</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1794,6 +1811,9 @@
       <c r="BO6" t="n">
         <v>4655395</v>
       </c>
+      <c r="BP6" t="n">
+        <v>4656942</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1999,6 +2019,9 @@
       <c r="BO7" t="n">
         <v>1700798</v>
       </c>
+      <c r="BP7" t="n">
+        <v>1698599</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2204,6 +2227,9 @@
       <c r="BO8" t="n">
         <v>11339319</v>
       </c>
+      <c r="BP8" t="n">
+        <v>11353249</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2409,6 +2435,9 @@
       <c r="BO9" t="n">
         <v>2676810</v>
       </c>
+      <c r="BP9" t="n">
+        <v>2687328</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2614,6 +2643,9 @@
       <c r="BO10" t="n">
         <v>1127937</v>
       </c>
+      <c r="BP10" t="n">
+        <v>1153936</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2819,6 +2851,9 @@
       <c r="BO11" t="n">
         <v>1656390</v>
       </c>
+      <c r="BP11" t="n">
+        <v>1670686</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3024,6 +3059,9 @@
       <c r="BO12" t="n">
         <v>2214662</v>
       </c>
+      <c r="BP12" t="n">
+        <v>2216317</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3229,6 +3267,9 @@
       <c r="BO13" t="n">
         <v>1122936</v>
       </c>
+      <c r="BP13" t="n">
+        <v>1144258</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3434,6 +3475,9 @@
       <c r="BO14" t="n">
         <v>1247414</v>
       </c>
+      <c r="BP14" t="n">
+        <v>1251641</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3639,6 +3683,9 @@
       <c r="BO15" t="n">
         <v>9885460</v>
       </c>
+      <c r="BP15" t="n">
+        <v>9955530</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3844,6 +3891,9 @@
       <c r="BO16" t="n">
         <v>1286555</v>
       </c>
+      <c r="BP16" t="n">
+        <v>1285939</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4049,6 +4099,9 @@
       <c r="BO17" t="n">
         <v>529885</v>
       </c>
+      <c r="BP17" t="n">
+        <v>529141</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4254,6 +4307,9 @@
       <c r="BO18" t="n">
         <v>1723959</v>
       </c>
+      <c r="BP18" t="n">
+        <v>1738690</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4459,6 +4515,9 @@
       <c r="BO19" t="n">
         <v>602927</v>
       </c>
+      <c r="BP19" t="n">
+        <v>604192</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4664,6 +4723,9 @@
       <c r="BO20" t="n">
         <v>3472057</v>
       </c>
+      <c r="BP20" t="n">
+        <v>3473381</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4869,6 +4931,9 @@
       <c r="BO21" t="n">
         <v>2393464</v>
       </c>
+      <c r="BP21" t="n">
+        <v>2401125</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5074,6 +5139,9 @@
       <c r="BO22" t="n">
         <v>423046</v>
       </c>
+      <c r="BP22" t="n">
+        <v>422654</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5278,6 +5346,9 @@
       </c>
       <c r="BO23" t="n">
         <v>10272554</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>10271080</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BQ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,6 +774,11 @@
           <t>2023-04-24</t>
         </is>
       </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -980,7 +985,10 @@
         <v>804916</v>
       </c>
       <c r="BP2" t="n">
-        <v>803334</v>
+        <v>802297</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>817325</v>
       </c>
     </row>
     <row r="3">
@@ -1188,7 +1196,10 @@
         <v>999663</v>
       </c>
       <c r="BP3" t="n">
-        <v>995611</v>
+        <v>994148</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1003178</v>
       </c>
     </row>
     <row r="4">
@@ -1396,7 +1407,10 @@
         <v>1802127</v>
       </c>
       <c r="BP4" t="n">
-        <v>1911941</v>
+        <v>1939992</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>2282896</v>
       </c>
     </row>
     <row r="5">
@@ -1604,7 +1618,10 @@
         <v>1441790</v>
       </c>
       <c r="BP5" t="n">
-        <v>1454247</v>
+        <v>1452796</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>1426117</v>
       </c>
     </row>
     <row r="6">
@@ -1812,7 +1829,10 @@
         <v>4655395</v>
       </c>
       <c r="BP6" t="n">
-        <v>4656942</v>
+        <v>4656640</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>4797634</v>
       </c>
     </row>
     <row r="7">
@@ -2020,7 +2040,10 @@
         <v>1700798</v>
       </c>
       <c r="BP7" t="n">
-        <v>1698599</v>
+        <v>1692118</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1696101</v>
       </c>
     </row>
     <row r="8">
@@ -2228,7 +2251,10 @@
         <v>11339319</v>
       </c>
       <c r="BP8" t="n">
-        <v>11353249</v>
+        <v>11355904</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>11466746</v>
       </c>
     </row>
     <row r="9">
@@ -2436,7 +2462,10 @@
         <v>2676810</v>
       </c>
       <c r="BP9" t="n">
-        <v>2687328</v>
+        <v>2714332</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>2945892</v>
       </c>
     </row>
     <row r="10">
@@ -2644,7 +2673,10 @@
         <v>1127937</v>
       </c>
       <c r="BP10" t="n">
-        <v>1153936</v>
+        <v>1155275</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>1227897</v>
       </c>
     </row>
     <row r="11">
@@ -2852,7 +2884,10 @@
         <v>1656390</v>
       </c>
       <c r="BP11" t="n">
-        <v>1670686</v>
+        <v>1674776</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>1724755</v>
       </c>
     </row>
     <row r="12">
@@ -3060,7 +3095,10 @@
         <v>2214662</v>
       </c>
       <c r="BP12" t="n">
-        <v>2216317</v>
+        <v>2215071</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>2359622</v>
       </c>
     </row>
     <row r="13">
@@ -3268,7 +3306,10 @@
         <v>1122936</v>
       </c>
       <c r="BP13" t="n">
-        <v>1144258</v>
+        <v>1146497</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>1225727</v>
       </c>
     </row>
     <row r="14">
@@ -3476,7 +3517,10 @@
         <v>1247414</v>
       </c>
       <c r="BP14" t="n">
-        <v>1251641</v>
+        <v>1250117</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>1274353</v>
       </c>
     </row>
     <row r="15">
@@ -3684,7 +3728,10 @@
         <v>9885460</v>
       </c>
       <c r="BP15" t="n">
-        <v>9955530</v>
+        <v>9964544</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>10020517</v>
       </c>
     </row>
     <row r="16">
@@ -3892,7 +3939,10 @@
         <v>1286555</v>
       </c>
       <c r="BP16" t="n">
-        <v>1285939</v>
+        <v>1285398</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>1295615</v>
       </c>
     </row>
     <row r="17">
@@ -4100,7 +4150,10 @@
         <v>529885</v>
       </c>
       <c r="BP17" t="n">
-        <v>529141</v>
+        <v>528114</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>539895</v>
       </c>
     </row>
     <row r="18">
@@ -4308,7 +4361,10 @@
         <v>1723959</v>
       </c>
       <c r="BP18" t="n">
-        <v>1738690</v>
+        <v>1740493</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>1792203</v>
       </c>
     </row>
     <row r="19">
@@ -4516,7 +4572,10 @@
         <v>602927</v>
       </c>
       <c r="BP19" t="n">
-        <v>604192</v>
+        <v>603685</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>633193</v>
       </c>
     </row>
     <row r="20">
@@ -4724,7 +4783,10 @@
         <v>3472057</v>
       </c>
       <c r="BP20" t="n">
-        <v>3473381</v>
+        <v>3471629</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>3497906</v>
       </c>
     </row>
     <row r="21">
@@ -4932,7 +4994,10 @@
         <v>2393464</v>
       </c>
       <c r="BP21" t="n">
-        <v>2401125</v>
+        <v>2397168</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>2943599</v>
       </c>
     </row>
     <row r="22">
@@ -5140,7 +5205,10 @@
         <v>423046</v>
       </c>
       <c r="BP22" t="n">
-        <v>422654</v>
+        <v>421279</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>425913</v>
       </c>
     </row>
     <row r="23">
@@ -5348,7 +5416,10 @@
         <v>10272554</v>
       </c>
       <c r="BP23" t="n">
-        <v>10271080</v>
+        <v>10273671</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>10295867</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ23"/>
+  <dimension ref="A1:BR23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,6 +779,11 @@
           <t>2023-04-28</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -990,6 +995,9 @@
       <c r="BQ2" t="n">
         <v>817325</v>
       </c>
+      <c r="BR2" t="n">
+        <v>818749</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1201,6 +1209,9 @@
       <c r="BQ3" t="n">
         <v>1003178</v>
       </c>
+      <c r="BR3" t="n">
+        <v>1004295</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1412,6 +1423,9 @@
       <c r="BQ4" t="n">
         <v>2282896</v>
       </c>
+      <c r="BR4" t="n">
+        <v>2305059</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1623,6 +1637,9 @@
       <c r="BQ5" t="n">
         <v>1426117</v>
       </c>
+      <c r="BR5" t="n">
+        <v>1292152</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1834,6 +1851,9 @@
       <c r="BQ6" t="n">
         <v>4797634</v>
       </c>
+      <c r="BR6" t="n">
+        <v>4835958</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2045,6 +2065,9 @@
       <c r="BQ7" t="n">
         <v>1696101</v>
       </c>
+      <c r="BR7" t="n">
+        <v>1697036</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2256,6 +2279,9 @@
       <c r="BQ8" t="n">
         <v>11466746</v>
       </c>
+      <c r="BR8" t="n">
+        <v>11483829</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2467,6 +2493,9 @@
       <c r="BQ9" t="n">
         <v>2945892</v>
       </c>
+      <c r="BR9" t="n">
+        <v>2978527</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2678,6 +2707,9 @@
       <c r="BQ10" t="n">
         <v>1227897</v>
       </c>
+      <c r="BR10" t="n">
+        <v>1248268</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2889,6 +2921,9 @@
       <c r="BQ11" t="n">
         <v>1724755</v>
       </c>
+      <c r="BR11" t="n">
+        <v>1726846</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3100,6 +3135,9 @@
       <c r="BQ12" t="n">
         <v>2359622</v>
       </c>
+      <c r="BR12" t="n">
+        <v>2384487</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3311,6 +3349,9 @@
       <c r="BQ13" t="n">
         <v>1225727</v>
       </c>
+      <c r="BR13" t="n">
+        <v>1239196</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3522,6 +3563,9 @@
       <c r="BQ14" t="n">
         <v>1274353</v>
       </c>
+      <c r="BR14" t="n">
+        <v>1277187</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3733,6 +3777,9 @@
       <c r="BQ15" t="n">
         <v>10020517</v>
       </c>
+      <c r="BR15" t="n">
+        <v>10004802</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3944,6 +3991,9 @@
       <c r="BQ16" t="n">
         <v>1295615</v>
       </c>
+      <c r="BR16" t="n">
+        <v>1295929</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4155,6 +4205,9 @@
       <c r="BQ17" t="n">
         <v>539895</v>
       </c>
+      <c r="BR17" t="n">
+        <v>540817</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4366,6 +4419,9 @@
       <c r="BQ18" t="n">
         <v>1792203</v>
       </c>
+      <c r="BR18" t="n">
+        <v>1805457</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4577,6 +4633,9 @@
       <c r="BQ19" t="n">
         <v>633193</v>
       </c>
+      <c r="BR19" t="n">
+        <v>640006</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4788,6 +4847,9 @@
       <c r="BQ20" t="n">
         <v>3497906</v>
       </c>
+      <c r="BR20" t="n">
+        <v>3502938</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4999,6 +5061,9 @@
       <c r="BQ21" t="n">
         <v>2943599</v>
       </c>
+      <c r="BR21" t="n">
+        <v>3033877</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5210,6 +5275,9 @@
       <c r="BQ22" t="n">
         <v>425913</v>
       </c>
+      <c r="BR22" t="n">
+        <v>426443</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5420,6 +5488,9 @@
       </c>
       <c r="BQ23" t="n">
         <v>10295867</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>10298356</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -461,14 +461,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alane</t>
+          <t>Alane</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>373357</v>
       </c>
       <c r="D2" t="n">
-        <v>387408</v>
+        <v>373357</v>
       </c>
     </row>
     <row r="3">
@@ -477,14 +477,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Beatriz</t>
+          <t>Beatriz</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>219727</v>
       </c>
       <c r="D3" t="n">
-        <v>237960</v>
+        <v>219727</v>
       </c>
     </row>
     <row r="4">
@@ -493,14 +493,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Deniziane</t>
+          <t>Deniziane</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>93728</v>
       </c>
       <c r="D4" t="n">
-        <v>97957</v>
+        <v>93728</v>
       </c>
     </row>
     <row r="5">
@@ -509,14 +509,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fernanda</t>
+          <t>Fernanda</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48703</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -525,14 +525,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Giovanna</t>
+          <t>Giovanna</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>69811</v>
       </c>
       <c r="D6" t="n">
-        <v>71644</v>
+        <v>69811</v>
       </c>
     </row>
     <row r="7">
@@ -541,14 +541,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Leidy Elin</t>
+          <t>Leidy Elin</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>374737</v>
       </c>
       <c r="D7" t="n">
-        <v>378448</v>
+        <v>374737</v>
       </c>
     </row>
     <row r="8">
@@ -557,14 +557,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lucas Luigi</t>
+          <t>Lucas Luigi</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>41727</v>
       </c>
       <c r="D8" t="n">
-        <v>45168</v>
+        <v>41727</v>
       </c>
     </row>
     <row r="9">
@@ -573,14 +573,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lucas Pizane</t>
+          <t>Lucas Pizane</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>97110</v>
       </c>
       <c r="D9" t="n">
-        <v>105726</v>
+        <v>97110</v>
       </c>
     </row>
     <row r="10">
@@ -589,14 +589,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marcus</t>
+          <t>Marcus</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>78515</v>
       </c>
       <c r="D10" t="n">
-        <v>81815</v>
+        <v>78515</v>
       </c>
     </row>
     <row r="11">
@@ -605,14 +605,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Matteus</t>
+          <t>Matteus</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>71936</v>
       </c>
       <c r="D11" t="n">
-        <v>76815</v>
+        <v>71936</v>
       </c>
     </row>
     <row r="12">
@@ -621,14 +621,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maycon</t>
+          <t>Maycon</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>56925</v>
       </c>
       <c r="D12" t="n">
-        <v>56606</v>
+        <v>56925</v>
       </c>
     </row>
     <row r="13">
@@ -637,14 +637,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mc Bin Laden</t>
+          <t>Mc Bin Laden</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>3876068</v>
       </c>
       <c r="D13" t="n">
-        <v>3894549</v>
+        <v>3876068</v>
       </c>
     </row>
     <row r="14">
@@ -653,14 +653,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nizam</t>
+          <t>Nizam</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>59532</v>
       </c>
       <c r="D14" t="n">
-        <v>65201</v>
+        <v>59532</v>
       </c>
     </row>
     <row r="15">
@@ -669,14 +669,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rodriguinho</t>
+          <t>Rodriguinho</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>2204265</v>
       </c>
       <c r="D15" t="n">
-        <v>2212854</v>
+        <v>2204265</v>
       </c>
     </row>
     <row r="16">
@@ -685,14 +685,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vanessa Lopes</t>
+          <t>Vanessa Lopes</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>13973281</v>
       </c>
       <c r="D16" t="n">
-        <v>14017258</v>
+        <v>13973281</v>
       </c>
     </row>
     <row r="17">
@@ -701,14 +701,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vinicius Rodrigues</t>
+          <t>Vinicius Rodrigues</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>71472</v>
       </c>
       <c r="D17" t="n">
-        <v>83919</v>
+        <v>71472</v>
       </c>
     </row>
     <row r="18">
@@ -717,14 +717,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wanessa Camargo</t>
+          <t>Wanessa Camargo</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>4213058</v>
       </c>
       <c r="D18" t="n">
-        <v>4230709</v>
+        <v>4213058</v>
       </c>
     </row>
     <row r="19">
@@ -733,14 +733,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yasmin Brunet</t>
+          <t>Yasmin Brunet</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>4788293</v>
       </c>
       <c r="D19" t="n">
-        <v>4832531</v>
+        <v>4788293</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,6 @@
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-09</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -465,10 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>373357</v>
-      </c>
-      <c r="D2" t="n">
-        <v>373357</v>
+        <v>466633</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>219727</v>
-      </c>
-      <c r="D3" t="n">
-        <v>219727</v>
+        <v>312266</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>93728</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93728</v>
+        <v>247702</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>57154</v>
       </c>
     </row>
     <row r="6">
@@ -525,14 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Giovanna</t>
+          <t>Giovanna Pitel</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69811</v>
-      </c>
-      <c r="D6" t="n">
-        <v>69811</v>
+        <v>73873</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +525,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>374737</v>
-      </c>
-      <c r="D7" t="n">
-        <v>374737</v>
+        <v>389503</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>41727</v>
-      </c>
-      <c r="D8" t="n">
-        <v>41727</v>
+        <v>48937</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +551,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>97110</v>
-      </c>
-      <c r="D9" t="n">
-        <v>97110</v>
+        <v>132462</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +564,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>78515</v>
-      </c>
-      <c r="D10" t="n">
-        <v>78515</v>
+        <v>95898</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +577,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>71936</v>
-      </c>
-      <c r="D11" t="n">
-        <v>71936</v>
+        <v>146109</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +590,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>56925</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56925</v>
+        <v>52695</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +603,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3876068</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3876068</v>
+        <v>3980296</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +616,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>59532</v>
-      </c>
-      <c r="D14" t="n">
-        <v>59532</v>
+        <v>79928</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +629,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2204265</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2204265</v>
+        <v>2231638</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +642,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13973281</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13973281</v>
+        <v>14154533</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +655,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>71472</v>
-      </c>
-      <c r="D17" t="n">
-        <v>71472</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +668,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4213058</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4213058</v>
+        <v>4323681</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +681,111 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4788293</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4788293</v>
+        <v>5270698</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Davi</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>292415</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Giovanna</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>201669</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>614226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Juninho</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>21799</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lucas Henrique</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>38615</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Michel</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>25078</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Raqueli</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>90877</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Thalyta</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>29370</v>
       </c>
     </row>
   </sheetData>

--- a/data/bbb_instagram.xlsx
+++ b/data/bbb_instagram.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>2024-01-08</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -462,6 +467,9 @@
       <c r="C2" t="n">
         <v>466633</v>
       </c>
+      <c r="D2" t="n">
+        <v>531163</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -475,6 +483,9 @@
       <c r="C3" t="n">
         <v>312266</v>
       </c>
+      <c r="D3" t="n">
+        <v>408824</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -488,6 +499,9 @@
       <c r="C4" t="n">
         <v>247702</v>
       </c>
+      <c r="D4" t="n">
+        <v>281365</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -501,6 +515,9 @@
       <c r="C5" t="n">
         <v>57154</v>
       </c>
+      <c r="D5" t="n">
+        <v>60915</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -514,6 +531,9 @@
       <c r="C6" t="n">
         <v>73873</v>
       </c>
+      <c r="D6" t="n">
+        <v>75961</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -527,6 +547,9 @@
       <c r="C7" t="n">
         <v>389503</v>
       </c>
+      <c r="D7" t="n">
+        <v>394247</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -540,6 +563,9 @@
       <c r="C8" t="n">
         <v>48937</v>
       </c>
+      <c r="D8" t="n">
+        <v>60713</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -553,6 +579,9 @@
       <c r="C9" t="n">
         <v>132462</v>
       </c>
+      <c r="D9" t="n">
+        <v>144657</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -566,6 +595,9 @@
       <c r="C10" t="n">
         <v>95898</v>
       </c>
+      <c r="D10" t="n">
+        <v>102550</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -579,6 +611,9 @@
       <c r="C11" t="n">
         <v>146109</v>
       </c>
+      <c r="D11" t="n">
+        <v>169771</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -592,6 +627,9 @@
       <c r="C12" t="n">
         <v>52695</v>
       </c>
+      <c r="D12" t="n">
+        <v>54707</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -605,6 +643,9 @@
       <c r="C13" t="n">
         <v>3980296</v>
       </c>
+      <c r="D13" t="n">
+        <v>4088891</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -618,6 +659,9 @@
       <c r="C14" t="n">
         <v>79928</v>
       </c>
+      <c r="D14" t="n">
+        <v>88613</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -631,6 +675,9 @@
       <c r="C15" t="n">
         <v>2231638</v>
       </c>
+      <c r="D15" t="n">
+        <v>2328616</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -644,6 +691,9 @@
       <c r="C16" t="n">
         <v>14154533</v>
       </c>
+      <c r="D16" t="n">
+        <v>14229787</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -657,6 +707,9 @@
       <c r="C17" t="n">
         <v>36</v>
       </c>
+      <c r="D17" t="n">
+        <v>191151</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -670,6 +723,9 @@
       <c r="C18" t="n">
         <v>4323681</v>
       </c>
+      <c r="D18" t="n">
+        <v>4380551</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -683,6 +739,9 @@
       <c r="C19" t="n">
         <v>5270698</v>
       </c>
+      <c r="D19" t="n">
+        <v>5680393</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -696,6 +755,9 @@
       <c r="C20" t="n">
         <v>292415</v>
       </c>
+      <c r="D20" t="n">
+        <v>391979</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -709,6 +771,9 @@
       <c r="C21" t="n">
         <v>201669</v>
       </c>
+      <c r="D21" t="n">
+        <v>286749</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -722,6 +787,9 @@
       <c r="C22" t="n">
         <v>614226</v>
       </c>
+      <c r="D22" t="n">
+        <v>671965</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -735,6 +803,9 @@
       <c r="C23" t="n">
         <v>21799</v>
       </c>
+      <c r="D23" t="n">
+        <v>24207</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -748,6 +819,9 @@
       <c r="C24" t="n">
         <v>38615</v>
       </c>
+      <c r="D24" t="n">
+        <v>45080</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -761,6 +835,9 @@
       <c r="C25" t="n">
         <v>25078</v>
       </c>
+      <c r="D25" t="n">
+        <v>27618</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -774,6 +851,9 @@
       <c r="C26" t="n">
         <v>90877</v>
       </c>
+      <c r="D26" t="n">
+        <v>120266</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -786,6 +866,9 @@
       </c>
       <c r="C27" t="n">
         <v>29370</v>
+      </c>
+      <c r="D27" t="n">
+        <v>36909</v>
       </c>
     </row>
   </sheetData>
